--- a/test/A1 - Copy.xlsx
+++ b/test/A1 - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB36DD0-D5F4-4115-AC0D-66723D35CA72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0844225-8410-41C2-91FE-01E6AD2CD9A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="periods" sheetId="3" r:id="rId3"/>
     <sheet name="demands" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -72,156 +75,12 @@
     <t>START</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>INVL</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Aceh</t>
-  </si>
-  <si>
     <t>point</t>
   </si>
   <si>
-    <t>Bank Indonesia Lhokseumawe</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sumatera Utara (Medan)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sibolga</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Pematang Siantar</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sumatera Barat (Padang)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Riau (Pekanbaru)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Bengkulu</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Jambi</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kep. Riau (Batam)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sumatera Selatan (Palembang)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Lampung</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Banten (Serang)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kep. Babel</t>
-  </si>
-  <si>
-    <t>Bank Indonesia DKI Jakarta</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
-    <t>Bank Indonesia Jawa Barat (Bandung)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Tasikmalaya</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Cirebon</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Tegal</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Purwokerto</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kalimantan Barat (Pontianak)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Yogyakarta</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Jawa Tengah (Semarang)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Solo</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kediri</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Malang</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Jawa Timur (Surabaya)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Jember</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kalimantan Tengah (Palangkaraya)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kalimantan Selatan (Banjarmasin)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Bali</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Nusa Tenggara Barat</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Balikpapan</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kalimantan Timur (Samarinda)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Kalimantan Utara (Tarakan)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sulawesi Barat (Mamuju)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sulawesi Selatan (Makassar)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sulawesi Tengah (Palu)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sulawesi Tenggara (Kendari)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Gorontalo</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Nusa Tenggara Timur (Kupang)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Sulawesi Utara (Manado)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Maluku Utara (Ternate)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Maluku (Ambon)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Papua Barat (Manokwari)</t>
-  </si>
-  <si>
-    <t>Bank Indonesia Jayapura</t>
-  </si>
-  <si>
     <t>BP</t>
   </si>
   <si>
@@ -814,6 +673,381 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>ship_temas</t>
+  </si>
+  <si>
+    <t>Lhokseumawe</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Sibolga</t>
+  </si>
+  <si>
+    <t>Pematang Siantar</t>
+  </si>
+  <si>
+    <t>KODE</t>
+  </si>
+  <si>
+    <t>SBG</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t>Pekanbaru</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>JMB</t>
+  </si>
+  <si>
+    <t>Batam</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>LSM</t>
+  </si>
+  <si>
+    <t>MDN</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>BGL</t>
+  </si>
+  <si>
+    <t>PLG</t>
+  </si>
+  <si>
+    <t>BDL</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t>Banda Aceh</t>
+  </si>
+  <si>
+    <t>Pangkal Pinang</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Tasikmalaya</t>
+  </si>
+  <si>
+    <t>Cirebon</t>
+  </si>
+  <si>
+    <t>Tegal</t>
+  </si>
+  <si>
+    <t>Purwokerto</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Kediri</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>Jember</t>
+  </si>
+  <si>
+    <t>Palangkaraya</t>
+  </si>
+  <si>
+    <t>Banjarmasin</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Denpasar</t>
+  </si>
+  <si>
+    <t>Mataram</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Samarinda</t>
+  </si>
+  <si>
+    <t>Tarakan</t>
+  </si>
+  <si>
+    <t>Mamuju</t>
+  </si>
+  <si>
+    <t>Makassar</t>
+  </si>
+  <si>
+    <t>Palu</t>
+  </si>
+  <si>
+    <t>Kendari</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Kupang</t>
+  </si>
+  <si>
+    <t>Manado</t>
+  </si>
+  <si>
+    <t>Ternate</t>
+  </si>
+  <si>
+    <t>Ambon</t>
+  </si>
+  <si>
+    <t>Manokwari</t>
+  </si>
+  <si>
+    <t>Jayapura</t>
+  </si>
+  <si>
+    <t>SRG</t>
+  </si>
+  <si>
+    <t>PGP</t>
+  </si>
+  <si>
+    <t>KDI</t>
+  </si>
+  <si>
+    <t>MLG</t>
+  </si>
+  <si>
+    <t>JMR</t>
+  </si>
+  <si>
+    <t>KPG</t>
+  </si>
+  <si>
+    <t>JKT</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>MKS</t>
+  </si>
+  <si>
+    <t>BDG</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>GTO</t>
+  </si>
+  <si>
+    <t>BNA</t>
+  </si>
+  <si>
+    <t>CBN</t>
+  </si>
+  <si>
+    <t>TGL</t>
+  </si>
+  <si>
+    <t>PWT</t>
+  </si>
+  <si>
+    <t>PTK</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>SKT</t>
+  </si>
+  <si>
+    <t>YYK</t>
+  </si>
+  <si>
+    <t>KDR</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>SBY</t>
+  </si>
+  <si>
+    <t>PLK</t>
+  </si>
+  <si>
+    <t>BJM</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>MND</t>
+  </si>
+  <si>
+    <t>TTE</t>
+  </si>
+  <si>
+    <t>AMB</t>
+  </si>
+  <si>
+    <t>MNK</t>
+  </si>
+  <si>
+    <t>JAP</t>
+  </si>
+  <si>
+    <t>Sumatra</t>
+  </si>
+  <si>
+    <t>ALIAS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Kepri</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Babel</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Jawa</t>
+  </si>
+  <si>
+    <t>Kalimantan</t>
+  </si>
+  <si>
+    <t>Kalbar</t>
+  </si>
+  <si>
+    <t>Kalteng</t>
+  </si>
+  <si>
+    <t>Kalsel</t>
+  </si>
+  <si>
+    <t>KEPULAUAN</t>
+  </si>
+  <si>
+    <t>Kaltim</t>
+  </si>
+  <si>
+    <t>Kalut</t>
+  </si>
+  <si>
+    <t>Sulbar</t>
+  </si>
+  <si>
+    <t>Sulsel</t>
+  </si>
+  <si>
+    <t>Sulteng</t>
+  </si>
+  <si>
+    <t>Sultra</t>
+  </si>
+  <si>
+    <t>Sulawesi</t>
+  </si>
+  <si>
+    <t>NTT</t>
+  </si>
+  <si>
+    <t>Sulut</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t>di bawah Maluku Utara</t>
+  </si>
+  <si>
+    <t>Papbar</t>
+  </si>
+  <si>
+    <t>Pap</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>KEPRI</t>
+  </si>
+  <si>
+    <t>NTB</t>
   </si>
 </sst>
 </file>
@@ -826,7 +1060,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -837,6 +1071,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -908,7 +1148,7 @@
     <cellStyle name="Comma 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -930,14 +1170,13 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,12 +1259,39 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="vertices"/>
+      <sheetName val="vehicles"/>
+      <sheetName val="periods"/>
+      <sheetName val="demands"/>
+      <sheetName val="A1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K47" totalsRowShown="0">
-  <autoFilter ref="A1:K47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N47" totalsRowShown="0">
+  <autoFilter ref="A1:N47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="12" xr3:uid="{27CEAE4A-8780-441B-B03C-13201A072DFD}" name="KODE"/>
+    <tableColumn id="14" xr3:uid="{51D8A2AE-3D8D-4380-BA04-2CE887C883AC}" name="ALIAS"/>
+    <tableColumn id="13" xr3:uid="{0C5F3EEB-97DC-4F55-AF49-5A7F6CE28118}" name="KEPULAUAN"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="x"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="y"/>
@@ -1041,9 +1307,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:R85" totalsRowShown="0">
-  <autoFilter ref="A1:R85" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="A1:S85" totalsRowShown="0">
+  <autoFilter ref="A1:S85" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="type"/>
@@ -1059,9 +1325,16 @@
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="vardct Rp"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="vl"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="vard Rp"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="vx"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="vx" dataDxfId="4">
+      <calculatedColumnFormula>[1]!Table3[[#This Row],[vard Rp]]/1000</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="fix Rp"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="fp"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="fp" dataDxfId="3">
+      <calculatedColumnFormula>[1]!Table3[[#This Row],[fix Rp]]/1000</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{C6D6F4D2-1BFE-45DB-8875-A661B271D2E2}" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1397,28 +1670,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="7" max="8" width="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1426,2014 +1702,2063 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>95.316867200000004</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>5.5576385000000004</v>
       </c>
-      <c r="F2" s="2">
+      <c r="I2" s="2">
         <v>2856</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J47" si="0">L2</f>
-        <v>882</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K47" si="1">IF(M2&gt;F2,F2,M2)</f>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
         <v>2856</v>
       </c>
-      <c r="L2">
-        <v>882</v>
-      </c>
-      <c r="M2" s="4">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>97.141161199999999</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>5.1823794000000003</v>
       </c>
-      <c r="F3" s="5">
+      <c r="I3" s="5">
         <v>8400</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>690</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" si="1"/>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>6192</v>
       </c>
-      <c r="L3">
-        <v>690</v>
-      </c>
-      <c r="M3">
-        <v>6192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>98.677069200000005</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>3.5907933999999999</v>
       </c>
-      <c r="F4" s="2">
+      <c r="I4" s="2">
         <v>33676</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>2825</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="1"/>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
         <v>7170</v>
       </c>
-      <c r="L4">
-        <v>2825</v>
-      </c>
-      <c r="M4">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>98.77534</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>1.7474852000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="I5" s="5">
         <v>4172</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>4172</v>
       </c>
-      <c r="L5">
-        <v>935</v>
-      </c>
-      <c r="M5">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+        <v>230</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>99.058270500000006</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>2.9556306999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="2">
         <v>4968</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L6" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>369</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="1"/>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>4948</v>
       </c>
-      <c r="L6">
-        <v>369</v>
-      </c>
-      <c r="M6">
-        <v>4948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>100.3622993</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>-0.94305039999999996</v>
       </c>
-      <c r="F7" s="5">
+      <c r="I7" s="5">
         <v>13424</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>1146</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="1"/>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
         <v>9355</v>
       </c>
-      <c r="L7">
-        <v>1146</v>
-      </c>
-      <c r="M7">
-        <v>9355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
+        <v>233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>101.446956</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>0.51469969999999998</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="2">
         <v>7000</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>2432</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="1"/>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
         <v>7000</v>
       </c>
-      <c r="L8">
-        <v>2432</v>
-      </c>
-      <c r="M8">
-        <v>17015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
         <v>102.253207</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>-3.7901980000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="I9" s="5">
         <v>2800</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>746</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" si="1"/>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
         <v>2800</v>
       </c>
-      <c r="L9">
-        <v>746</v>
-      </c>
-      <c r="M9">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
         <v>103.5828587</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>-1.6091815</v>
       </c>
-      <c r="F10" s="2">
+      <c r="I10" s="2">
         <v>6687</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1150</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="1"/>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>6687</v>
       </c>
-      <c r="L10">
-        <v>1150</v>
-      </c>
-      <c r="M10">
-        <v>7313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
         <v>104.0558977</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>1.1292039</v>
       </c>
-      <c r="F11" s="5">
+      <c r="I11" s="5">
         <v>7700</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1763</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="1"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
         <v>5114</v>
       </c>
-      <c r="L11">
-        <v>1763</v>
-      </c>
-      <c r="M11">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
         <v>104.7544829</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>-2.9755940000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="I12" s="2">
         <v>19152</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>2412</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="1"/>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>12579</v>
       </c>
-      <c r="L12">
-        <v>2412</v>
-      </c>
-      <c r="M12">
-        <v>12579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
+        <v>236</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
         <v>105.26740599999999</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>-5.4434601000000002</v>
       </c>
-      <c r="F13" s="5">
+      <c r="I13" s="5">
         <v>22400</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1956</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="1"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>11641</v>
       </c>
-      <c r="L13">
-        <v>1956</v>
-      </c>
-      <c r="M13">
-        <v>11641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
+        <v>273</v>
+      </c>
+      <c r="D14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
         <v>106.14980679999999</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>-6.1758652999999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="I14" s="2">
         <v>7686</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1389</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="1"/>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>7686</v>
       </c>
-      <c r="L14">
-        <v>1389</v>
-      </c>
-      <c r="M14">
-        <v>7820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
+        <v>274</v>
+      </c>
+      <c r="D15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
         <v>106.15707260000001</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>-2.1489221000000001</v>
       </c>
-      <c r="F15" s="5">
+      <c r="I15" s="5">
         <v>8190</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>545</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" si="1"/>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>5717</v>
       </c>
-      <c r="L15">
-        <v>545</v>
-      </c>
-      <c r="M15">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
+        <v>279</v>
+      </c>
+      <c r="D16" t="s">
+        <v>309</v>
+      </c>
+      <c r="E16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
         <v>106.8247514</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>-6.1667636000000003</v>
       </c>
-      <c r="F16" s="2">
+      <c r="I16" s="2">
         <v>9999999</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>-9999999</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" si="1"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>495618</v>
       </c>
-      <c r="L16">
-        <v>-9999999</v>
-      </c>
-      <c r="M16">
-        <v>495618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
         <v>107.60927940000001</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>-6.9143356000000002</v>
       </c>
-      <c r="F17" s="5">
+      <c r="I17" s="5">
         <v>72956</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>2649</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" si="1"/>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
         <v>21851</v>
       </c>
-      <c r="L17">
-        <v>2649</v>
-      </c>
-      <c r="M17">
-        <v>21851</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
+      <c r="E18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
         <v>108.22577889999999</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>-7.3265653999999998</v>
       </c>
-      <c r="F18" s="2">
+      <c r="I18" s="2">
         <v>3990</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>608</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" si="1"/>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
         <v>3990</v>
       </c>
-      <c r="L18">
-        <v>608</v>
-      </c>
-      <c r="M18">
-        <v>4978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
+        <v>286</v>
+      </c>
+      <c r="D19" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
         <v>108.57218520000001</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>-6.7189801999999998</v>
       </c>
-      <c r="F19" s="5">
+      <c r="I19" s="5">
         <v>21000</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="I19" s="3">
+      <c r="L19" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>1142</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="1"/>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
         <v>6465</v>
       </c>
-      <c r="L19">
-        <v>1142</v>
-      </c>
-      <c r="M19">
-        <v>6465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
         <v>109.1288435</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>-6.8679807999999998</v>
       </c>
-      <c r="F20" s="2">
+      <c r="I20" s="2">
         <v>6729</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>947</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" si="1"/>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
         <v>5741</v>
       </c>
-      <c r="L20">
-        <v>947</v>
-      </c>
-      <c r="M20">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
+        <v>288</v>
+      </c>
+      <c r="D21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
         <v>109.2379672</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>-7.4222463000000003</v>
       </c>
-      <c r="F21" s="5">
+      <c r="I21" s="5">
         <v>1680</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>1</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>688</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="1"/>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
         <v>1680</v>
       </c>
-      <c r="L21">
-        <v>688</v>
-      </c>
-      <c r="M21">
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
+        <v>289</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
         <v>109.35379</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>-5.9941000000000001E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="I22" s="2">
         <v>22008</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1770</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" si="1"/>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
         <v>6447</v>
       </c>
-      <c r="L22">
-        <v>1770</v>
-      </c>
-      <c r="M22">
-        <v>6447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
+        <v>292</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
         <v>110.36593790000001</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>-7.8018115000000003</v>
       </c>
-      <c r="F23" s="5">
+      <c r="I23" s="5">
         <v>17078</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1492</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" si="1"/>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
         <v>9606</v>
       </c>
-      <c r="L23">
-        <v>1492</v>
-      </c>
-      <c r="M23">
-        <v>9606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24">
+        <v>290</v>
+      </c>
+      <c r="D24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
         <v>110.4226331</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>-6.9946758000000004</v>
       </c>
-      <c r="F24" s="2">
+      <c r="I24" s="2">
         <v>57003</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>2418</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" si="1"/>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
         <v>12950</v>
       </c>
-      <c r="L24">
-        <v>2418</v>
-      </c>
-      <c r="M24">
-        <v>12950</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
+        <v>291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
         <v>110.8295009</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>-7.5708804000000001</v>
       </c>
-      <c r="F25" s="5">
+      <c r="I25" s="5">
         <v>18900</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
-      <c r="I25" s="3">
+      <c r="L25" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>978</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="1"/>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
         <v>11090</v>
       </c>
-      <c r="L25">
-        <v>978</v>
-      </c>
-      <c r="M25">
-        <v>11090</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
+        <v>293</v>
+      </c>
+      <c r="D26" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
         <v>112.0138795</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>-7.8141708000000003</v>
       </c>
-      <c r="F26" s="2">
+      <c r="I26" s="2">
         <v>5250</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>1315</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="1"/>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
         <v>5250</v>
       </c>
-      <c r="L26">
-        <v>1315</v>
-      </c>
-      <c r="M26">
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
+        <v>276</v>
+      </c>
+      <c r="D27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
         <v>112.6314473</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>-7.9816267999999999</v>
       </c>
-      <c r="F27" s="5">
+      <c r="I27" s="5">
         <v>3612</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>1</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>914</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" si="1"/>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>3612</v>
       </c>
-      <c r="L27">
-        <v>914</v>
-      </c>
-      <c r="M27">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28">
+        <v>295</v>
+      </c>
+      <c r="D28" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
         <v>112.7377473</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>-7.2441902999999996</v>
       </c>
-      <c r="F28" s="2">
+      <c r="I28" s="2">
         <v>20300</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>1</v>
       </c>
-      <c r="I28" s="3">
+      <c r="L28" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>3957</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="1"/>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
         <v>17758</v>
       </c>
-      <c r="L28">
-        <v>3957</v>
-      </c>
-      <c r="M28">
-        <v>17758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
+        <v>277</v>
+      </c>
+      <c r="D29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
         <v>113.6793971</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>-8.1782815000000006</v>
       </c>
-      <c r="F29" s="5">
+      <c r="I29" s="5">
         <v>13415</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>944</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="1"/>
+      <c r="M29">
+        <v>-9999999</v>
+      </c>
+      <c r="N29" s="4">
         <v>13208</v>
       </c>
-      <c r="L29">
-        <v>944</v>
-      </c>
-      <c r="M29">
-        <v>13208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
+        <v>296</v>
+      </c>
+      <c r="D30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" t="s">
+        <v>315</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
         <v>113.925826</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>-2.2136980999999998</v>
       </c>
-      <c r="F30" s="2">
+      <c r="I30" s="2">
         <v>2520</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>1823</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="1"/>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
         <v>2520</v>
       </c>
-      <c r="L30">
-        <v>1823</v>
-      </c>
-      <c r="M30">
-        <v>5712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
+        <v>297</v>
+      </c>
+      <c r="D31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
         <v>114.5918511</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>-3.3236477999999998</v>
       </c>
-      <c r="F31" s="5">
+      <c r="I31" s="5">
         <v>6888</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>1</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>1141</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="1"/>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
         <v>6888</v>
       </c>
-      <c r="L31">
-        <v>1141</v>
-      </c>
-      <c r="M31">
-        <v>7366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
+        <v>298</v>
+      </c>
+      <c r="D32" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
         <v>115.22278300000001</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>-8.6683053999999995</v>
       </c>
-      <c r="F32" s="2">
+      <c r="I32" s="2">
         <v>26049</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>2928</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="1"/>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
         <v>8510</v>
       </c>
-      <c r="L32">
-        <v>2928</v>
-      </c>
-      <c r="M32">
-        <v>8510</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33">
+        <v>294</v>
+      </c>
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
         <v>116.102498</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>-8.5808169999999997</v>
       </c>
-      <c r="F33" s="5">
+      <c r="I33" s="5">
         <v>3080</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>1291</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="1"/>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
         <v>3080</v>
       </c>
-      <c r="L33">
-        <v>1291</v>
-      </c>
-      <c r="M33">
-        <v>4030</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34">
+        <v>299</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
         <v>116.8291272</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>-1.277385</v>
       </c>
-      <c r="F34" s="2">
+      <c r="I34" s="2">
         <v>18161</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>1</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>948</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="1"/>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
         <v>4907</v>
       </c>
-      <c r="L34">
-        <v>948</v>
-      </c>
-      <c r="M34">
-        <v>4907</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35">
+        <v>300</v>
+      </c>
+      <c r="D35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
         <v>117.13805670000001</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>-0.50089130000000004</v>
       </c>
-      <c r="F35" s="5">
+      <c r="I35" s="5">
         <v>15246</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1512</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" si="1"/>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
         <v>5607</v>
       </c>
-      <c r="L35">
-        <v>1512</v>
-      </c>
-      <c r="M35">
-        <v>5607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36">
+        <v>301</v>
+      </c>
+      <c r="D36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
         <v>117.5750747</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>3.3216291</v>
       </c>
-      <c r="F36" s="2">
+      <c r="I36" s="2">
         <v>1092</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>421</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" si="1"/>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4">
         <v>1092</v>
       </c>
-      <c r="L36">
-        <v>421</v>
-      </c>
-      <c r="M36">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
         <v>118.8895996</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>-2.6778004000000002</v>
       </c>
-      <c r="F37" s="5">
+      <c r="I37" s="5">
         <v>1120</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>414</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="1"/>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
         <v>1120</v>
       </c>
-      <c r="L37">
-        <v>414</v>
-      </c>
-      <c r="M37">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38">
+        <v>281</v>
+      </c>
+      <c r="D38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" t="s">
+        <v>326</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
         <v>119.4141384</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>-5.1341615999999997</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>21000</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>2224</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="1"/>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
         <v>13867</v>
       </c>
-      <c r="L38">
-        <v>2224</v>
-      </c>
-      <c r="M38">
-        <v>13867</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39">
+        <v>232</v>
+      </c>
+      <c r="D39" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" t="s">
+        <v>326</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
         <v>119.870193</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>-0.88916890000000004</v>
       </c>
-      <c r="F39" s="5">
+      <c r="I39" s="5">
         <v>2310</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>1</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>805</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="1"/>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
         <v>2310</v>
       </c>
-      <c r="L39">
-        <v>805</v>
-      </c>
-      <c r="M39">
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
+        <v>275</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" t="s">
+        <v>326</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
         <v>122.55077129999999</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>-3.9651584</v>
       </c>
-      <c r="F40" s="2">
+      <c r="I40" s="2">
         <v>2072</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>1</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>728</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="1"/>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
         <v>2072</v>
       </c>
-      <c r="L40">
-        <v>728</v>
-      </c>
-      <c r="M40">
-        <v>11026</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
         <v>123.077416</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>0.53537619999999997</v>
       </c>
-      <c r="F41" s="5">
+      <c r="I41" s="5">
         <v>3150</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="1"/>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
         <v>2397</v>
       </c>
-      <c r="L41">
-        <v>330</v>
-      </c>
-      <c r="M41">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
+        <v>278</v>
+      </c>
+      <c r="D42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" t="s">
+        <v>327</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
         <v>123.60592010000001</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>-10.170941300000001</v>
       </c>
-      <c r="F42" s="2">
+      <c r="I42" s="2">
         <v>3625</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>1074</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="1"/>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
         <v>3625</v>
       </c>
-      <c r="L42">
-        <v>1074</v>
-      </c>
-      <c r="M42">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43">
+        <v>302</v>
+      </c>
+      <c r="D43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
         <v>124.8428007</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>1.4677089000000001</v>
       </c>
-      <c r="F43" s="5">
+      <c r="I43" s="5">
         <v>17254</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>1</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>983</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="1"/>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
         <v>6020</v>
       </c>
-      <c r="L43">
-        <v>983</v>
-      </c>
-      <c r="M43">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44">
+        <v>303</v>
+      </c>
+      <c r="D44" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" t="s">
+        <v>329</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>127.3807226</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>0.7871245</v>
       </c>
-      <c r="F44" s="2">
+      <c r="I44" s="2">
         <v>7720</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>1</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>362</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="1"/>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
         <v>1944</v>
       </c>
-      <c r="L44">
-        <v>362</v>
-      </c>
-      <c r="M44">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45">
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>329</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
         <v>128.18432179999999</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>-3.6947983</v>
       </c>
-      <c r="F45" s="5">
+      <c r="I45" s="5">
         <v>2175</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>478</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="1"/>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
         <v>2175</v>
       </c>
-      <c r="L45">
-        <v>478</v>
-      </c>
-      <c r="M45">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46">
+        <v>305</v>
+      </c>
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>333</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
         <v>134.07562999999999</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>-0.86557390000000001</v>
       </c>
-      <c r="F46" s="2">
+      <c r="I46" s="2">
         <v>490</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>1</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>443</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="1"/>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
         <v>490</v>
       </c>
-      <c r="L46">
-        <v>443</v>
-      </c>
-      <c r="M46">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47">
+        <v>306</v>
+      </c>
+      <c r="D47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" t="s">
+        <v>333</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
         <v>140.70580419999999</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>-2.5390505000000001</v>
       </c>
-      <c r="F47" s="5">
+      <c r="I47" s="5">
         <v>18018</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>1</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>1652</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" si="1"/>
-        <v>9346</v>
-      </c>
-      <c r="L47">
-        <v>1652</v>
-      </c>
       <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
         <v>9346</v>
       </c>
     </row>
@@ -3448,17 +3773,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="75" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" hidden="1" customWidth="1"/>
@@ -3477,7 +3802,7 @@
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3488,66 +3813,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -3585,32 +3913,36 @@
         <v>10</v>
       </c>
       <c r="P2" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q2" s="6">
         <v>10</v>
       </c>
       <c r="R2" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S2">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -3648,32 +3980,36 @@
         <v>10</v>
       </c>
       <c r="P3" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q3" s="6">
         <v>10</v>
       </c>
       <c r="R3" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S3">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -3711,32 +4047,36 @@
         <v>10</v>
       </c>
       <c r="P4" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q4" s="6">
         <v>10</v>
       </c>
       <c r="R4" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S4">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -3774,32 +4114,36 @@
         <v>10</v>
       </c>
       <c r="P5" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q5" s="6">
         <v>10</v>
       </c>
       <c r="R5" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S5">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -3837,32 +4181,36 @@
         <v>10</v>
       </c>
       <c r="P6" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q6" s="6">
         <v>10</v>
       </c>
       <c r="R6" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S6">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -3900,32 +4248,36 @@
         <v>10</v>
       </c>
       <c r="P7" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q7" s="6">
         <v>10</v>
       </c>
       <c r="R7" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S7">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -3963,32 +4315,36 @@
         <v>10</v>
       </c>
       <c r="P8" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q8" s="6">
         <v>10</v>
       </c>
       <c r="R8" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S8">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -4026,32 +4382,36 @@
         <v>10</v>
       </c>
       <c r="P9" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q9" s="6">
         <v>10</v>
       </c>
       <c r="R9" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S9">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -4089,32 +4449,36 @@
         <v>10</v>
       </c>
       <c r="P10" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q10" s="6">
         <v>10</v>
       </c>
       <c r="R10" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S10">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -4152,32 +4516,36 @@
         <v>10</v>
       </c>
       <c r="P11" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q11" s="6">
         <v>10</v>
       </c>
       <c r="R11" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S11">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -4215,32 +4583,36 @@
         <v>10</v>
       </c>
       <c r="P12" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q12" s="6">
         <v>10</v>
       </c>
       <c r="R12" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S12">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -4278,32 +4650,36 @@
         <v>10</v>
       </c>
       <c r="P13" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q13" s="6">
         <v>10</v>
       </c>
       <c r="R13" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S13">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -4341,32 +4717,36 @@
         <v>10</v>
       </c>
       <c r="P14" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q14" s="6">
         <v>10</v>
       </c>
       <c r="R14" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S14">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1000</v>
@@ -4404,32 +4784,36 @@
         <v>10</v>
       </c>
       <c r="P15" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q15" s="6">
         <v>10</v>
       </c>
       <c r="R15" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S15">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -4467,32 +4851,36 @@
         <v>10</v>
       </c>
       <c r="P16" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q16" s="6">
         <v>10</v>
       </c>
       <c r="R16" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S16">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -4530,32 +4918,36 @@
         <v>10</v>
       </c>
       <c r="P17" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q17" s="6">
         <v>10</v>
       </c>
       <c r="R17" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S17">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F18">
         <v>1000</v>
@@ -4593,32 +4985,36 @@
         <v>10</v>
       </c>
       <c r="P18" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q18" s="6">
         <v>10</v>
       </c>
       <c r="R18" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S18">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -4656,32 +5052,36 @@
         <v>10</v>
       </c>
       <c r="P19" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q19" s="6">
         <v>10</v>
       </c>
       <c r="R19" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S19">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -4719,32 +5119,36 @@
         <v>10</v>
       </c>
       <c r="P20" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q20" s="6">
         <v>10</v>
       </c>
       <c r="R20" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S20">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -4782,32 +5186,36 @@
         <v>10</v>
       </c>
       <c r="P21" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q21" s="6">
         <v>10</v>
       </c>
       <c r="R21" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S21">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -4845,32 +5253,36 @@
         <v>10</v>
       </c>
       <c r="P22" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q22" s="6">
         <v>10</v>
       </c>
       <c r="R22" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S22">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -4908,32 +5320,36 @@
         <v>10</v>
       </c>
       <c r="P23" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q23" s="6">
         <v>10</v>
       </c>
       <c r="R23" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S23">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F24">
         <v>1000</v>
@@ -4971,32 +5387,36 @@
         <v>10</v>
       </c>
       <c r="P24" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q24" s="6">
         <v>10</v>
       </c>
       <c r="R24" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S24">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>1000</v>
@@ -5034,32 +5454,36 @@
         <v>10</v>
       </c>
       <c r="P25" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q25" s="6">
         <v>10</v>
       </c>
       <c r="R25" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S25">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -5097,32 +5521,36 @@
         <v>10</v>
       </c>
       <c r="P26" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q26" s="6">
         <v>10</v>
       </c>
       <c r="R26" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S26">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F27">
         <v>1000</v>
@@ -5160,32 +5588,36 @@
         <v>10</v>
       </c>
       <c r="P27" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q27" s="6">
         <v>10</v>
       </c>
       <c r="R27" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S27">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F28">
         <v>1000</v>
@@ -5223,32 +5655,36 @@
         <v>10</v>
       </c>
       <c r="P28" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q28" s="6">
         <v>10</v>
       </c>
       <c r="R28" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S28">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <v>1000</v>
@@ -5286,32 +5722,36 @@
         <v>10</v>
       </c>
       <c r="P29" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q29" s="6">
         <v>10</v>
       </c>
       <c r="R29" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S29">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="F30">
         <v>1000</v>
@@ -5349,32 +5789,36 @@
         <v>10</v>
       </c>
       <c r="P30" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q30" s="6">
         <v>10</v>
       </c>
       <c r="R30" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S30">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>1000</v>
@@ -5412,32 +5856,36 @@
         <v>10</v>
       </c>
       <c r="P31" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q31" s="6">
         <v>10</v>
       </c>
       <c r="R31" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S31">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F32">
         <v>1000</v>
@@ -5475,32 +5923,36 @@
         <v>10</v>
       </c>
       <c r="P32" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q32" s="6">
         <v>10</v>
       </c>
       <c r="R32" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S32">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F33">
         <v>1000</v>
@@ -5538,32 +5990,36 @@
         <v>10</v>
       </c>
       <c r="P33" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q33" s="6">
         <v>10</v>
       </c>
       <c r="R33" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S33">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="F34">
         <v>1000</v>
@@ -5601,32 +6057,36 @@
         <v>10</v>
       </c>
       <c r="P34" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q34" s="6">
         <v>10</v>
       </c>
       <c r="R34" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S34">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F35">
         <v>1000</v>
@@ -5664,32 +6124,36 @@
         <v>10</v>
       </c>
       <c r="P35" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q35" s="6">
         <v>10</v>
       </c>
       <c r="R35" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S35">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -5727,32 +6191,36 @@
         <v>10</v>
       </c>
       <c r="P36" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q36" s="6">
         <v>10</v>
       </c>
       <c r="R36" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S36">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -5790,32 +6258,36 @@
         <v>10</v>
       </c>
       <c r="P37" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q37" s="6">
         <v>10</v>
       </c>
       <c r="R37" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S37">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -5853,32 +6325,36 @@
         <v>10</v>
       </c>
       <c r="P38" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q38" s="6">
         <v>10</v>
       </c>
       <c r="R38" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S38">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -5916,32 +6392,36 @@
         <v>10</v>
       </c>
       <c r="P39" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q39" s="6">
         <v>10</v>
       </c>
       <c r="R39" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S39">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <v>1000</v>
@@ -5979,32 +6459,36 @@
         <v>10</v>
       </c>
       <c r="P40" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q40" s="6">
         <v>10</v>
       </c>
       <c r="R40" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S40">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <v>1000</v>
@@ -6042,32 +6526,36 @@
         <v>10</v>
       </c>
       <c r="P41" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q41" s="6">
         <v>10</v>
       </c>
       <c r="R41" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S41">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <v>1000</v>
@@ -6105,32 +6593,36 @@
         <v>10</v>
       </c>
       <c r="P42" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q42" s="6">
         <v>10</v>
       </c>
       <c r="R42" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S42">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F43">
         <v>1000</v>
@@ -6168,32 +6660,36 @@
         <v>10</v>
       </c>
       <c r="P43" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q43" s="6">
         <v>10</v>
       </c>
       <c r="R43" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S43">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F44">
         <v>1000</v>
@@ -6231,32 +6727,36 @@
         <v>10</v>
       </c>
       <c r="P44" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q44" s="6">
         <v>10</v>
       </c>
       <c r="R44" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S44">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>1000</v>
@@ -6294,32 +6794,36 @@
         <v>10</v>
       </c>
       <c r="P45" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q45" s="6">
         <v>10</v>
       </c>
       <c r="R45" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S45">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F46">
         <v>1000</v>
@@ -6357,32 +6861,36 @@
         <v>10</v>
       </c>
       <c r="P46" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q46" s="6">
         <v>10</v>
       </c>
       <c r="R46" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S46">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="F47">
         <v>1000</v>
@@ -6420,32 +6928,36 @@
         <v>10</v>
       </c>
       <c r="P47" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q47" s="6">
         <v>10</v>
       </c>
       <c r="R47" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S47">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="F48">
         <v>1000</v>
@@ -6483,32 +6995,36 @@
         <v>10</v>
       </c>
       <c r="P48" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q48" s="6">
         <v>10</v>
       </c>
       <c r="R48" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S48">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="F49">
         <v>1000</v>
@@ -6546,32 +7062,36 @@
         <v>10</v>
       </c>
       <c r="P49" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q49" s="6">
         <v>10</v>
       </c>
       <c r="R49" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S49">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="F50">
         <v>1000</v>
@@ -6609,32 +7129,36 @@
         <v>10</v>
       </c>
       <c r="P50" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q50" s="6">
         <v>10</v>
       </c>
       <c r="R50" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S50">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="F51">
         <v>1000</v>
@@ -6672,32 +7196,36 @@
         <v>10</v>
       </c>
       <c r="P51" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q51" s="6">
         <v>10</v>
       </c>
       <c r="R51" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S51">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="F52">
         <v>1000</v>
@@ -6735,32 +7263,36 @@
         <v>10</v>
       </c>
       <c r="P52" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q52" s="6">
         <v>10</v>
       </c>
       <c r="R52" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S52">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F53">
         <v>1000</v>
@@ -6798,32 +7330,36 @@
         <v>10</v>
       </c>
       <c r="P53" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q53" s="6">
         <v>10</v>
       </c>
       <c r="R53" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S53">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F54">
         <v>1000</v>
@@ -6861,32 +7397,36 @@
         <v>10</v>
       </c>
       <c r="P54" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q54" s="6">
         <v>10</v>
       </c>
       <c r="R54" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S54">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F55">
         <v>1000</v>
@@ -6924,32 +7464,36 @@
         <v>10</v>
       </c>
       <c r="P55" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q55" s="6">
         <v>10</v>
       </c>
       <c r="R55" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S55">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="F56">
         <v>1000</v>
@@ -6987,32 +7531,36 @@
         <v>10</v>
       </c>
       <c r="P56" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q56" s="6">
         <v>10</v>
       </c>
       <c r="R56" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S56">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="F57">
         <v>1000</v>
@@ -7050,32 +7598,36 @@
         <v>10</v>
       </c>
       <c r="P57" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q57" s="6">
         <v>10</v>
       </c>
       <c r="R57" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S57">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F58">
         <v>1000</v>
@@ -7113,32 +7665,36 @@
         <v>10</v>
       </c>
       <c r="P58" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q58" s="6">
         <v>10</v>
       </c>
       <c r="R58" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S58">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="F59">
         <v>1000</v>
@@ -7176,32 +7732,36 @@
         <v>10</v>
       </c>
       <c r="P59" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q59" s="6">
         <v>10</v>
       </c>
       <c r="R59" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S59">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="F60">
         <v>1000</v>
@@ -7239,32 +7799,36 @@
         <v>10</v>
       </c>
       <c r="P60" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q60" s="6">
         <v>10</v>
       </c>
       <c r="R60" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S60">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="F61">
         <v>1000</v>
@@ -7302,32 +7866,36 @@
         <v>10</v>
       </c>
       <c r="P61" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q61" s="6">
         <v>10</v>
       </c>
       <c r="R61" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S61">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="F62">
         <v>1000</v>
@@ -7365,32 +7933,36 @@
         <v>10</v>
       </c>
       <c r="P62" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q62" s="6">
         <v>10</v>
       </c>
       <c r="R62" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S62">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="F63">
         <v>1000</v>
@@ -7428,32 +8000,36 @@
         <v>10</v>
       </c>
       <c r="P63" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q63" s="6">
         <v>10</v>
       </c>
       <c r="R63" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S63">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="F64">
         <v>1000</v>
@@ -7491,32 +8067,36 @@
         <v>10</v>
       </c>
       <c r="P64" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q64" s="6">
         <v>10</v>
       </c>
       <c r="R64" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S64">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="F65" s="1">
         <v>550</v>
@@ -7554,32 +8134,36 @@
         <v>10</v>
       </c>
       <c r="P65" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q65" s="6">
         <v>10</v>
       </c>
       <c r="R65" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S65">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1">
         <v>550</v>
@@ -7617,32 +8201,36 @@
         <v>10</v>
       </c>
       <c r="P66" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q66" s="6">
         <v>10</v>
       </c>
       <c r="R66" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S66">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>149999.99999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1">
         <v>550</v>
@@ -7680,32 +8268,36 @@
         <v>10</v>
       </c>
       <c r="P67" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q67" s="6">
         <v>10</v>
       </c>
       <c r="R67" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S67">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1">
         <v>550</v>
@@ -7743,32 +8335,36 @@
         <v>10</v>
       </c>
       <c r="P68" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q68" s="6">
         <v>10</v>
       </c>
       <c r="R68" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S68">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="F69" s="1">
         <v>550</v>
@@ -7806,32 +8402,36 @@
         <v>10</v>
       </c>
       <c r="P69" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q69" s="6">
         <v>10</v>
       </c>
       <c r="R69" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S69">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="F70" s="1">
         <v>550</v>
@@ -7869,32 +8469,36 @@
         <v>10</v>
       </c>
       <c r="P70" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q70" s="6">
         <v>10</v>
       </c>
       <c r="R70" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S70">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="F71" s="1">
         <v>550</v>
@@ -7932,32 +8536,36 @@
         <v>10</v>
       </c>
       <c r="P71" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q71" s="6">
         <v>10</v>
       </c>
       <c r="R71" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S71">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>149999.99999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="D72" s="8" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="F72" s="1">
         <v>550</v>
@@ -7995,32 +8603,36 @@
         <v>10</v>
       </c>
       <c r="P72" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q72" s="6">
         <v>10</v>
       </c>
       <c r="R72" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S72">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>172499.99999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F73" s="1">
         <v>550</v>
@@ -8058,32 +8670,36 @@
         <v>10</v>
       </c>
       <c r="P73" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q73" s="6">
         <v>10</v>
       </c>
       <c r="R73" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S73">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="F74" s="1">
         <v>550</v>
@@ -8121,32 +8737,36 @@
         <v>10</v>
       </c>
       <c r="P74" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q74" s="6">
         <v>10</v>
       </c>
       <c r="R74" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S74">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="F75" s="1">
         <v>550</v>
@@ -8184,32 +8804,36 @@
         <v>10</v>
       </c>
       <c r="P75" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q75" s="6">
         <v>10</v>
       </c>
       <c r="R75" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S75">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="F76" s="1">
         <v>550</v>
@@ -8247,32 +8871,36 @@
         <v>10</v>
       </c>
       <c r="P76" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q76" s="6">
         <v>10</v>
       </c>
       <c r="R76" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S76">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>157500.00000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="F77" s="1">
         <v>550</v>
@@ -8310,32 +8938,36 @@
         <v>10</v>
       </c>
       <c r="P77" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q77" s="6">
         <v>10</v>
       </c>
       <c r="R77" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S77">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="F78" s="1">
         <v>550</v>
@@ -8373,32 +9005,36 @@
         <v>10</v>
       </c>
       <c r="P78" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q78" s="6">
         <v>10</v>
       </c>
       <c r="R78" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S78">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="F79" s="1">
         <v>550</v>
@@ -8436,32 +9072,36 @@
         <v>10</v>
       </c>
       <c r="P79" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q79" s="6">
         <v>10</v>
       </c>
       <c r="R79" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S79">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1">
         <v>550</v>
@@ -8499,32 +9139,36 @@
         <v>10</v>
       </c>
       <c r="P80" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q80" s="6">
         <v>10</v>
       </c>
       <c r="R80" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S80">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="F81" s="1">
         <v>550</v>
@@ -8562,32 +9206,36 @@
         <v>10</v>
       </c>
       <c r="P81" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q81" s="6">
         <v>10</v>
       </c>
       <c r="R81" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S81">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="F82" s="1">
         <v>550</v>
@@ -8625,32 +9273,36 @@
         <v>10</v>
       </c>
       <c r="P82" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
       <c r="Q82" s="6">
         <v>10</v>
       </c>
       <c r="R82" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
+        <v>0.01</v>
+      </c>
+      <c r="S82">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>180000.00000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="F83">
         <v>250</v>
@@ -8688,32 +9340,36 @@
         <v>4500</v>
       </c>
       <c r="P83" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
       <c r="Q83" s="6">
         <v>450000</v>
       </c>
       <c r="R83" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="F84">
         <v>250</v>
@@ -8751,32 +9407,36 @@
         <v>4500</v>
       </c>
       <c r="P84" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
       <c r="Q84" s="6">
         <v>450000</v>
       </c>
       <c r="R84" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="F85">
         <v>250</v>
@@ -8814,18 +9474,23 @@
         <v>4500</v>
       </c>
       <c r="P85" s="7">
-        <f>Table3[[#This Row],[vard Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
       <c r="Q85" s="6">
         <v>450000</v>
       </c>
       <c r="R85" s="7">
-        <f>Table3[[#This Row],[fix Rp]]/1000</f>
+        <f>[1]!Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
+      <c r="S85">
+        <f>Table3[[#This Row],[fd]]*Table3[[#This Row],[Q]]</f>
+        <v>450</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -8839,22 +9504,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8873,8 +9538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8886,43 +9551,43 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">

--- a/test/A1 - Copy.xlsx
+++ b/test/A1 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEE3E78-1E77-43B8-AFF6-1B279878E652}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F74A1-BA01-45D3-9A86-D52AC92B996E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -791,29 +791,12 @@
     <cellStyle name="Normal 5" xfId="5" xr:uid="{697A0E71-95EF-4E92-8483-02418BAE0982}"/>
     <cellStyle name="Normal 5 2" xfId="6" xr:uid="{CB0E77CD-A2A8-4EC8-9D41-766B9821EE9D}"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="47">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -947,6 +930,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -987,6 +980,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1068,7 +1074,10 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -1077,10 +1086,7 @@
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,12 +1182,12 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="x"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="y"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN" dataDxfId="1">
       <calculatedColumnFormula>ROUND(0.05*Table1[[#This Row],[MAX]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,17 +1209,17 @@
     <tableColumn id="13" xr3:uid="{2237F5B7-2031-4EB6-8746-9B98E9D3FCF3}" name="PDDN_TRIP"/>
     <tableColumn id="14" xr3:uid="{BFBFAEAE-C3B0-4EDC-B7FC-80C84D9B0E8A}" name="KAWAL_TRIP"/>
     <tableColumn id="5" xr3:uid="{961B54FA-DAF2-42C4-8E20-0BA5A25B457E}" name="kapasitas"/>
-    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="42">
+    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="46">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="41">
+    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="45">
       <calculatedColumnFormula>F2+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="40">
+    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="44">
       <calculatedColumnFormula>Table3[[#This Row],[BBM_DIST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1223,22 +1229,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{053A7CB1-1A37-44E6-809B-78409F73821D}" name="Table10" displayName="Table10" ref="A1:H970" totalsRowShown="0">
   <autoFilter ref="A1:H970" xr:uid="{1930B01D-2308-4946-B31E-991EB4AF75F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="39" dataCellStyle="Normal 5 2"/>
-    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="38" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="41" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="40" dataCellStyle="Normal 5 2"/>
     <tableColumn id="3" xr3:uid="{86A84C91-50CB-47F1-ADFC-70BAD1241CDB}" name="Moda"/>
     <tableColumn id="4" xr3:uid="{B7223E06-8552-4B89-936F-25ACEBA1BDE7}" name="jarak">
       <calculatedColumnFormula>INDEX(distances!$B$2:$AU$47,MATCH(A2,distances!$A$2:$A$47,0),MATCH(B2,distances!$B$1:$AU$1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="37">
+    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="39">
       <calculatedColumnFormula>INDEX(param!$M$2:$M$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="36">
+    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="38">
       <calculatedColumnFormula>INDEX(param!$N$2:$N$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))+(INDEX(param!$O$2:$O$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))*Table10[[#This Row],[jarak]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="37">
       <calculatedColumnFormula>INDEX(param!$L$2:$L$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="36">
       <calculatedColumnFormula>IF(Table10[[#This Row],[Asal]]="Jakarta",INDEX(param!$P$2:$P$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1283,10 +1289,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:M47" xr:uid="{CA72C2EE-E127-4159-9060-601AA38B3F91}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{1704CCDD-6C9E-4CD9-BFA7-30EF8F066300}" name="1">
       <calculatedColumnFormula>ROUND(RAND()*Table5[[#This Row],[1]],0)</calculatedColumnFormula>
     </tableColumn>
@@ -1329,44 +1335,44 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:M47" xr:uid="{FAF30797-55D7-4F84-83EB-DF94712C7E07}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="15">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="14">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="13">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="12">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="10">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="8">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="7">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="6">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="5">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="5">
+    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="4">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1674,8 +1680,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,9 +1692,9 @@
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="1015" max="1015" width="11.5703125" customWidth="1"/>
   </cols>
@@ -1712,13 +1718,13 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1744,13 +1750,13 @@
       <c r="F2">
         <v>5.5576385000000004</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2040</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>102</v>
       </c>
@@ -1777,13 +1783,13 @@
       <c r="F3">
         <v>5.1823794000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>6000</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>300</v>
       </c>
@@ -1810,18 +1816,18 @@
       <c r="F4">
         <v>3.5907933999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>24054</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>1203</v>
       </c>
       <c r="J4" s="2">
-        <v>16547.956600000001</v>
+        <v>16548</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,13 +1849,13 @@
       <c r="F5">
         <v>1.7474852000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>2980</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>149</v>
       </c>
@@ -1876,18 +1882,18 @@
       <c r="F6">
         <v>2.9556306999999999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>3548</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>177</v>
       </c>
       <c r="J6" s="2">
-        <v>3114.8876500000001</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1909,13 +1915,13 @@
       <c r="F7">
         <v>-0.94305039999999996</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>9588</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>479</v>
       </c>
@@ -1942,13 +1948,13 @@
       <c r="F8">
         <v>0.51469969999999998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>5000</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>250</v>
       </c>
@@ -1975,13 +1981,13 @@
       <c r="F9">
         <v>-3.7901980000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>2000</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>100</v>
       </c>
@@ -2008,13 +2014,13 @@
       <c r="F10">
         <v>-1.6091815</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>4776</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>239</v>
       </c>
@@ -2041,13 +2047,13 @@
       <c r="F11">
         <v>1.1292039</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>5500</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>275</v>
       </c>
@@ -2074,13 +2080,13 @@
       <c r="F12">
         <v>-2.9755940000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>13680</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>684</v>
       </c>
@@ -2107,13 +2113,13 @@
       <c r="F13">
         <v>-5.4434601000000002</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>16000</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>800</v>
       </c>
@@ -2140,18 +2146,18 @@
       <c r="F14">
         <v>-6.1758652999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>5490</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>275</v>
       </c>
       <c r="J14" s="2">
-        <v>4604.1777999999995</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2173,13 +2179,13 @@
       <c r="F15">
         <v>-2.1489221000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>5890</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>295</v>
       </c>
@@ -2206,18 +2212,18 @@
       <c r="F16">
         <v>-6.1667636000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>318010</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>15901</v>
       </c>
       <c r="J16" s="2">
-        <v>104197.03049999999</v>
+        <v>104197</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2239,13 +2245,13 @@
       <c r="F17">
         <v>-6.9143356000000002</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>52111</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>2606</v>
       </c>
@@ -2272,13 +2278,13 @@
       <c r="F18">
         <v>-7.3265653999999998</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>2850</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>143</v>
       </c>
@@ -2305,13 +2311,13 @@
       <c r="F19">
         <v>-6.7189801999999998</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>15000</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>750</v>
       </c>
@@ -2338,13 +2344,13 @@
       <c r="F20">
         <v>-6.8679807999999998</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>4806</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>240</v>
       </c>
@@ -2371,13 +2377,13 @@
       <c r="F21">
         <v>-7.4222463000000003</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>3600</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>180</v>
       </c>
@@ -2404,13 +2410,13 @@
       <c r="F22">
         <v>-5.9941000000000001E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>15720</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>786</v>
       </c>
@@ -2437,13 +2443,13 @@
       <c r="F23">
         <v>-7.8018115000000003</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>12198</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>610</v>
       </c>
@@ -2470,13 +2476,13 @@
       <c r="F24">
         <v>-6.9946758000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>40716</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>2036</v>
       </c>
@@ -2503,13 +2509,13 @@
       <c r="F25">
         <v>-7.5708804000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>13500</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>675</v>
       </c>
@@ -2536,13 +2542,13 @@
       <c r="F26">
         <v>-7.8141708000000003</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>3750</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>188</v>
       </c>
@@ -2569,13 +2575,13 @@
       <c r="F27">
         <v>-7.9816267999999999</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>2580</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>129</v>
       </c>
@@ -2602,13 +2608,13 @@
       <c r="F28">
         <v>-7.2441902999999996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>14500</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>725</v>
       </c>
@@ -2635,13 +2641,13 @@
       <c r="F29">
         <v>-8.1782815000000006</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>9582</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>479</v>
       </c>
@@ -2668,13 +2674,13 @@
       <c r="F30">
         <v>-2.2136980999999998</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>1800</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>90</v>
       </c>
@@ -2701,13 +2707,13 @@
       <c r="F31">
         <v>-3.3236477999999998</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>4920</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>246</v>
       </c>
@@ -2734,13 +2740,13 @@
       <c r="F32">
         <v>-8.6683053999999995</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>18606</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>930</v>
       </c>
@@ -2767,13 +2773,13 @@
       <c r="F33">
         <v>-8.5808169999999997</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>2200</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>110</v>
       </c>
@@ -2800,13 +2806,13 @@
       <c r="F34">
         <v>-1.277385</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>12972</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>649</v>
       </c>
@@ -2833,13 +2839,13 @@
       <c r="F35">
         <v>-0.50089130000000004</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>10890</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>545</v>
       </c>
@@ -2866,13 +2872,13 @@
       <c r="F36">
         <v>3.3216291</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>780</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>39</v>
       </c>
@@ -2899,13 +2905,13 @@
       <c r="F37">
         <v>-2.6778004000000002</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>800</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>40</v>
       </c>
@@ -2932,13 +2938,13 @@
       <c r="F38">
         <v>-5.1341615999999997</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>15000</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>750</v>
       </c>
@@ -2965,13 +2971,13 @@
       <c r="F39">
         <v>-0.88916890000000004</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>1650</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>83</v>
       </c>
@@ -2998,13 +3004,13 @@
       <c r="F40">
         <v>-3.9651584</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>1480</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>74</v>
       </c>
@@ -3031,13 +3037,13 @@
       <c r="F41">
         <v>0.53537619999999997</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>2250</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>113</v>
       </c>
@@ -3064,13 +3070,13 @@
       <c r="F42">
         <v>-10.170941300000001</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>4008</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>200</v>
       </c>
@@ -3097,13 +3103,13 @@
       <c r="F43">
         <v>1.4677089000000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>12324</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>616</v>
       </c>
@@ -3130,13 +3136,13 @@
       <c r="F44">
         <v>0.7871245</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>5514</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>276</v>
       </c>
@@ -3163,13 +3169,13 @@
       <c r="F45">
         <v>-3.6947983</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>2330</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>117</v>
       </c>
@@ -3196,13 +3202,13 @@
       <c r="F46">
         <v>-0.86557390000000001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>490</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>25</v>
       </c>
@@ -3229,13 +3235,13 @@
       <c r="F47">
         <v>-2.5390505000000001</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>12870</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>644</v>
       </c>
@@ -10041,7 +10047,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -42681,7 +42687,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N50:AE61 A51:M62">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42759,51 +42765,51 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-813</v>
+        <v>-1196</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>731</v>
+        <v>610</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>219</v>
+        <v>904</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1474</v>
+        <v>600</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="I2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>277</v>
+        <v>724</v>
       </c>
       <c r="J2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>730</v>
+        <v>475</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>386</v>
+        <v>581</v>
       </c>
       <c r="L2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>601</v>
+        <v>488</v>
       </c>
       <c r="M2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>909</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -42812,23 +42818,23 @@
       </c>
       <c r="B3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2762</v>
+        <v>-1809</v>
       </c>
       <c r="C3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>376</v>
+        <v>245</v>
       </c>
       <c r="E3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="F3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1979</v>
+        <v>795</v>
       </c>
       <c r="G3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -42836,27 +42842,27 @@
       </c>
       <c r="H3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="I3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="L3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>907</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -42865,51 +42871,51 @@
       </c>
       <c r="B4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-9446</v>
+        <v>-10797</v>
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-58</v>
+        <v>-89</v>
       </c>
       <c r="D4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1389</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1939</v>
+        <v>1486</v>
       </c>
       <c r="F4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5522</v>
+        <v>215</v>
       </c>
       <c r="G4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-179</v>
+        <v>-123</v>
       </c>
       <c r="H4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="J4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>106</v>
+        <v>437</v>
       </c>
       <c r="K4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>566</v>
+        <v>79</v>
       </c>
       <c r="L4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="M4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>3150</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -42918,51 +42924,51 @@
       </c>
       <c r="B5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-875</v>
+        <v>-1410</v>
       </c>
       <c r="C5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="E5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="F5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2098</v>
+        <v>111</v>
       </c>
       <c r="G5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="I5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="J5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>495</v>
+        <v>830</v>
       </c>
       <c r="L5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="M5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1132</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -42971,51 +42977,51 @@
       </c>
       <c r="B6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-16</v>
+        <v>-1679</v>
       </c>
       <c r="C6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>127</v>
+        <v>401</v>
       </c>
       <c r="D6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="F6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2080</v>
+        <v>1974</v>
       </c>
       <c r="G6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="H6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="I6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="J6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>479</v>
+        <v>606</v>
       </c>
       <c r="K6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>689</v>
+        <v>554</v>
       </c>
       <c r="M6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>478</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -43024,51 +43030,51 @@
       </c>
       <c r="B7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2853</v>
+        <v>-1387</v>
       </c>
       <c r="C7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>6847</v>
+        <v>5432</v>
       </c>
       <c r="G7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-114</v>
+        <v>-57</v>
       </c>
       <c r="H7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-660</v>
+        <v>-639</v>
       </c>
       <c r="I7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-160</v>
+        <v>-170</v>
       </c>
       <c r="J7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="K7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="L7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>109</v>
+        <v>422</v>
       </c>
       <c r="M7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1542</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -43077,51 +43083,51 @@
       </c>
       <c r="B8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3200</v>
+        <v>-3765</v>
       </c>
       <c r="C8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="E8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>299</v>
+        <v>1091</v>
       </c>
       <c r="F8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>6378</v>
+        <v>1096</v>
       </c>
       <c r="G8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-620</v>
+        <v>-516</v>
       </c>
       <c r="H8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-10</v>
+        <v>-86</v>
       </c>
       <c r="I8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1112</v>
+        <v>844</v>
       </c>
       <c r="J8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="K8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>863</v>
+        <v>550</v>
       </c>
       <c r="L8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>878</v>
+        <v>425</v>
       </c>
       <c r="M8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>100</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -43130,51 +43136,51 @@
       </c>
       <c r="B9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-252</v>
+        <v>-394</v>
       </c>
       <c r="C9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="E9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1094</v>
+        <v>826</v>
       </c>
       <c r="G9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="H9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="J9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="K9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>365</v>
+        <v>220</v>
       </c>
       <c r="L9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="M9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>50</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -43183,51 +43189,51 @@
       </c>
       <c r="B10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1621</v>
+        <v>-216</v>
       </c>
       <c r="C10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>217</v>
+        <v>551</v>
       </c>
       <c r="D10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>277</v>
+        <v>437</v>
       </c>
       <c r="E10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>693</v>
+        <v>283</v>
       </c>
       <c r="F10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>874</v>
+        <v>1460</v>
       </c>
       <c r="G10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-2</v>
+        <v>-24</v>
       </c>
       <c r="H10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="I10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="K10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="L10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="M10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>155</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -43236,51 +43242,51 @@
       </c>
       <c r="B11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3205</v>
+        <v>-288</v>
       </c>
       <c r="C11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>563</v>
+        <v>355</v>
       </c>
       <c r="E11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1069</v>
+        <v>403</v>
       </c>
       <c r="F11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>879</v>
+        <v>2098</v>
       </c>
       <c r="G11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-65</v>
+        <v>-38</v>
       </c>
       <c r="H11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>307</v>
+        <v>127</v>
       </c>
       <c r="I11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="J11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>204</v>
+        <v>402</v>
       </c>
       <c r="K11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>647</v>
+        <v>125</v>
       </c>
       <c r="L11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>971</v>
+        <v>1026</v>
       </c>
       <c r="M11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1107</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -43289,51 +43295,51 @@
       </c>
       <c r="B12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2684</v>
+        <v>-8544</v>
       </c>
       <c r="C12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>463</v>
+        <v>346</v>
       </c>
       <c r="D12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1422</v>
+        <v>1203</v>
       </c>
       <c r="E12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>977</v>
+        <v>1063</v>
       </c>
       <c r="F12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>7519</v>
+        <v>5080</v>
       </c>
       <c r="G12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-160</v>
+        <v>-27</v>
       </c>
       <c r="H12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>176</v>
+        <v>1064</v>
       </c>
       <c r="J12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1622</v>
+        <v>474</v>
       </c>
       <c r="K12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1</v>
+        <v>1469</v>
       </c>
       <c r="L12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1437</v>
+        <v>528</v>
       </c>
       <c r="M12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1571</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -43342,51 +43348,51 @@
       </c>
       <c r="B13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3940</v>
+        <v>-2622</v>
       </c>
       <c r="C13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>565</v>
+        <v>218</v>
       </c>
       <c r="E13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>691</v>
+        <v>324</v>
       </c>
       <c r="F13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>393</v>
+        <v>1225</v>
       </c>
       <c r="G13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1216</v>
+        <v>1016</v>
       </c>
       <c r="J13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="L13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>548</v>
+        <v>343</v>
       </c>
       <c r="M13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>819</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -43395,51 +43401,51 @@
       </c>
       <c r="B14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1404</v>
+        <v>-1807</v>
       </c>
       <c r="C14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="D14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="E14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>523</v>
+        <v>1759</v>
       </c>
       <c r="G14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-658</v>
+        <v>-516</v>
       </c>
       <c r="H14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-19</v>
+        <v>-142</v>
       </c>
       <c r="J14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="K14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="M14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1276</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -43448,51 +43454,51 @@
       </c>
       <c r="B15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-995</v>
+        <v>-383</v>
       </c>
       <c r="C15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="D15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="E15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>330</v>
+        <v>769</v>
       </c>
       <c r="G15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>12</v>
+        <v>394</v>
       </c>
       <c r="H15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="J15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="K15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="M15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>82</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -43554,51 +43560,51 @@
       </c>
       <c r="B17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-10998</v>
+        <v>-9903</v>
       </c>
       <c r="C17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>850</v>
+        <v>406</v>
       </c>
       <c r="D17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>360</v>
+        <v>2126</v>
       </c>
       <c r="E17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>3080</v>
+        <v>5863</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1988</v>
+        <v>2476</v>
       </c>
       <c r="G17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-3200</v>
+        <v>-3731</v>
       </c>
       <c r="I17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>770</v>
+        <v>342</v>
       </c>
       <c r="J17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="K17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="L17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>770</v>
+        <v>226</v>
       </c>
       <c r="M17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>359</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -43607,35 +43613,35 @@
       </c>
       <c r="B18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2272</v>
+        <v>-1429</v>
       </c>
       <c r="C18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="E18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="F18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2407</v>
+        <v>237</v>
       </c>
       <c r="G18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>589</v>
+        <v>688</v>
       </c>
       <c r="H18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-294</v>
+        <v>-86</v>
       </c>
       <c r="I18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-762</v>
+        <v>-558</v>
       </c>
       <c r="J18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
@@ -43643,15 +43649,15 @@
       </c>
       <c r="K18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-17</v>
+        <v>-25</v>
       </c>
       <c r="L18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-17</v>
+        <v>-65</v>
       </c>
       <c r="M18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>47</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -43660,39 +43666,39 @@
       </c>
       <c r="B19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1662</v>
+        <v>-859</v>
       </c>
       <c r="C19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1766</v>
+        <v>1011</v>
       </c>
       <c r="F19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2743</v>
+        <v>3191</v>
       </c>
       <c r="G19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1004</v>
+        <v>-26</v>
       </c>
       <c r="H19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-26</v>
+        <v>-290</v>
       </c>
       <c r="I19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-203</v>
+        <v>-212</v>
       </c>
       <c r="J19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="K19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
@@ -43700,11 +43706,11 @@
       </c>
       <c r="L19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="M19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>546</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -43713,51 +43719,51 @@
       </c>
       <c r="B20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1309</v>
+        <v>-1492</v>
       </c>
       <c r="C20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>86</v>
+        <v>906</v>
       </c>
       <c r="E20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="F20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2997</v>
+        <v>4198</v>
       </c>
       <c r="G20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-325</v>
+        <v>-130</v>
       </c>
       <c r="H20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="I20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="J20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="K20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>496</v>
+        <v>389</v>
       </c>
       <c r="L20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="M20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1278</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -43766,51 +43772,51 @@
       </c>
       <c r="B21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1905</v>
+        <v>-414</v>
       </c>
       <c r="C21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-14</v>
+        <v>-139</v>
       </c>
       <c r="D21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="E21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="F21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4530</v>
+        <v>3395</v>
       </c>
       <c r="G21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1429</v>
+        <v>-1418</v>
       </c>
       <c r="H21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-968</v>
+        <v>-31</v>
       </c>
       <c r="I21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-73</v>
+        <v>-114</v>
       </c>
       <c r="J21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-155</v>
+        <v>-296</v>
       </c>
       <c r="K21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-252</v>
+        <v>-49</v>
       </c>
       <c r="L21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-94</v>
+        <v>-15</v>
       </c>
       <c r="M21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>515</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -43819,51 +43825,51 @@
       </c>
       <c r="B22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4026</v>
+        <v>-4689</v>
       </c>
       <c r="C22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>422</v>
+        <v>244</v>
       </c>
       <c r="F22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2336</v>
+        <v>2811</v>
       </c>
       <c r="G22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="H22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>146</v>
+        <v>640</v>
       </c>
       <c r="J22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>472</v>
+        <v>337</v>
       </c>
       <c r="K22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1144</v>
+        <v>317</v>
       </c>
       <c r="M22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -43872,51 +43878,51 @@
       </c>
       <c r="B23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3471</v>
+        <v>-362</v>
       </c>
       <c r="C23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>159</v>
+        <v>352</v>
       </c>
       <c r="D23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>146</v>
+        <v>404</v>
       </c>
       <c r="E23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>841</v>
+        <v>764</v>
       </c>
       <c r="F23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>8042</v>
+        <v>8214</v>
       </c>
       <c r="G23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-397</v>
+        <v>-2238</v>
       </c>
       <c r="H23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-193</v>
+        <v>-230</v>
       </c>
       <c r="I23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>71</v>
+        <v>1135</v>
       </c>
       <c r="J23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1214</v>
+        <v>659</v>
       </c>
       <c r="K23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1469</v>
+        <v>1090</v>
       </c>
       <c r="L23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1388</v>
+        <v>872</v>
       </c>
       <c r="M23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>291</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -43925,51 +43931,51 @@
       </c>
       <c r="B24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-14058</v>
+        <v>-15746</v>
       </c>
       <c r="C24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="D24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1511</v>
+        <v>1272</v>
       </c>
       <c r="E24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>3340</v>
+        <v>2268</v>
       </c>
       <c r="F24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2701</v>
+        <v>4506</v>
       </c>
       <c r="G24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-307</v>
+        <v>-2444</v>
       </c>
       <c r="H24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>758</v>
+        <v>344</v>
       </c>
       <c r="I24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="J24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1081</v>
+        <v>820</v>
       </c>
       <c r="K24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1001</v>
+        <v>339</v>
       </c>
       <c r="L24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2677</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -43978,43 +43984,43 @@
       </c>
       <c r="B25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4920</v>
+        <v>-617</v>
       </c>
       <c r="C25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>814</v>
+        <v>85</v>
       </c>
       <c r="E25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>629</v>
+        <v>149</v>
       </c>
       <c r="F25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5446</v>
+        <v>7686</v>
       </c>
       <c r="G25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-143</v>
+        <v>-916</v>
       </c>
       <c r="H25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-34</v>
+        <v>-1414</v>
       </c>
       <c r="I25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-183</v>
+        <v>-147</v>
       </c>
       <c r="J25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-175</v>
+        <v>-367</v>
       </c>
       <c r="K25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-48</v>
+        <v>-180</v>
       </c>
       <c r="L25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
@@ -44022,7 +44028,7 @@
       </c>
       <c r="M25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>529</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -44031,51 +44037,51 @@
       </c>
       <c r="B26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3657</v>
+        <v>-1477</v>
       </c>
       <c r="C26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-80</v>
+        <v>-93</v>
       </c>
       <c r="D26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>364</v>
+        <v>110</v>
       </c>
       <c r="E26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="F26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2800</v>
+        <v>5316</v>
       </c>
       <c r="G26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="H26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-32</v>
+        <v>-49</v>
       </c>
       <c r="I26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-12</v>
+        <v>-181</v>
       </c>
       <c r="J26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="K26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="L26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="M26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>89</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -44084,51 +44090,51 @@
       </c>
       <c r="B27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-541</v>
+        <v>-134</v>
       </c>
       <c r="C27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>159</v>
+        <v>376</v>
       </c>
       <c r="E27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2267</v>
+        <v>1844</v>
       </c>
       <c r="F27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>418</v>
+        <v>1282</v>
       </c>
       <c r="G27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-479</v>
+        <v>-503</v>
       </c>
       <c r="H27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-218</v>
+        <v>-187</v>
       </c>
       <c r="I27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-9</v>
+        <v>-26</v>
       </c>
       <c r="J27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="L27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="M27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1025</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -44137,51 +44143,51 @@
       </c>
       <c r="B28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2465</v>
+        <v>-869</v>
       </c>
       <c r="C28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>1627</v>
+        <v>493</v>
       </c>
       <c r="D28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2951</v>
+        <v>2334</v>
       </c>
       <c r="E28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>4334</v>
+        <v>1075</v>
       </c>
       <c r="F28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>22320</v>
+        <v>3624</v>
       </c>
       <c r="G28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-187</v>
+        <v>-2569</v>
       </c>
       <c r="H28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-736</v>
+        <v>-2040</v>
       </c>
       <c r="I28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="J28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>824</v>
+        <v>559</v>
       </c>
       <c r="K28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1478</v>
+        <v>443</v>
       </c>
       <c r="L28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>253</v>
+        <v>2382</v>
       </c>
       <c r="M28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1010</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -44190,51 +44196,51 @@
       </c>
       <c r="B29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5266</v>
+        <v>-2748</v>
       </c>
       <c r="C29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>452</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1031</v>
+        <v>3212</v>
       </c>
       <c r="F29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1126</v>
+        <v>446</v>
       </c>
       <c r="G29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-626</v>
+        <v>-268</v>
       </c>
       <c r="H29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="I29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="K29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>82</v>
+        <v>478</v>
       </c>
       <c r="L29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>694</v>
+        <v>510</v>
       </c>
       <c r="M29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>457</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -44243,51 +44249,51 @@
       </c>
       <c r="B30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1054</v>
+        <v>-1290</v>
       </c>
       <c r="C30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>265</v>
+        <v>325</v>
       </c>
       <c r="D30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="E30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>30</v>
+        <v>760</v>
       </c>
       <c r="F30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>242</v>
+        <v>1631</v>
       </c>
       <c r="G30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="H30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>699</v>
+        <v>491</v>
       </c>
       <c r="I30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="J30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="K30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="L30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>134</v>
+        <v>914</v>
       </c>
       <c r="M30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1478</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -44296,51 +44302,51 @@
       </c>
       <c r="B31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4495</v>
+        <v>-564</v>
       </c>
       <c r="C31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="F31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1262</v>
+        <v>431</v>
       </c>
       <c r="G31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-178</v>
+        <v>-358</v>
       </c>
       <c r="H31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>176</v>
+        <v>371</v>
       </c>
       <c r="J31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="K31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="L31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>452</v>
+        <v>10</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>894</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -44349,51 +44355,51 @@
       </c>
       <c r="B32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5074</v>
+        <v>-672</v>
       </c>
       <c r="C32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>659</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1142</v>
+        <v>78</v>
       </c>
       <c r="E32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>24</v>
+        <v>1765</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1535</v>
+        <v>7538</v>
       </c>
       <c r="G32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>907</v>
+        <v>727</v>
       </c>
       <c r="I32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1344</v>
+        <v>989</v>
       </c>
       <c r="J32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>513</v>
+        <v>1178</v>
       </c>
       <c r="K32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>483</v>
+        <v>807</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>715</v>
+        <v>1619</v>
       </c>
       <c r="M32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2016</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -44402,51 +44408,51 @@
       </c>
       <c r="B33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2221</v>
+        <v>-272</v>
       </c>
       <c r="C33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-13</v>
+        <v>-36</v>
       </c>
       <c r="D33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="E33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>394</v>
+        <v>811</v>
       </c>
       <c r="F33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2672</v>
+        <v>1399</v>
       </c>
       <c r="G33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-372</v>
+        <v>-233</v>
       </c>
       <c r="H33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="J33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="K33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>55</v>
+        <v>470</v>
       </c>
       <c r="L33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>486</v>
+        <v>574</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>668</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -44455,51 +44461,51 @@
       </c>
       <c r="B34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-6965</v>
+        <v>-2694</v>
       </c>
       <c r="C34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="E34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>230</v>
+        <v>447</v>
       </c>
       <c r="F34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>742</v>
+        <v>357</v>
       </c>
       <c r="G34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="L34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>538</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -44508,51 +44514,51 @@
       </c>
       <c r="B35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1321</v>
+        <v>-95</v>
       </c>
       <c r="C35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>479</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>515</v>
+        <v>705</v>
       </c>
       <c r="E35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>381</v>
+        <v>738</v>
       </c>
       <c r="F35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1294</v>
+        <v>3144</v>
       </c>
       <c r="G35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-42</v>
+        <v>-65</v>
       </c>
       <c r="H35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>303</v>
+        <v>711</v>
       </c>
       <c r="J35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="K35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>426</v>
+        <v>267</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="M35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1081</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -44561,51 +44567,51 @@
       </c>
       <c r="B36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1036</v>
+        <v>-399</v>
       </c>
       <c r="C36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="E36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1400</v>
+        <v>752</v>
       </c>
       <c r="G36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="H36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>359</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -44614,51 +44620,51 @@
       </c>
       <c r="B37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-488</v>
+        <v>-124</v>
       </c>
       <c r="C37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="F37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>619</v>
+        <v>300</v>
       </c>
       <c r="G37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="H37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-81</v>
+        <v>-188</v>
       </c>
       <c r="I37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="K37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="L37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="M37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>348</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -44667,51 +44673,51 @@
       </c>
       <c r="B38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4098</v>
+        <v>-8243</v>
       </c>
       <c r="C38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>426</v>
+        <v>713</v>
       </c>
       <c r="E38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="F38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2773</v>
+        <v>5028</v>
       </c>
       <c r="G38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-142</v>
+        <v>-554</v>
       </c>
       <c r="H38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="I38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="J38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>191</v>
+        <v>336</v>
       </c>
       <c r="K38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="L38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>712</v>
+        <v>340</v>
       </c>
       <c r="M38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1253</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -44720,51 +44726,51 @@
       </c>
       <c r="B39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1618</v>
+        <v>-132</v>
       </c>
       <c r="C39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1332</v>
+        <v>1172</v>
       </c>
       <c r="G39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-6</v>
+        <v>-30</v>
       </c>
       <c r="H39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="J39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>649</v>
+        <v>281</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1195</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -44773,51 +44779,51 @@
       </c>
       <c r="B40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-832</v>
+        <v>-526</v>
       </c>
       <c r="C40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>284</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="F40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>607</v>
+        <v>998</v>
       </c>
       <c r="G40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="H40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="J40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="K40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1028</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -44826,51 +44832,51 @@
       </c>
       <c r="B41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1644</v>
+        <v>-1435</v>
       </c>
       <c r="C41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="D41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="G41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -44879,51 +44885,51 @@
       </c>
       <c r="B42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2526</v>
+        <v>-642</v>
       </c>
       <c r="C42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-260</v>
+        <v>-56</v>
       </c>
       <c r="D42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="E42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1096</v>
+        <v>530</v>
       </c>
       <c r="G42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>177</v>
+        <v>569</v>
       </c>
       <c r="I42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>329</v>
+        <v>482</v>
       </c>
       <c r="J42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>436</v>
+        <v>312</v>
       </c>
       <c r="K42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="M42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>544</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -44932,51 +44938,51 @@
       </c>
       <c r="B43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1065</v>
+        <v>-5181</v>
       </c>
       <c r="C43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="E43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2097</v>
+        <v>685</v>
       </c>
       <c r="G43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="J43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="K43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1030</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -44985,51 +44991,51 @@
       </c>
       <c r="B44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1362</v>
+        <v>-873</v>
       </c>
       <c r="C44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="F44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>526</v>
+        <v>728</v>
       </c>
       <c r="G44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="I44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="J44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="K44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>65</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -45038,51 +45044,51 @@
       </c>
       <c r="B45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-600</v>
+        <v>-1364</v>
       </c>
       <c r="C45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="F45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>944</v>
+        <v>501</v>
       </c>
       <c r="G45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="H45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="I45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="J45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="K45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>423</v>
+        <v>246</v>
       </c>
       <c r="L45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -45091,11 +45097,11 @@
       </c>
       <c r="B46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-384</v>
+        <v>-132</v>
       </c>
       <c r="C46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="D46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
@@ -45103,39 +45109,39 @@
       </c>
       <c r="E46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="F46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="G46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="H46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>516</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -45144,56 +45150,56 @@
       </c>
       <c r="B47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4614</v>
+        <v>-771</v>
       </c>
       <c r="C47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>458</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>579</v>
+        <v>422</v>
       </c>
       <c r="E47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1297</v>
+        <v>313</v>
       </c>
       <c r="F47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2887</v>
+        <v>360</v>
       </c>
       <c r="G47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="H47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>673</v>
+        <v>483</v>
       </c>
       <c r="J47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="K47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>454</v>
+        <v>313</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>569</v>
+        <v>205</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1578</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45275,51 +45281,51 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>219</v>
+        <v>904</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>210</v>
+        <v>581</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-813</v>
+        <v>610</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>909</v>
+        <v>470</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>95</v>
+        <v>600</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1474</v>
+        <v>724</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>730</v>
+        <v>475</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>486</v>
+        <v>73</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>386</v>
+        <v>-1196</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>601</v>
+        <v>488</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>731</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -45328,7 +45334,7 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
@@ -45336,43 +45342,43 @@
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2762</v>
+        <v>245</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>907</v>
+        <v>29</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>66</v>
+        <v>795</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1979</v>
+        <v>126</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>152</v>
+        <v>-1809</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>376</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -45381,51 +45387,51 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1939</v>
+        <v>1486</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-9446</v>
+        <v>285</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>3150</v>
+        <v>152</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-58</v>
+        <v>215</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>5522</v>
+        <v>51</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>106</v>
+        <v>437</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-179</v>
+        <v>-89</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>85</v>
+        <v>-123</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>566</v>
+        <v>-10797</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1389</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -45434,51 +45440,51 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>91</v>
+        <v>830</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-875</v>
+        <v>215</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1132</v>
+        <v>370</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2098</v>
+        <v>263</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>326</v>
+        <v>188</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>495</v>
+        <v>-1410</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>57</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -45487,51 +45493,51 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-16</v>
+        <v>174</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>478</v>
+        <v>21</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>127</v>
+        <v>1974</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2080</v>
+        <v>721</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>479</v>
+        <v>606</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>761</v>
+        <v>273</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>327</v>
+        <v>-1679</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>689</v>
+        <v>554</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>285</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -45540,51 +45546,51 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-660</v>
+        <v>94</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2853</v>
+        <v>335</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1542</v>
+        <v>-639</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>170</v>
+        <v>5432</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>6847</v>
+        <v>-170</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-114</v>
+        <v>56</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-160</v>
+        <v>-57</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>173</v>
+        <v>-1387</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>109</v>
+        <v>422</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -45593,51 +45599,51 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>299</v>
+        <v>1091</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-10</v>
+        <v>550</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3200</v>
+        <v>149</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>100</v>
+        <v>-86</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>262</v>
+        <v>1096</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>6378</v>
+        <v>844</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-620</v>
+        <v>103</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1112</v>
+        <v>-516</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>863</v>
+        <v>-3765</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>878</v>
+        <v>425</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>430</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -45646,51 +45652,51 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-252</v>
+        <v>394</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>6</v>
+        <v>826</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1094</v>
+        <v>126</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>303</v>
+        <v>44</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>365</v>
+        <v>-394</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -45699,51 +45705,51 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>693</v>
+        <v>283</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1621</v>
+        <v>437</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>217</v>
+        <v>1460</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>874</v>
+        <v>77</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>124</v>
+        <v>410</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-2</v>
+        <v>551</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>80</v>
+        <v>-24</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>292</v>
+        <v>-216</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -45752,51 +45758,51 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1069</v>
+        <v>403</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3205</v>
+        <v>355</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1107</v>
+        <v>127</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>171</v>
+        <v>2098</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>879</v>
+        <v>208</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>204</v>
+        <v>402</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-65</v>
+        <v>55</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>287</v>
+        <v>-38</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>647</v>
+        <v>-288</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>971</v>
+        <v>1026</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>563</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -45805,51 +45811,51 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>977</v>
+        <v>1063</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>120</v>
+        <v>1469</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2684</v>
+        <v>1203</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1571</v>
+        <v>135</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>463</v>
+        <v>5080</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>7519</v>
+        <v>1064</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1622</v>
+        <v>474</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-160</v>
+        <v>346</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>176</v>
+        <v>-27</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1</v>
+        <v>-8544</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1437</v>
+        <v>528</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1422</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -45858,51 +45864,51 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>691</v>
+        <v>324</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="D13" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3940</v>
+        <v>218</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>819</v>
+        <v>1</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>181</v>
+        <v>1225</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>393</v>
+        <v>1016</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1216</v>
+        <v>58</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>99</v>
+        <v>-2622</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>548</v>
+        <v>343</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>565</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -45911,51 +45917,51 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1404</v>
+        <v>442</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1276</v>
+        <v>182</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>209</v>
+        <v>1759</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>523</v>
+        <v>-142</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-55</v>
+        <v>-58</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-658</v>
+        <v>120</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-19</v>
+        <v>-516</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>7</v>
+        <v>-1807</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>151</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -45964,51 +45970,51 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-995</v>
+        <v>194</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>208</v>
+        <v>769</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>330</v>
+        <v>232</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>383</v>
+        <v>-383</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>39</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -46070,51 +46076,51 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>3080</v>
+        <v>5863</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-3200</v>
+        <v>200</v>
       </c>
       <c r="D17" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-10998</v>
+        <v>2126</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>359</v>
+        <v>-3731</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>850</v>
+        <v>2476</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1988</v>
+        <v>342</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>446</v>
+        <v>69</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>770</v>
+        <v>38</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>260</v>
+        <v>-9903</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>770</v>
+        <v>226</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>360</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -46123,27 +46129,27 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-294</v>
+        <v>-25</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2272</v>
+        <v>164</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>47</v>
+        <v>-86</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2407</v>
+        <v>-558</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
@@ -46151,23 +46157,23 @@
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>589</v>
+        <v>86</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-762</v>
+        <v>688</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-17</v>
+        <v>-1429</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-17</v>
+        <v>-65</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -46176,51 +46182,51 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1766</v>
+        <v>1011</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-26</v>
+        <v>23</v>
       </c>
       <c r="D19" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1662</v>
+        <v>229</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>546</v>
+        <v>-290</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>78</v>
+        <v>3191</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2743</v>
+        <v>-212</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-1004</v>
+        <v>69</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-203</v>
+        <v>-26</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>23</v>
+        <v>-859</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>109</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -46229,51 +46235,51 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1309</v>
+        <v>906</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1278</v>
+        <v>70</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>77</v>
+        <v>4198</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2997</v>
+        <v>168</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-325</v>
+        <v>159</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>217</v>
+        <v>-130</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>496</v>
+        <v>-1492</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>328</v>
+        <v>386</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>86</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -46282,51 +46288,51 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-968</v>
+        <v>-49</v>
       </c>
       <c r="D21" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1905</v>
+        <v>97</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>515</v>
+        <v>-31</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-14</v>
+        <v>3395</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>4530</v>
+        <v>-114</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-155</v>
+        <v>-296</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-1429</v>
+        <v>-139</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-73</v>
+        <v>-1418</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-252</v>
+        <v>-414</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-94</v>
+        <v>-15</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>123</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -46335,51 +46341,51 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>422</v>
+        <v>244</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-4026</v>
+        <v>58</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1109</v>
+        <v>69</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>99</v>
+        <v>2811</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2336</v>
+        <v>640</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>472</v>
+        <v>337</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>393</v>
+        <v>-4689</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1144</v>
+        <v>317</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>233</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -46388,51 +46394,51 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>841</v>
+        <v>764</v>
       </c>
       <c r="C23" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-193</v>
+        <v>1090</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3471</v>
+        <v>404</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>291</v>
+        <v>-230</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>159</v>
+        <v>8214</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>8042</v>
+        <v>1135</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1214</v>
+        <v>659</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-397</v>
+        <v>352</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>71</v>
+        <v>-2238</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1469</v>
+        <v>-362</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1388</v>
+        <v>872</v>
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>146</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -46441,51 +46447,51 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>3340</v>
+        <v>2268</v>
       </c>
       <c r="C24" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>758</v>
+        <v>339</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-14058</v>
+        <v>1272</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>2677</v>
+        <v>344</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>234</v>
+        <v>4506</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2701</v>
+        <v>481</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1081</v>
+        <v>820</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-307</v>
+        <v>294</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>418</v>
+        <v>-2444</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1001</v>
+        <v>-15746</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>239</v>
+        <v>8</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1511</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -46494,43 +46500,43 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>629</v>
+        <v>149</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-34</v>
+        <v>-180</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-4920</v>
+        <v>85</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>529</v>
+        <v>-1414</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>32</v>
+        <v>7686</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>5446</v>
+        <v>-147</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-175</v>
+        <v>-367</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-143</v>
+        <v>69</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-183</v>
+        <v>-916</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-48</v>
+        <v>-617</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
@@ -46538,7 +46544,7 @@
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>814</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -46547,51 +46553,51 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>82</v>
+        <v>634</v>
       </c>
       <c r="C26" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-32</v>
+        <v>339</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3657</v>
+        <v>110</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>89</v>
+        <v>-49</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-80</v>
+        <v>5316</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2800</v>
+        <v>-181</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>64</v>
+        <v>-93</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-12</v>
+        <v>140</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>36</v>
+        <v>-1477</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>364</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -46600,51 +46606,51 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>2267</v>
+        <v>1844</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-218</v>
+        <v>109</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-541</v>
+        <v>376</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1025</v>
+        <v>-187</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-9</v>
+        <v>1282</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>418</v>
+        <v>-26</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-479</v>
+        <v>0</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-9</v>
+        <v>-503</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>92</v>
+        <v>-134</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>159</v>
+        <v>946</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -46653,51 +46659,51 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>4334</v>
+        <v>1075</v>
       </c>
       <c r="C28" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-736</v>
+        <v>443</v>
       </c>
       <c r="D28" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2465</v>
+        <v>2334</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1010</v>
+        <v>-2040</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1627</v>
+        <v>3624</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>22320</v>
+        <v>1960</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>824</v>
+        <v>559</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-187</v>
+        <v>493</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1967</v>
+        <v>-2569</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1478</v>
+        <v>-869</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>253</v>
+        <v>2382</v>
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>2951</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -46706,51 +46712,51 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1031</v>
+        <v>3212</v>
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>109</v>
+        <v>478</v>
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-5266</v>
+        <v>72</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>457</v>
+        <v>151</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1126</v>
+        <v>20</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-626</v>
+        <v>31</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>8</v>
+        <v>-268</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>82</v>
+        <v>-2748</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>694</v>
+        <v>510</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>452</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -46759,51 +46765,51 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>30</v>
+        <v>760</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>699</v>
+        <v>201</v>
       </c>
       <c r="D30" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1054</v>
+        <v>214</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1478</v>
+        <v>491</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>265</v>
+        <v>1631</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>3</v>
+        <v>-1290</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>134</v>
+        <v>914</v>
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>323</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -46812,51 +46818,51 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="C31" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="D31" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-4495</v>
+        <v>52</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>894</v>
+        <v>62</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>8</v>
+        <v>431</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1262</v>
+        <v>371</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-178</v>
+        <v>2</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>176</v>
+        <v>-358</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>24</v>
+        <v>-564</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>452</v>
+        <v>10</v>
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>238</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -46865,51 +46871,51 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>24</v>
+        <v>1765</v>
       </c>
       <c r="C32" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>907</v>
+        <v>807</v>
       </c>
       <c r="D32" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-5074</v>
+        <v>78</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>2016</v>
+        <v>727</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>659</v>
+        <v>7538</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1535</v>
+        <v>989</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>513</v>
+        <v>1178</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1344</v>
+        <v>19</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>483</v>
+        <v>-672</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>715</v>
+        <v>1619</v>
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1142</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -46918,51 +46924,51 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>394</v>
+        <v>811</v>
       </c>
       <c r="C33" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>26</v>
+        <v>470</v>
       </c>
       <c r="D33" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2221</v>
+        <v>404</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>668</v>
+        <v>39</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-13</v>
+        <v>1399</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2672</v>
+        <v>78</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-372</v>
+        <v>-36</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>313</v>
+        <v>-233</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>55</v>
+        <v>-272</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>486</v>
+        <v>574</v>
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>459</v>
+        <v>599</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -46971,51 +46977,51 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>230</v>
+        <v>447</v>
       </c>
       <c r="C34" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-6965</v>
+        <v>124</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>538</v>
+        <v>150</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>137</v>
+        <v>357</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>742</v>
+        <v>69</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-3</v>
+        <v>132</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>105</v>
+        <v>-2694</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>296</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -47024,51 +47030,51 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>381</v>
+        <v>738</v>
       </c>
       <c r="C35" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>511</v>
+        <v>267</v>
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1321</v>
+        <v>705</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1081</v>
+        <v>512</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>479</v>
+        <v>3144</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1294</v>
+        <v>711</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-42</v>
+        <v>70</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>303</v>
+        <v>-65</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>426</v>
+        <v>-95</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>515</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -47077,51 +47083,51 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C36" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D36" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1036</v>
+        <v>90</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>359</v>
+        <v>24</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>93</v>
+        <v>752</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1400</v>
+        <v>33</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-10</v>
+        <v>86</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>48</v>
+        <v>-3</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>125</v>
+        <v>-399</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -47130,51 +47136,51 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="C37" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-81</v>
+        <v>60</v>
       </c>
       <c r="D37" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-488</v>
+        <v>10</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>348</v>
+        <v>-188</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>619</v>
+        <v>147</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>16</v>
+        <v>-124</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>443</v>
+        <v>24</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>84</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -47183,51 +47189,51 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="C38" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>164</v>
+        <v>496</v>
       </c>
       <c r="D38" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-4098</v>
+        <v>713</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1253</v>
+        <v>266</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1</v>
+        <v>5028</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2773</v>
+        <v>357</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>191</v>
+        <v>336</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-142</v>
+        <v>94</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>21</v>
+        <v>-554</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>472</v>
+        <v>-8243</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>712</v>
+        <v>340</v>
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>426</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -47236,51 +47242,51 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C39" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-30</v>
+        <v>238</v>
       </c>
       <c r="D39" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1618</v>
+        <v>64</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1195</v>
+        <v>0</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>2</v>
+        <v>1172</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1332</v>
+        <v>189</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-6</v>
+        <v>47</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>183</v>
+        <v>-30</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>103</v>
+        <v>-132</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>649</v>
+        <v>281</v>
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>9</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47289,51 +47295,51 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="C40" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>5</v>
+        <v>265</v>
       </c>
       <c r="D40" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-832</v>
+        <v>45</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1028</v>
+        <v>40</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>284</v>
+        <v>998</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>607</v>
+        <v>134</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>34</v>
+        <v>-526</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>195</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47342,51 +47348,51 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C41" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D41" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1644</v>
+        <v>20</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="G41" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="H41" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1</v>
+        <v>-36</v>
       </c>
       <c r="J41" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>9</v>
+        <v>-1435</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -47395,51 +47401,51 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="D42" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-2526</v>
+        <v>140</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-260</v>
+        <v>530</v>
       </c>
       <c r="G42" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1096</v>
+        <v>482</v>
       </c>
       <c r="H42" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>436</v>
+        <v>312</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>138</v>
+        <v>-56</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>55</v>
+        <v>-642</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>51</v>
+        <v>283</v>
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>85</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -47448,51 +47454,51 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="C43" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="D43" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1065</v>
+        <v>202</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1030</v>
+        <v>140</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>115</v>
+        <v>685</v>
       </c>
       <c r="G43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2097</v>
+        <v>100</v>
       </c>
       <c r="H43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="J43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>280</v>
+        <v>-5181</v>
       </c>
       <c r="L43" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="M43" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>74</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -47501,51 +47507,51 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="C44" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="D44" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1362</v>
+        <v>161</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>24</v>
+        <v>728</v>
       </c>
       <c r="G44" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>526</v>
+        <v>120</v>
       </c>
       <c r="H44" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>45</v>
+        <v>-873</v>
       </c>
       <c r="L44" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M44" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>193</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47554,51 +47560,51 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C45" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D45" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-600</v>
+        <v>27</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1119</v>
+        <v>349</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="G45" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>944</v>
+        <v>378</v>
       </c>
       <c r="H45" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>426</v>
+        <v>-5</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>423</v>
+        <v>-1364</v>
       </c>
       <c r="L45" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="M45" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>9</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47607,51 +47613,51 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="C46" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D46" cm="1">
         <f t="array" aca="1" ref="D46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-384</v>
+        <v>32</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>516</v>
+        <v>184</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-9</v>
+        <v>315</v>
       </c>
       <c r="G46" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="H46" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>113</v>
+        <v>-18</v>
       </c>
       <c r="J46" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>56</v>
+        <v>-132</v>
       </c>
       <c r="L46" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M46" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>32</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -47660,51 +47666,51 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1297</v>
+        <v>313</v>
       </c>
       <c r="C47" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>73</v>
+        <v>313</v>
       </c>
       <c r="D47" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-4614</v>
+        <v>422</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1578</v>
+        <v>2</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>458</v>
+        <v>360</v>
       </c>
       <c r="G47" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2887</v>
+        <v>483</v>
       </c>
       <c r="H47" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>243</v>
+        <v>350</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="J47" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>673</v>
+        <v>265</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>454</v>
+        <v>-771</v>
       </c>
       <c r="L47" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>569</v>
+        <v>205</v>
       </c>
       <c r="M47" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>579</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -47717,23 +47723,23 @@
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H49">
         <f ca="1"/>
@@ -47741,15 +47747,15 @@
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <f ca="1"/>
@@ -47757,7 +47763,7 @@
       </c>
       <c r="M49">
         <f ca="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/test/A1 - Copy.xlsx
+++ b/test/A1 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623F74A1-BA01-45D3-9A86-D52AC92B996E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90716295-638F-4C90-BDA4-D13F22061F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="vehicles" sheetId="8" r:id="rId4"/>
     <sheet name="periods" sheetId="3" r:id="rId5"/>
     <sheet name="demands" sheetId="4" r:id="rId6"/>
-    <sheet name="rand_demands" sheetId="12" r:id="rId7"/>
-    <sheet name="reorder_demands" sheetId="13" r:id="rId8"/>
+    <sheet name="non_negative_demands" sheetId="14" r:id="rId7"/>
+    <sheet name="rand_demands" sheetId="12" r:id="rId8"/>
+    <sheet name="reorder_demands" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3407" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -791,7 +792,70 @@
     <cellStyle name="Normal 5" xfId="5" xr:uid="{697A0E71-95EF-4E92-8483-02418BAE0982}"/>
     <cellStyle name="Normal 5 2" xfId="6" xr:uid="{CB0E77CD-A2A8-4EC8-9D41-766B9821EE9D}"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -930,16 +994,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -980,16 +1034,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1088,6 +1132,15 @@
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1182,12 +1235,12 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="x"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="y"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MAX" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="h" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN" dataDxfId="59">
       <calculatedColumnFormula>ROUND(0.05*Table1[[#This Row],[MAX]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,17 +1262,17 @@
     <tableColumn id="13" xr3:uid="{2237F5B7-2031-4EB6-8746-9B98E9D3FCF3}" name="PDDN_TRIP"/>
     <tableColumn id="14" xr3:uid="{BFBFAEAE-C3B0-4EDC-B7FC-80C84D9B0E8A}" name="KAWAL_TRIP"/>
     <tableColumn id="5" xr3:uid="{961B54FA-DAF2-42C4-8E20-0BA5A25B457E}" name="kapasitas"/>
-    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="46">
+    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="58">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="45">
+    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="57">
       <calculatedColumnFormula>F2+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="44">
+    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="56">
       <calculatedColumnFormula>Table3[[#This Row],[BBM_DIST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1229,22 +1282,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{053A7CB1-1A37-44E6-809B-78409F73821D}" name="Table10" displayName="Table10" ref="A1:H970" totalsRowShown="0">
   <autoFilter ref="A1:H970" xr:uid="{1930B01D-2308-4946-B31E-991EB4AF75F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="41" dataCellStyle="Normal 5 2"/>
-    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="40" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="53" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="52" dataCellStyle="Normal 5 2"/>
     <tableColumn id="3" xr3:uid="{86A84C91-50CB-47F1-ADFC-70BAD1241CDB}" name="Moda"/>
     <tableColumn id="4" xr3:uid="{B7223E06-8552-4B89-936F-25ACEBA1BDE7}" name="jarak">
       <calculatedColumnFormula>INDEX(distances!$B$2:$AU$47,MATCH(A2,distances!$A$2:$A$47,0),MATCH(B2,distances!$B$1:$AU$1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="51">
       <calculatedColumnFormula>INDEX(param!$M$2:$M$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="38">
+    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="50">
       <calculatedColumnFormula>INDEX(param!$N$2:$N$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))+(INDEX(param!$O$2:$O$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))*Table10[[#This Row],[jarak]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="37">
+    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="49">
       <calculatedColumnFormula>INDEX(param!$L$2:$L$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="36">
+    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="48">
       <calculatedColumnFormula>IF(Table10[[#This Row],[Asal]]="Jakarta",INDEX(param!$P$2:$P$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1264,35 +1317,60 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:M47" xr:uid="{EEE5A3FA-F8C6-487C-8AA9-46DD23722EC6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D92C2784-C2DF-42F2-92FF-5ECA29492552}" name="Table55" displayName="Table55" ref="A1:M47" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:M47" xr:uid="{F37A7175-94D4-4B97-9E3D-C26D807513CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
+    <sortCondition ref="A1:A47"/>
+  </sortState>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F8EF9A01-DB78-40D8-ACA6-9E9991DB01BC}" name="point" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B34F9971-7D7F-415E-A0AE-093A38839601}" name="1" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{8457E791-6252-4695-8B24-5D6CDA1FB838}" name="2" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A1833406-50DB-44C9-B8FD-5712270D6356}" name="3" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{BBADBC52-1619-401D-B3EE-27B7181CA735}" name="4" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{76BE31E2-C0D4-4D4D-B9AF-13DBFAF7C16F}" name="5" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{56BE8376-A575-4C25-9980-B12C6B4DA29C}" name="6" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{99DF6C02-A4C1-4749-9B1F-469A4DAD5DAA}" name="7" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{C73AC5A7-89A9-4D6F-9B7D-54ABCDA24E67}" name="8" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{810617EF-C831-42BA-96C2-C33D0C75F295}" name="9" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{576DF02A-2A79-4121-A6A2-EEC7276A83F0}" name="10" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{9A27AD4C-A854-434F-A701-AE0FEF195B28}" name="11" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{A680175B-FEB2-4639-B162-7561C35C13E1}" name="12" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A1:M47" xr:uid="{CA72C2EE-E127-4159-9060-601AA38B3F91}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{1704CCDD-6C9E-4CD9-BFA7-30EF8F066300}" name="1">
       <calculatedColumnFormula>ROUND(RAND()*Table5[[#This Row],[1]],0)</calculatedColumnFormula>
     </tableColumn>
@@ -1334,45 +1412,45 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="17">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:M47" xr:uid="{FAF30797-55D7-4F84-83EB-DF94712C7E07}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="29">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="28">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="27">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="26">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="25">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="24">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="23">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="22">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="21">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="20">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="19">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="18">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1678,10 +1756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,10 +1774,10 @@
     <col min="8" max="8" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="1015" max="1015" width="11.5703125" customWidth="1"/>
+    <col min="1014" max="1014" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1754,7 +1832,7 @@
         <v>2040</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I2" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1763,8 +1841,12 @@
       <c r="J2" s="2">
         <v>1543</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +1869,7 @@
         <v>6000</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I3" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1796,8 +1878,12 @@
       <c r="J3" s="2">
         <v>3257</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +1906,7 @@
         <v>24054</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I4" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1829,8 +1915,12 @@
       <c r="J4" s="2">
         <v>16548</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>15345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1853,7 +1943,7 @@
         <v>2980</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I5" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1862,8 +1952,12 @@
       <c r="J5" s="2">
         <v>1360</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1886,7 +1980,7 @@
         <v>3548</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I6" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1895,8 +1989,12 @@
       <c r="J6" s="2">
         <v>3115</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1919,7 +2017,7 @@
         <v>9588</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I7" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1928,8 +2026,12 @@
       <c r="J7" s="2">
         <v>5766</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +2054,7 @@
         <v>5000</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I8" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1961,8 +2063,12 @@
       <c r="J8" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1985,7 +2091,7 @@
         <v>2000</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I9" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -1994,8 +2100,12 @@
       <c r="J9" s="2">
         <v>1799</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2128,7 @@
         <v>4776</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I10" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2027,8 +2137,12 @@
       <c r="J10" s="2">
         <v>2578</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2051,7 +2165,7 @@
         <v>5500</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I11" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2060,8 +2174,12 @@
       <c r="J11" s="2">
         <v>5500</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2202,7 @@
         <v>13680</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I12" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2093,8 +2211,12 @@
       <c r="J12" s="2">
         <v>11552</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>10868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2117,7 +2239,7 @@
         <v>16000</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I13" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2126,8 +2248,12 @@
       <c r="J13" s="2">
         <v>9066</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2150,7 +2276,7 @@
         <v>5490</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I14" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2159,8 +2285,12 @@
       <c r="J14" s="2">
         <v>4604</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2313,7 @@
         <v>5890</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I15" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2192,8 +2322,12 @@
       <c r="J15" s="2">
         <v>2371</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2216,17 +2350,21 @@
         <v>318010</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I16" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
         <v>15901</v>
       </c>
       <c r="J16" s="2">
-        <v>104197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204197</v>
+      </c>
+      <c r="K16" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>188296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2387,7 @@
         <v>52111</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I17" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2258,8 +2396,12 @@
       <c r="J17" s="2">
         <v>15234</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>12628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2424,7 @@
         <v>2850</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I18" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2291,8 +2433,12 @@
       <c r="J18" s="2">
         <v>2364</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2315,7 +2461,7 @@
         <v>15000</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I19" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2324,8 +2470,12 @@
       <c r="J19" s="2">
         <v>5652</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2348,7 +2498,7 @@
         <v>4806</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I20" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2357,8 +2507,12 @@
       <c r="J20" s="2">
         <v>2964</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2381,7 +2535,7 @@
         <v>3600</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I21" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2390,8 +2544,12 @@
       <c r="J21" s="2">
         <v>2818</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2414,7 +2572,7 @@
         <v>15720</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I22" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2423,8 +2581,12 @@
       <c r="J22" s="2">
         <v>7426</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>6640</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2447,7 +2609,7 @@
         <v>12198</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I23" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2456,8 +2618,12 @@
       <c r="J23" s="2">
         <v>5417</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -2480,7 +2646,7 @@
         <v>40716</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I24" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2489,8 +2655,12 @@
       <c r="J24" s="2">
         <v>16526</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2513,7 +2683,7 @@
         <v>13500</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I25" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2522,8 +2692,12 @@
       <c r="J25" s="2">
         <v>5744</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2546,7 +2720,7 @@
         <v>3750</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I26" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2555,8 +2729,12 @@
       <c r="J26" s="2">
         <v>3750</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2579,7 +2757,7 @@
         <v>2580</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I27" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2588,8 +2766,12 @@
       <c r="J27" s="2">
         <v>1752</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2612,7 +2794,7 @@
         <v>14500</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I28" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2621,8 +2803,12 @@
       <c r="J28" s="2">
         <v>14237</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>13512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2645,7 +2831,7 @@
         <v>9582</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I29" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2654,8 +2840,12 @@
       <c r="J29" s="2">
         <v>7382</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2678,7 +2868,7 @@
         <v>1800</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I30" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2687,8 +2877,12 @@
       <c r="J30" s="2">
         <v>1800</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2711,7 +2905,7 @@
         <v>4920</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I31" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2720,8 +2914,12 @@
       <c r="J31" s="2">
         <v>4920</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>4674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2744,7 +2942,7 @@
         <v>18606</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I32" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2753,8 +2951,12 @@
       <c r="J32" s="2">
         <v>6081</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2777,7 +2979,7 @@
         <v>2200</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I33" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2786,8 +2988,12 @@
       <c r="J33" s="2">
         <v>2051</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -2810,7 +3016,7 @@
         <v>12972</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I34" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2819,8 +3025,12 @@
       <c r="J34" s="2">
         <v>9335</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2843,7 +3053,7 @@
         <v>10890</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I35" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2852,8 +3062,12 @@
       <c r="J35" s="2">
         <v>2839</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2876,7 +3090,7 @@
         <v>780</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I36" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2885,8 +3099,12 @@
       <c r="J36" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2909,7 +3127,7 @@
         <v>800</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I37" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2918,8 +3136,12 @@
       <c r="J37" s="2">
         <v>777</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2942,7 +3164,7 @@
         <v>15000</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I38" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2951,8 +3173,12 @@
       <c r="J38" s="2">
         <v>12229</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>11479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2975,7 +3201,7 @@
         <v>1650</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I39" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -2984,8 +3210,12 @@
       <c r="J39" s="2">
         <v>1624</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3008,7 +3238,7 @@
         <v>1480</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I40" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3017,8 +3247,12 @@
       <c r="J40" s="2">
         <v>1154</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -3041,7 +3275,7 @@
         <v>2250</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I41" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3050,8 +3284,12 @@
       <c r="J41" s="2">
         <v>1699</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -3074,7 +3312,7 @@
         <v>4008</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I42" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3083,8 +3321,12 @@
       <c r="J42" s="2">
         <v>2597</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -3107,7 +3349,7 @@
         <v>12324</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I43" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3116,8 +3358,12 @@
       <c r="J43" s="2">
         <v>7100</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>6484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -3140,7 +3386,7 @@
         <v>5514</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I44" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3149,8 +3395,12 @@
       <c r="J44" s="2">
         <v>2415</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3173,7 +3423,7 @@
         <v>2330</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I45" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3182,8 +3432,12 @@
       <c r="J45" s="2">
         <v>1499</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -3206,7 +3460,7 @@
         <v>490</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I46" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3215,8 +3469,12 @@
       <c r="J46" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -3239,7 +3497,7 @@
         <v>12870</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I47" s="2">
         <f>ROUND(0.05*Table1[[#This Row],[MAX]],0)</f>
@@ -3247,6 +3505,10 @@
       </c>
       <c r="J47" s="2">
         <v>3977</v>
+      </c>
+      <c r="K47" s="2">
+        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
+        <v>3333</v>
       </c>
     </row>
   </sheetData>
@@ -10611,7 +10873,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H970"/>
   <sheetViews>
-    <sheetView topLeftCell="A421" workbookViewId="0">
+    <sheetView topLeftCell="A400" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -40740,7 +41002,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41865,7 +42127,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -42687,7 +42949,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N50:AE61 A51:M62">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42700,13 +42962,1977 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6E8966-BD39-49BC-9201-A6FB2DCF0F8E}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>151</v>
+      </c>
+      <c r="D2" s="2">
+        <v>741</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1019</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2544</v>
+      </c>
+      <c r="G2" s="2">
+        <v>593</v>
+      </c>
+      <c r="H2" s="2">
+        <v>623</v>
+      </c>
+      <c r="I2" s="2">
+        <v>810</v>
+      </c>
+      <c r="J2" s="2">
+        <v>754</v>
+      </c>
+      <c r="K2" s="2">
+        <v>746</v>
+      </c>
+      <c r="L2" s="2">
+        <v>904</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>157</v>
+      </c>
+      <c r="D3" s="2">
+        <v>385</v>
+      </c>
+      <c r="E3" s="2">
+        <v>557</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2127</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>280</v>
+      </c>
+      <c r="I3" s="2">
+        <v>372</v>
+      </c>
+      <c r="J3" s="2">
+        <v>344</v>
+      </c>
+      <c r="K3" s="2">
+        <v>293</v>
+      </c>
+      <c r="L3" s="2">
+        <v>387</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1758</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2080</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6414</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>236</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1742</v>
+      </c>
+      <c r="J4" s="2">
+        <v>531</v>
+      </c>
+      <c r="K4" s="2">
+        <v>657</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1652</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>246</v>
+      </c>
+      <c r="E5" s="2">
+        <v>626</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2107</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>748</v>
+      </c>
+      <c r="I5" s="2">
+        <v>529</v>
+      </c>
+      <c r="J5" s="2">
+        <v>668</v>
+      </c>
+      <c r="K5" s="2">
+        <v>830</v>
+      </c>
+      <c r="L5" s="2">
+        <v>917</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>491</v>
+      </c>
+      <c r="D6" s="2">
+        <v>738</v>
+      </c>
+      <c r="E6" s="2">
+        <v>674</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3611</v>
+      </c>
+      <c r="G6" s="2">
+        <v>538</v>
+      </c>
+      <c r="H6" s="2">
+        <v>418</v>
+      </c>
+      <c r="I6" s="2">
+        <v>988</v>
+      </c>
+      <c r="J6" s="2">
+        <v>751</v>
+      </c>
+      <c r="K6" s="2">
+        <v>746</v>
+      </c>
+      <c r="L6" s="2">
+        <v>842</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>261</v>
+      </c>
+      <c r="D7" s="2">
+        <v>724</v>
+      </c>
+      <c r="E7" s="2">
+        <v>389</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7158</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>130</v>
+      </c>
+      <c r="K7" s="2">
+        <v>326</v>
+      </c>
+      <c r="L7" s="2">
+        <v>631</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>581</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1033</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1098</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6982</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1435</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1275</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1492</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1235</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2">
+        <v>437</v>
+      </c>
+      <c r="E9" s="2">
+        <v>398</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2823</v>
+      </c>
+      <c r="G9" s="2">
+        <v>589</v>
+      </c>
+      <c r="H9" s="2">
+        <v>288</v>
+      </c>
+      <c r="I9" s="2">
+        <v>365</v>
+      </c>
+      <c r="J9" s="2">
+        <v>350</v>
+      </c>
+      <c r="K9" s="2">
+        <v>395</v>
+      </c>
+      <c r="L9" s="2">
+        <v>564</v>
+      </c>
+      <c r="M9" s="2">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>569</v>
+      </c>
+      <c r="D10" s="2">
+        <v>567</v>
+      </c>
+      <c r="E10" s="2">
+        <v>973</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3094</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>432</v>
+      </c>
+      <c r="I10" s="2">
+        <v>513</v>
+      </c>
+      <c r="J10" s="2">
+        <v>418</v>
+      </c>
+      <c r="K10" s="2">
+        <v>690</v>
+      </c>
+      <c r="L10" s="2">
+        <v>727</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>541</v>
+      </c>
+      <c r="D11" s="2">
+        <v>743</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2858</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2813</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>533</v>
+      </c>
+      <c r="I11" s="2">
+        <v>439</v>
+      </c>
+      <c r="J11" s="2">
+        <v>992</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1265</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>829</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1554</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1949</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9152</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>856</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1994</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2111</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2113</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>519</v>
+      </c>
+      <c r="D13" s="2">
+        <v>715</v>
+      </c>
+      <c r="E13" s="2">
+        <v>879</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7794</v>
+      </c>
+      <c r="G13" s="2">
+        <v>258</v>
+      </c>
+      <c r="H13" s="2">
+        <v>198</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1237</v>
+      </c>
+      <c r="J13" s="2">
+        <v>494</v>
+      </c>
+      <c r="K13" s="2">
+        <v>776</v>
+      </c>
+      <c r="L13" s="2">
+        <v>752</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>324</v>
+      </c>
+      <c r="D14" s="2">
+        <v>483</v>
+      </c>
+      <c r="E14" s="2">
+        <v>426</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4256</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>545</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>205</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>222</v>
+      </c>
+      <c r="D15" s="2">
+        <v>280</v>
+      </c>
+      <c r="E15" s="2">
+        <v>445</v>
+      </c>
+      <c r="F15" s="2">
+        <v>932</v>
+      </c>
+      <c r="G15" s="2">
+        <v>422</v>
+      </c>
+      <c r="H15" s="2">
+        <v>150</v>
+      </c>
+      <c r="I15" s="2">
+        <v>301</v>
+      </c>
+      <c r="J15" s="2">
+        <v>272</v>
+      </c>
+      <c r="K15" s="2">
+        <v>413</v>
+      </c>
+      <c r="L15" s="2">
+        <v>260</v>
+      </c>
+      <c r="M15" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="C16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="E16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="F16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="G16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="H16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="I16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="J16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="K16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="L16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+      <c r="M16" s="2">
+        <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
+        <v>-13342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1179</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2936</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6530</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12832</v>
+      </c>
+      <c r="G17" s="2">
+        <v>397</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>889</v>
+      </c>
+      <c r="J17" s="2">
+        <v>533</v>
+      </c>
+      <c r="K17" s="2">
+        <v>409</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1658</v>
+      </c>
+      <c r="M17" s="2">
+        <v>6467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>164</v>
+      </c>
+      <c r="D18" s="2">
+        <v>181</v>
+      </c>
+      <c r="E18" s="2">
+        <v>689</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2604</v>
+      </c>
+      <c r="G18" s="2">
+        <v>841</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>186</v>
+      </c>
+      <c r="D19" s="2">
+        <v>957</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="2">
+        <v>8187</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>211</v>
+      </c>
+      <c r="L19" s="2">
+        <v>598</v>
+      </c>
+      <c r="M19" s="2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>569</v>
+      </c>
+      <c r="D20" s="2">
+        <v>926</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1224</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6376</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>389</v>
+      </c>
+      <c r="I20" s="2">
+        <v>959</v>
+      </c>
+      <c r="J20" s="2">
+        <v>689</v>
+      </c>
+      <c r="K20" s="2">
+        <v>990</v>
+      </c>
+      <c r="L20" s="2">
+        <v>478</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>189</v>
+      </c>
+      <c r="E21" s="2">
+        <v>347</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4559</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>168</v>
+      </c>
+      <c r="D22" s="2">
+        <v>301</v>
+      </c>
+      <c r="E22" s="2">
+        <v>568</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4740</v>
+      </c>
+      <c r="G22" s="2">
+        <v>205</v>
+      </c>
+      <c r="H22" s="2">
+        <v>173</v>
+      </c>
+      <c r="I22" s="2">
+        <v>771</v>
+      </c>
+      <c r="J22" s="2">
+        <v>513</v>
+      </c>
+      <c r="K22" s="2">
+        <v>947</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1292</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>898</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1497</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1957</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9596</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1271</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1414</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1774</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1933</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>796</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2074</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6979</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12426</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>794</v>
+      </c>
+      <c r="I24" s="2">
+        <v>495</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1476</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1121</v>
+      </c>
+      <c r="L24" s="2">
+        <v>774</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>165</v>
+      </c>
+      <c r="D25" s="2">
+        <v>940</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1381</v>
+      </c>
+      <c r="F25" s="2">
+        <v>9078</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>565</v>
+      </c>
+      <c r="E26" s="2">
+        <v>769</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6655</v>
+      </c>
+      <c r="G26" s="2">
+        <v>141</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>123</v>
+      </c>
+      <c r="K26" s="2">
+        <v>552</v>
+      </c>
+      <c r="L26" s="2">
+        <v>723</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>460</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2706</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5575</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>97</v>
+      </c>
+      <c r="K27" s="2">
+        <v>115</v>
+      </c>
+      <c r="L27" s="2">
+        <v>240</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1840</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5060</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4686</v>
+      </c>
+      <c r="F28" s="2">
+        <v>28988</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2857</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1040</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2045</v>
+      </c>
+      <c r="L28" s="2">
+        <v>3540</v>
+      </c>
+      <c r="M28" s="2">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>392</v>
+      </c>
+      <c r="D29" s="2">
+        <v>669</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3560</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4639</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>364</v>
+      </c>
+      <c r="I29" s="2">
+        <v>568</v>
+      </c>
+      <c r="J29" s="2">
+        <v>538</v>
+      </c>
+      <c r="K29" s="2">
+        <v>796</v>
+      </c>
+      <c r="L29" s="2">
+        <v>973</v>
+      </c>
+      <c r="M29" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>448</v>
+      </c>
+      <c r="D30" s="2">
+        <v>691</v>
+      </c>
+      <c r="E30" s="2">
+        <v>976</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2260</v>
+      </c>
+      <c r="G30" s="2">
+        <v>421</v>
+      </c>
+      <c r="H30" s="2">
+        <v>741</v>
+      </c>
+      <c r="I30" s="2">
+        <v>807</v>
+      </c>
+      <c r="J30" s="2">
+        <v>718</v>
+      </c>
+      <c r="K30" s="2">
+        <v>899</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1180</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2">
+        <v>502</v>
+      </c>
+      <c r="E31" s="2">
+        <v>693</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3536</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>182</v>
+      </c>
+      <c r="I31" s="2">
+        <v>393</v>
+      </c>
+      <c r="J31" s="2">
+        <v>359</v>
+      </c>
+      <c r="K31" s="2">
+        <v>552</v>
+      </c>
+      <c r="L31" s="2">
+        <v>698</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1238</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2855</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2072</v>
+      </c>
+      <c r="F32" s="2">
+        <v>8065</v>
+      </c>
+      <c r="G32" s="2">
+        <v>307</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1339</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2284</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2135</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2055</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>606</v>
+      </c>
+      <c r="E33" s="2">
+        <v>936</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3659</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>76</v>
+      </c>
+      <c r="I33" s="2">
+        <v>322</v>
+      </c>
+      <c r="J33" s="2">
+        <v>764</v>
+      </c>
+      <c r="K33" s="2">
+        <v>683</v>
+      </c>
+      <c r="L33" s="2">
+        <v>581</v>
+      </c>
+      <c r="M33" s="2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>301</v>
+      </c>
+      <c r="D34" s="2">
+        <v>414</v>
+      </c>
+      <c r="E34" s="2">
+        <v>635</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2488</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>322</v>
+      </c>
+      <c r="I34" s="2">
+        <v>377</v>
+      </c>
+      <c r="J34" s="2">
+        <v>430</v>
+      </c>
+      <c r="K34" s="2">
+        <v>449</v>
+      </c>
+      <c r="L34" s="2">
+        <v>524</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>534</v>
+      </c>
+      <c r="D35" s="2">
+        <v>818</v>
+      </c>
+      <c r="E35" s="2">
+        <v>886</v>
+      </c>
+      <c r="F35" s="2">
+        <v>4172</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>799</v>
+      </c>
+      <c r="I35" s="2">
+        <v>788</v>
+      </c>
+      <c r="J35" s="2">
+        <v>752</v>
+      </c>
+      <c r="K35" s="2">
+        <v>696</v>
+      </c>
+      <c r="L35" s="2">
+        <v>808</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>101</v>
+      </c>
+      <c r="D36" s="2">
+        <v>206</v>
+      </c>
+      <c r="E36" s="2">
+        <v>387</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1881</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>47</v>
+      </c>
+      <c r="I36" s="2">
+        <v>85</v>
+      </c>
+      <c r="J36" s="2">
+        <v>136</v>
+      </c>
+      <c r="K36" s="2">
+        <v>197</v>
+      </c>
+      <c r="L36" s="2">
+        <v>204</v>
+      </c>
+      <c r="M36" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>180</v>
+      </c>
+      <c r="D37" s="2">
+        <v>190</v>
+      </c>
+      <c r="E37" s="2">
+        <v>466</v>
+      </c>
+      <c r="F37" s="2">
+        <v>773</v>
+      </c>
+      <c r="G37" s="2">
+        <v>532</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>352</v>
+      </c>
+      <c r="J37" s="2">
+        <v>256</v>
+      </c>
+      <c r="K37" s="2">
+        <v>201</v>
+      </c>
+      <c r="L37" s="2">
+        <v>467</v>
+      </c>
+      <c r="M37" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2">
+        <v>821</v>
+      </c>
+      <c r="E38" s="2">
+        <v>838</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6601</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>300</v>
+      </c>
+      <c r="I38" s="2">
+        <v>639</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1278</v>
+      </c>
+      <c r="K38" s="2">
+        <v>711</v>
+      </c>
+      <c r="L38" s="2">
+        <v>942</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>139</v>
+      </c>
+      <c r="D39" s="2">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2">
+        <v>533</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>189</v>
+      </c>
+      <c r="J39" s="2">
+        <v>189</v>
+      </c>
+      <c r="K39" s="2">
+        <v>256</v>
+      </c>
+      <c r="L39" s="2">
+        <v>786</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>331</v>
+      </c>
+      <c r="D40" s="2">
+        <v>236</v>
+      </c>
+      <c r="E40" s="2">
+        <v>372</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1842</v>
+      </c>
+      <c r="G40" s="2">
+        <v>272</v>
+      </c>
+      <c r="H40" s="2">
+        <v>97</v>
+      </c>
+      <c r="I40" s="2">
+        <v>232</v>
+      </c>
+      <c r="J40" s="2">
+        <v>489</v>
+      </c>
+      <c r="K40" s="2">
+        <v>550</v>
+      </c>
+      <c r="L40" s="2">
+        <v>740</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>152</v>
+      </c>
+      <c r="E41" s="2">
+        <v>76</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1119</v>
+      </c>
+      <c r="G41" s="2">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>38</v>
+      </c>
+      <c r="I41" s="2">
+        <v>102</v>
+      </c>
+      <c r="J41" s="2">
+        <v>119</v>
+      </c>
+      <c r="K41" s="2">
+        <v>56</v>
+      </c>
+      <c r="L41" s="2">
+        <v>107</v>
+      </c>
+      <c r="M41" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>171</v>
+      </c>
+      <c r="E42" s="2">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1811</v>
+      </c>
+      <c r="G42" s="2">
+        <v>428</v>
+      </c>
+      <c r="H42" s="2">
+        <v>685</v>
+      </c>
+      <c r="I42" s="2">
+        <v>495</v>
+      </c>
+      <c r="J42" s="2">
+        <v>502</v>
+      </c>
+      <c r="K42" s="2">
+        <v>709</v>
+      </c>
+      <c r="L42" s="2">
+        <v>693</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>296</v>
+      </c>
+      <c r="D43" s="2">
+        <v>275</v>
+      </c>
+      <c r="E43" s="2">
+        <v>600</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3020</v>
+      </c>
+      <c r="G43" s="2">
+        <v>145</v>
+      </c>
+      <c r="H43" s="2">
+        <v>152</v>
+      </c>
+      <c r="I43" s="2">
+        <v>408</v>
+      </c>
+      <c r="J43" s="2">
+        <v>481</v>
+      </c>
+      <c r="K43" s="2">
+        <v>470</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1091</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2">
+        <v>238</v>
+      </c>
+      <c r="E44" s="2">
+        <v>371</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1092</v>
+      </c>
+      <c r="G44" s="2">
+        <v>151</v>
+      </c>
+      <c r="H44" s="2">
+        <v>390</v>
+      </c>
+      <c r="I44" s="2">
+        <v>191</v>
+      </c>
+      <c r="J44" s="2">
+        <v>367</v>
+      </c>
+      <c r="K44" s="2">
+        <v>343</v>
+      </c>
+      <c r="L44" s="2">
+        <v>294</v>
+      </c>
+      <c r="M44" s="2">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2">
+        <v>260</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1334</v>
+      </c>
+      <c r="G45" s="2">
+        <v>728</v>
+      </c>
+      <c r="H45" s="2">
+        <v>464</v>
+      </c>
+      <c r="I45" s="2">
+        <v>406</v>
+      </c>
+      <c r="J45" s="2">
+        <v>520</v>
+      </c>
+      <c r="K45" s="2">
+        <v>569</v>
+      </c>
+      <c r="L45" s="2">
+        <v>572</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2">
+        <v>179</v>
+      </c>
+      <c r="F46" s="2">
+        <v>427</v>
+      </c>
+      <c r="G46" s="2">
+        <v>138</v>
+      </c>
+      <c r="H46" s="2">
+        <v>197</v>
+      </c>
+      <c r="I46" s="2">
+        <v>114</v>
+      </c>
+      <c r="J46" s="2">
+        <v>173</v>
+      </c>
+      <c r="K46" s="2">
+        <v>166</v>
+      </c>
+      <c r="L46" s="2">
+        <v>254</v>
+      </c>
+      <c r="M46" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>559</v>
+      </c>
+      <c r="D47" s="2">
+        <v>584</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1625</v>
+      </c>
+      <c r="F47" s="2">
+        <v>3018</v>
+      </c>
+      <c r="G47" s="2">
+        <v>504</v>
+      </c>
+      <c r="H47" s="2">
+        <v>303</v>
+      </c>
+      <c r="I47" s="2">
+        <v>732</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1131</v>
+      </c>
+      <c r="K47" s="2">
+        <v>641</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1004</v>
+      </c>
+      <c r="M47" s="2">
+        <v>3027</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:M47">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B5DBD2-1CF5-49A8-938D-7294F3CB096C}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G43:G44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42765,51 +44991,51 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1196</v>
+        <v>-1052</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>610</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>904</v>
+        <v>209</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>600</v>
+        <v>1950</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="I2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>724</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>475</v>
+        <v>306</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="L2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1530</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -42818,51 +45044,51 @@
       </c>
       <c r="B3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1809</v>
+        <v>-2018</v>
       </c>
       <c r="C3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>245</v>
+        <v>381</v>
       </c>
       <c r="E3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="F3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>795</v>
+        <v>2040</v>
       </c>
       <c r="G3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="J3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="K3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="L3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="M3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>714</v>
+        <v>799</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -42871,51 +45097,51 @@
       </c>
       <c r="B4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-10797</v>
+        <v>-943</v>
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-89</v>
+        <v>-72</v>
       </c>
       <c r="D4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>285</v>
+        <v>1573</v>
       </c>
       <c r="E4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1486</v>
+        <v>178</v>
       </c>
       <c r="F4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>215</v>
+        <v>2122</v>
       </c>
       <c r="G4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-123</v>
+        <v>-73</v>
       </c>
       <c r="H4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="I4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="J4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>437</v>
+        <v>319</v>
       </c>
       <c r="K4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="L4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>284</v>
+        <v>1476</v>
       </c>
       <c r="M4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2724</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -42924,51 +45150,51 @@
       </c>
       <c r="B5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1410</v>
+        <v>-617</v>
       </c>
       <c r="C5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>215</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>362</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>370</v>
+        <v>738</v>
       </c>
       <c r="I5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="J5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>188</v>
+        <v>538</v>
       </c>
       <c r="K5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>830</v>
+        <v>382</v>
       </c>
       <c r="L5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>672</v>
+        <v>107</v>
       </c>
       <c r="M5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>958</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -42977,51 +45203,51 @@
       </c>
       <c r="B6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1679</v>
+        <v>-448</v>
       </c>
       <c r="C6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>401</v>
+        <v>232</v>
       </c>
       <c r="D6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>174</v>
+        <v>684</v>
       </c>
       <c r="E6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>370</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1974</v>
+        <v>2622</v>
       </c>
       <c r="G6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="H6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>721</v>
+        <v>918</v>
       </c>
       <c r="J6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="K6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="L6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>554</v>
+        <v>347</v>
       </c>
       <c r="M6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1717</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -43030,51 +45256,51 @@
       </c>
       <c r="B7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1387</v>
+        <v>-4371</v>
       </c>
       <c r="C7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="E7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="F7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5432</v>
+        <v>4228</v>
       </c>
       <c r="G7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-57</v>
+        <v>-47</v>
       </c>
       <c r="H7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-639</v>
+        <v>-541</v>
       </c>
       <c r="I7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-170</v>
+        <v>-123</v>
       </c>
       <c r="J7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="K7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="M7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -43083,51 +45309,51 @@
       </c>
       <c r="B8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3765</v>
+        <v>-3782</v>
       </c>
       <c r="C8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>149</v>
+        <v>714</v>
       </c>
       <c r="E8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1091</v>
+        <v>407</v>
       </c>
       <c r="F8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1096</v>
+        <v>5436</v>
       </c>
       <c r="G8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-516</v>
+        <v>-519</v>
       </c>
       <c r="H8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-86</v>
+        <v>-75</v>
       </c>
       <c r="I8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>844</v>
+        <v>1264</v>
       </c>
       <c r="J8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>139</v>
+        <v>439</v>
       </c>
       <c r="K8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>550</v>
+        <v>421</v>
       </c>
       <c r="L8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="M8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2380</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -43136,51 +45362,51 @@
       </c>
       <c r="B9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-394</v>
+        <v>-1508</v>
       </c>
       <c r="C9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>394</v>
+        <v>152</v>
       </c>
       <c r="E9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="F9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>826</v>
+        <v>2539</v>
       </c>
       <c r="G9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>388</v>
+        <v>239</v>
       </c>
       <c r="H9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="I9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="J9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="L9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>108</v>
+        <v>310</v>
       </c>
       <c r="M9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>333</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -43189,51 +45415,51 @@
       </c>
       <c r="B10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-216</v>
+        <v>-1796</v>
       </c>
       <c r="C10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>551</v>
+        <v>417</v>
       </c>
       <c r="D10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>437</v>
+        <v>474</v>
       </c>
       <c r="E10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>283</v>
+        <v>606</v>
       </c>
       <c r="F10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1460</v>
+        <v>1087</v>
       </c>
       <c r="G10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-24</v>
+        <v>-30</v>
       </c>
       <c r="H10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="I10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="J10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>410</v>
+        <v>184</v>
       </c>
       <c r="K10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>391</v>
+        <v>670</v>
       </c>
       <c r="L10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="M10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -43242,51 +45468,51 @@
       </c>
       <c r="B11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-288</v>
+        <v>-1675</v>
       </c>
       <c r="C11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="D11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>355</v>
+        <v>621</v>
       </c>
       <c r="E11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>403</v>
+        <v>720</v>
       </c>
       <c r="F11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2098</v>
+        <v>1487</v>
       </c>
       <c r="G11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-38</v>
+        <v>-271</v>
       </c>
       <c r="H11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="I11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="J11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>402</v>
+        <v>821</v>
       </c>
       <c r="K11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>125</v>
+        <v>442</v>
       </c>
       <c r="L11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1026</v>
+        <v>942</v>
       </c>
       <c r="M11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>222</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -43295,51 +45521,51 @@
       </c>
       <c r="B12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-8544</v>
+        <v>-7033</v>
       </c>
       <c r="C12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="D12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1203</v>
+        <v>391</v>
       </c>
       <c r="E12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1063</v>
+        <v>797</v>
       </c>
       <c r="F12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5080</v>
+        <v>589</v>
       </c>
       <c r="G12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-27</v>
+        <v>-39</v>
       </c>
       <c r="H12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>135</v>
+        <v>701</v>
       </c>
       <c r="I12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1064</v>
+        <v>1009</v>
       </c>
       <c r="J12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>474</v>
+        <v>1070</v>
       </c>
       <c r="K12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1469</v>
+        <v>408</v>
       </c>
       <c r="L12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>528</v>
+        <v>435</v>
       </c>
       <c r="M12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>81</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -43348,51 +45574,51 @@
       </c>
       <c r="B13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2622</v>
+        <v>-1013</v>
       </c>
       <c r="C13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>218</v>
+        <v>575</v>
       </c>
       <c r="E13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>324</v>
+        <v>870</v>
       </c>
       <c r="F13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1225</v>
+        <v>983</v>
       </c>
       <c r="G13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="H13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="I13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1016</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>321</v>
+        <v>581</v>
       </c>
       <c r="L13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>343</v>
+        <v>146</v>
       </c>
       <c r="M13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>929</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -43401,51 +45627,51 @@
       </c>
       <c r="B14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1807</v>
+        <v>-2833</v>
       </c>
       <c r="C14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="F14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1759</v>
+        <v>234</v>
       </c>
       <c r="G14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-516</v>
+        <v>-307</v>
       </c>
       <c r="H14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="I14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-142</v>
+        <v>-109</v>
       </c>
       <c r="J14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-58</v>
+        <v>-44</v>
       </c>
       <c r="K14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="M14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>492</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -43454,51 +45680,51 @@
       </c>
       <c r="B15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-383</v>
+        <v>-793</v>
       </c>
       <c r="C15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="E15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="F15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>769</v>
+        <v>368</v>
       </c>
       <c r="G15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="H15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="J15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="K15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="L15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="M15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>602</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -43560,51 +45786,51 @@
       </c>
       <c r="B17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-9903</v>
+        <v>-11421</v>
       </c>
       <c r="C17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>406</v>
+        <v>735</v>
       </c>
       <c r="D17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2126</v>
+        <v>2449</v>
       </c>
       <c r="E17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>5863</v>
+        <v>6500</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2476</v>
+        <v>6048</v>
       </c>
       <c r="G17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="H17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-3731</v>
+        <v>-627</v>
       </c>
       <c r="I17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="J17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="K17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="L17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>226</v>
+        <v>1256</v>
       </c>
       <c r="M17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>6002</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -43613,51 +45839,51 @@
       </c>
       <c r="B18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1429</v>
+        <v>-1786</v>
       </c>
       <c r="C18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>523</v>
+        <v>132</v>
       </c>
       <c r="F18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>237</v>
+        <v>491</v>
       </c>
       <c r="G18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>688</v>
+        <v>537</v>
       </c>
       <c r="H18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-86</v>
+        <v>-203</v>
       </c>
       <c r="I18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-558</v>
+        <v>-99</v>
       </c>
       <c r="J18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-25</v>
+        <v>-88</v>
       </c>
       <c r="L18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-65</v>
+        <v>-58</v>
       </c>
       <c r="M18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -43666,51 +45892,51 @@
       </c>
       <c r="B19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-859</v>
+        <v>-2376</v>
       </c>
       <c r="C19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="E19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1011</v>
+        <v>1373</v>
       </c>
       <c r="F19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3191</v>
+        <v>3865</v>
       </c>
       <c r="G19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-26</v>
+        <v>-1521</v>
       </c>
       <c r="H19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-290</v>
+        <v>-326</v>
       </c>
       <c r="I19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-212</v>
+        <v>-117</v>
       </c>
       <c r="J19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="K19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="M19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>205</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -43719,51 +45945,51 @@
       </c>
       <c r="B20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1492</v>
+        <v>-2028</v>
       </c>
       <c r="C20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>906</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>323</v>
+        <v>204</v>
       </c>
       <c r="F20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4198</v>
+        <v>714</v>
       </c>
       <c r="G20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-130</v>
+        <v>-41</v>
       </c>
       <c r="H20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>70</v>
+        <v>281</v>
       </c>
       <c r="I20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>168</v>
+        <v>570</v>
       </c>
       <c r="J20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>585</v>
+        <v>287</v>
       </c>
       <c r="K20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>389</v>
+        <v>549</v>
       </c>
       <c r="L20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>386</v>
+        <v>65</v>
       </c>
       <c r="M20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>837</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -43772,51 +45998,51 @@
       </c>
       <c r="B21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-414</v>
+        <v>-117</v>
       </c>
       <c r="C21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-139</v>
+        <v>-41</v>
       </c>
       <c r="D21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="E21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3395</v>
+        <v>2310</v>
       </c>
       <c r="G21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1418</v>
+        <v>-798</v>
       </c>
       <c r="H21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-31</v>
+        <v>-862</v>
       </c>
       <c r="I21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-114</v>
+        <v>-153</v>
       </c>
       <c r="J21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-296</v>
+        <v>-334</v>
       </c>
       <c r="K21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-49</v>
+        <v>-206</v>
       </c>
       <c r="L21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-15</v>
+        <v>-43</v>
       </c>
       <c r="M21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -43825,51 +46051,51 @@
       </c>
       <c r="B22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4689</v>
+        <v>-5947</v>
       </c>
       <c r="C22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>244</v>
+        <v>530</v>
       </c>
       <c r="F22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2811</v>
+        <v>690</v>
       </c>
       <c r="G22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>640</v>
+        <v>705</v>
       </c>
       <c r="J22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>337</v>
+        <v>145</v>
       </c>
       <c r="K22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>395</v>
+        <v>675</v>
       </c>
       <c r="L22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>317</v>
+        <v>1117</v>
       </c>
       <c r="M22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>48</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -43878,51 +46104,51 @@
       </c>
       <c r="B23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-362</v>
+        <v>-2</v>
       </c>
       <c r="C23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>352</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>404</v>
+        <v>821</v>
       </c>
       <c r="E23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>764</v>
+        <v>955</v>
       </c>
       <c r="F23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>8214</v>
+        <v>3992</v>
       </c>
       <c r="G23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-2238</v>
+        <v>-504</v>
       </c>
       <c r="H23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-230</v>
+        <v>-132</v>
       </c>
       <c r="I23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1135</v>
+        <v>856</v>
       </c>
       <c r="J23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>659</v>
+        <v>219</v>
       </c>
       <c r="K23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1090</v>
+        <v>1684</v>
       </c>
       <c r="L23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>872</v>
+        <v>480</v>
       </c>
       <c r="M23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1820</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -43931,51 +46157,51 @@
       </c>
       <c r="B24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-15746</v>
+        <v>-5267</v>
       </c>
       <c r="C24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>294</v>
+        <v>577</v>
       </c>
       <c r="D24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1272</v>
+        <v>2072</v>
       </c>
       <c r="E24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2268</v>
+        <v>6325</v>
       </c>
       <c r="F24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4506</v>
+        <v>12029</v>
       </c>
       <c r="G24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-2444</v>
+        <v>-3433</v>
       </c>
       <c r="H24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="I24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>481</v>
+        <v>64</v>
       </c>
       <c r="J24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>820</v>
+        <v>1355</v>
       </c>
       <c r="K24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="L24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>8</v>
+        <v>752</v>
       </c>
       <c r="M24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>802</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -43984,43 +46210,43 @@
       </c>
       <c r="B25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-617</v>
+        <v>-2809</v>
       </c>
       <c r="C25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>85</v>
+        <v>770</v>
       </c>
       <c r="E25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>7686</v>
+        <v>6732</v>
       </c>
       <c r="G25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-916</v>
+        <v>-47</v>
       </c>
       <c r="H25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-1414</v>
+        <v>-1506</v>
       </c>
       <c r="I25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-147</v>
+        <v>-13</v>
       </c>
       <c r="J25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-367</v>
+        <v>-159</v>
       </c>
       <c r="K25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-180</v>
+        <v>-262</v>
       </c>
       <c r="L25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
@@ -44028,7 +46254,7 @@
       </c>
       <c r="M25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>255</v>
+        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -44037,51 +46263,51 @@
       </c>
       <c r="B26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1477</v>
+        <v>-2437</v>
       </c>
       <c r="C26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-93</v>
+        <v>-31</v>
       </c>
       <c r="D26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="F26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5316</v>
+        <v>1982</v>
       </c>
       <c r="G26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-49</v>
+        <v>-135</v>
       </c>
       <c r="I26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-181</v>
+        <v>-145</v>
       </c>
       <c r="J26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>339</v>
+        <v>160</v>
       </c>
       <c r="L26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>633</v>
+        <v>11</v>
       </c>
       <c r="M26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1199</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -44090,51 +46316,51 @@
       </c>
       <c r="B27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-134</v>
+        <v>-344</v>
       </c>
       <c r="C27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="E27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1844</v>
+        <v>2627</v>
       </c>
       <c r="F27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1282</v>
+        <v>1142</v>
       </c>
       <c r="G27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-503</v>
+        <v>-390</v>
       </c>
       <c r="H27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-187</v>
+        <v>-104</v>
       </c>
       <c r="I27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-26</v>
+        <v>-55</v>
       </c>
       <c r="J27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>946</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -44143,51 +46369,51 @@
       </c>
       <c r="B28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-869</v>
+        <v>-10498</v>
       </c>
       <c r="C28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>493</v>
+        <v>711</v>
       </c>
       <c r="D28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2334</v>
+        <v>3199</v>
       </c>
       <c r="E28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1075</v>
+        <v>4542</v>
       </c>
       <c r="F28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3624</v>
+        <v>18828</v>
       </c>
       <c r="G28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-2569</v>
+        <v>-997</v>
       </c>
       <c r="H28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-2040</v>
+        <v>-1055</v>
       </c>
       <c r="I28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1960</v>
+        <v>2649</v>
       </c>
       <c r="J28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>559</v>
+        <v>438</v>
       </c>
       <c r="K28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>443</v>
+        <v>645</v>
       </c>
       <c r="L28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>2382</v>
+        <v>678</v>
       </c>
       <c r="M28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>4482</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -44196,51 +46422,51 @@
       </c>
       <c r="B29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2748</v>
+        <v>-4677</v>
       </c>
       <c r="C29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="D29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="E29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>3212</v>
+        <v>2932</v>
       </c>
       <c r="F29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>446</v>
+        <v>3445</v>
       </c>
       <c r="G29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-268</v>
+        <v>-196</v>
       </c>
       <c r="H29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="I29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>20</v>
+        <v>415</v>
       </c>
       <c r="J29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="K29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>478</v>
+        <v>730</v>
       </c>
       <c r="L29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>510</v>
+        <v>231</v>
       </c>
       <c r="M29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>353</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -44249,51 +46475,51 @@
       </c>
       <c r="B30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1290</v>
+        <v>-891</v>
       </c>
       <c r="C30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>214</v>
+        <v>640</v>
       </c>
       <c r="E30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>760</v>
+        <v>632</v>
       </c>
       <c r="F30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1631</v>
+        <v>1513</v>
       </c>
       <c r="G30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>491</v>
+        <v>718</v>
       </c>
       <c r="I30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>115</v>
+        <v>768</v>
       </c>
       <c r="J30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="K30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="L30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>914</v>
+        <v>49</v>
       </c>
       <c r="M30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -44302,7 +46528,7 @@
       </c>
       <c r="B31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-564</v>
+        <v>-1022</v>
       </c>
       <c r="C31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
@@ -44310,43 +46536,43 @@
       </c>
       <c r="D31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="E31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="F31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>431</v>
+        <v>1953</v>
       </c>
       <c r="G31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-358</v>
+        <v>-377</v>
       </c>
       <c r="H31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="I31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>371</v>
+        <v>306</v>
       </c>
       <c r="J31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="K31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>338</v>
+        <v>86</v>
       </c>
       <c r="L31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>10</v>
+        <v>535</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>462</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -44355,51 +46581,51 @@
       </c>
       <c r="B32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-672</v>
+        <v>-3955</v>
       </c>
       <c r="C32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>56</v>
+        <v>386</v>
       </c>
       <c r="D32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="E32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1765</v>
+        <v>500</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>7538</v>
+        <v>2812</v>
       </c>
       <c r="G32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="H32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>727</v>
+        <v>1332</v>
       </c>
       <c r="I32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>989</v>
+        <v>1330</v>
       </c>
       <c r="J32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1178</v>
+        <v>200</v>
       </c>
       <c r="K32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>807</v>
+        <v>1152</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1619</v>
+        <v>1567</v>
       </c>
       <c r="M32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>2526</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -44408,51 +46634,51 @@
       </c>
       <c r="B33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-272</v>
+        <v>-311</v>
       </c>
       <c r="C33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-36</v>
+        <v>-9</v>
       </c>
       <c r="D33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>811</v>
+        <v>450</v>
       </c>
       <c r="F33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1399</v>
+        <v>107</v>
       </c>
       <c r="G33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-233</v>
+        <v>-130</v>
       </c>
       <c r="H33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="J33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>704</v>
+        <v>304</v>
       </c>
       <c r="K33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>470</v>
+        <v>94</v>
       </c>
       <c r="L33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>574</v>
+        <v>88</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>599</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -44461,23 +46687,23 @@
       </c>
       <c r="B34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2694</v>
+        <v>-7229</v>
       </c>
       <c r="C34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>124</v>
+        <v>352</v>
       </c>
       <c r="E34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="F34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>357</v>
+        <v>806</v>
       </c>
       <c r="G34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -44485,27 +46711,27 @@
       </c>
       <c r="H34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="I34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="J34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="K34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>279</v>
+        <v>170</v>
       </c>
       <c r="L34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1111</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -44514,51 +46740,51 @@
       </c>
       <c r="B35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-95</v>
+        <v>-1815</v>
       </c>
       <c r="C35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>70</v>
+        <v>520</v>
       </c>
       <c r="D35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>738</v>
+        <v>256</v>
       </c>
       <c r="F35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3144</v>
+        <v>2751</v>
       </c>
       <c r="G35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-65</v>
+        <v>-171</v>
       </c>
       <c r="H35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>512</v>
+        <v>197</v>
       </c>
       <c r="I35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>711</v>
+        <v>179</v>
       </c>
       <c r="J35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>286</v>
+        <v>677</v>
       </c>
       <c r="K35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>267</v>
+        <v>688</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>852</v>
+        <v>867</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -44567,23 +46793,23 @@
       </c>
       <c r="B36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-399</v>
+        <v>-616</v>
       </c>
       <c r="C36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="F36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>752</v>
+        <v>1725</v>
       </c>
       <c r="G36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -44591,27 +46817,27 @@
       </c>
       <c r="H36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>229</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -44620,51 +46846,51 @@
       </c>
       <c r="B37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-124</v>
+        <v>-270</v>
       </c>
       <c r="C37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>119</v>
+        <v>453</v>
       </c>
       <c r="F37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="G37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-188</v>
+        <v>-9</v>
       </c>
       <c r="I37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="J37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="K37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="L37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="M37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>498</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -44673,51 +46899,51 @@
       </c>
       <c r="B38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-8243</v>
+        <v>-7211</v>
       </c>
       <c r="C38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>713</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>589</v>
+        <v>466</v>
       </c>
       <c r="F38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5028</v>
+        <v>4628</v>
       </c>
       <c r="G38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-554</v>
+        <v>-260</v>
       </c>
       <c r="H38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="I38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>357</v>
+        <v>501</v>
       </c>
       <c r="J38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>336</v>
+        <v>717</v>
       </c>
       <c r="K38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="L38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="M38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1960</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -44726,51 +46952,51 @@
       </c>
       <c r="B39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-132</v>
+        <v>-1386</v>
       </c>
       <c r="C39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>52</v>
+        <v>392</v>
       </c>
       <c r="F39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1172</v>
+        <v>685</v>
       </c>
       <c r="G39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-30</v>
+        <v>-22</v>
       </c>
       <c r="H39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="I39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="J39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -44779,51 +47005,51 @@
       </c>
       <c r="B40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-526</v>
+        <v>-1025</v>
       </c>
       <c r="C40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="D40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>370</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>998</v>
+        <v>1222</v>
       </c>
       <c r="G40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="H40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="J40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="K40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>737</v>
+        <v>328</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>422</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -44832,51 +47058,51 @@
       </c>
       <c r="B41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1435</v>
+        <v>-47</v>
       </c>
       <c r="C41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-36</v>
+        <v>-19</v>
       </c>
       <c r="D41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>266</v>
+        <v>841</v>
       </c>
       <c r="G41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="I41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="J41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -44885,51 +47111,51 @@
       </c>
       <c r="B42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-642</v>
+        <v>-1980</v>
       </c>
       <c r="C42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-56</v>
+        <v>-240</v>
       </c>
       <c r="D42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>530</v>
+        <v>338</v>
       </c>
       <c r="G42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="H42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>569</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>482</v>
+        <v>346</v>
       </c>
       <c r="J42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>312</v>
+        <v>494</v>
       </c>
       <c r="K42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="M42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>407</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -44938,51 +47164,51 @@
       </c>
       <c r="B43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5181</v>
+        <v>-1326</v>
       </c>
       <c r="C43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>685</v>
+        <v>127</v>
       </c>
       <c r="G43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="J43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="K43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>481</v>
+        <v>363</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1754</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -44991,51 +47217,51 @@
       </c>
       <c r="B44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-873</v>
+        <v>-167</v>
       </c>
       <c r="C44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="E44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="F44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>728</v>
+        <v>118</v>
       </c>
       <c r="G44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="I44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="J44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="M44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>293</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -45044,51 +47270,51 @@
       </c>
       <c r="B45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1364</v>
+        <v>-376</v>
       </c>
       <c r="C45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-5</v>
+        <v>-61</v>
       </c>
       <c r="D45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="G45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>520</v>
+        <v>181</v>
       </c>
       <c r="H45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="I45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="J45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>381</v>
+        <v>118</v>
       </c>
       <c r="K45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="L45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>115</v>
+        <v>465</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>133</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -45097,23 +47323,23 @@
       </c>
       <c r="B46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-132</v>
+        <v>-345</v>
       </c>
       <c r="C46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-18</v>
+        <v>-10</v>
       </c>
       <c r="D46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="F46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -45121,27 +47347,27 @@
       </c>
       <c r="H46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="I46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="J46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="K46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -45150,56 +47376,56 @@
       </c>
       <c r="B47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-771</v>
+        <v>-1329</v>
       </c>
       <c r="C47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="E47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>313</v>
+        <v>753</v>
       </c>
       <c r="F47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>360</v>
+        <v>759</v>
       </c>
       <c r="G47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="H47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="I47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>483</v>
+        <v>719</v>
       </c>
       <c r="J47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>350</v>
+        <v>843</v>
       </c>
       <c r="K47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>313</v>
+        <v>478</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>205</v>
+        <v>598</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>372</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A62">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45210,13 +47436,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4ACAD3C-539C-49DF-B7AE-6CF35BBA8C69}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45281,51 +47507,51 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>904</v>
+        <v>-1052</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>581</v>
+        <v>77</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>610</v>
+        <v>435</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>470</v>
+        <v>645</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>724</v>
+        <v>209</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>475</v>
+        <v>62</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>73</v>
+        <v>1950</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>358</v>
+        <v>547</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1196</v>
+        <v>306</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>488</v>
+        <v>210</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1530</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -45334,51 +47560,51 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>407</v>
+        <v>-2018</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>212</v>
+        <v>799</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>795</v>
+        <v>314</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>126</v>
+        <v>448</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>77</v>
+        <v>2040</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1809</v>
+        <v>149</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>111</v>
+        <v>381</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>714</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -45387,51 +47613,51 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1486</v>
+        <v>-943</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>79</v>
+        <v>963</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>285</v>
+        <v>-73</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>215</v>
+        <v>1476</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>437</v>
+        <v>127</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-89</v>
+        <v>2122</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-123</v>
+        <v>225</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-10797</v>
+        <v>319</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>284</v>
+        <v>1573</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>2724</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -45440,51 +47666,51 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>362</v>
+        <v>-617</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>830</v>
+        <v>1587</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>215</v>
+        <v>6</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>263</v>
+        <v>126</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>18</v>
+        <v>738</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1410</v>
+        <v>538</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>672</v>
+        <v>113</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -45493,51 +47719,51 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>370</v>
+        <v>-448</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>326</v>
+        <v>1665</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>21</v>
+        <v>476</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1974</v>
+        <v>347</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>721</v>
+        <v>66</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>606</v>
+        <v>918</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>401</v>
+        <v>2622</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>273</v>
+        <v>117</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1679</v>
+        <v>637</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>554</v>
+        <v>684</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1717</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -45546,51 +47772,51 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>56</v>
+        <v>-4371</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>335</v>
+        <v>-47</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-639</v>
+        <v>136</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>5432</v>
+        <v>249</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-170</v>
+        <v>203</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>52</v>
+        <v>-123</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>56</v>
+        <v>4228</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-57</v>
+        <v>-541</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1387</v>
+        <v>73</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>422</v>
+        <v>264</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>173</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -45599,51 +47825,51 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1091</v>
+        <v>-3782</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>149</v>
+        <v>-519</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-86</v>
+        <v>421</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1096</v>
+        <v>362</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>844</v>
+        <v>407</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>139</v>
+        <v>1264</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>103</v>
+        <v>5436</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-516</v>
+        <v>-75</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-3765</v>
+        <v>439</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>425</v>
+        <v>714</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>2380</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -45652,51 +47878,51 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>182</v>
+        <v>-1508</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>394</v>
+        <v>239</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>14</v>
+        <v>373</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>826</v>
+        <v>310</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>44</v>
+        <v>2539</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>388</v>
+        <v>165</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-394</v>
+        <v>138</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -45705,51 +47931,51 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>283</v>
+        <v>-1796</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>437</v>
+        <v>-30</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>276</v>
+        <v>670</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1460</v>
+        <v>324</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>77</v>
+        <v>606</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>551</v>
+        <v>1087</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-24</v>
+        <v>146</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-216</v>
+        <v>184</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>4</v>
+        <v>474</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>306</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -45758,51 +47984,51 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>403</v>
+        <v>-1675</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>125</v>
+        <v>521</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>355</v>
+        <v>-271</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>127</v>
+        <v>442</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>2098</v>
+        <v>942</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>208</v>
+        <v>720</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>402</v>
+        <v>94</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>55</v>
+        <v>1487</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-38</v>
+        <v>271</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-288</v>
+        <v>821</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1026</v>
+        <v>621</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>222</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -45811,51 +48037,51 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1063</v>
+        <v>-7033</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1469</v>
+        <v>1645</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>1203</v>
+        <v>-39</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>5080</v>
+        <v>435</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1064</v>
+        <v>797</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>474</v>
+        <v>1009</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>346</v>
+        <v>589</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-27</v>
+        <v>701</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-8544</v>
+        <v>1070</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>528</v>
+        <v>391</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>81</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -45864,51 +48090,51 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>324</v>
+        <v>-1013</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>321</v>
+        <v>483</v>
       </c>
       <c r="D13" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1225</v>
+        <v>146</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1016</v>
+        <v>870</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>128</v>
+        <v>983</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-2622</v>
+        <v>37</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>343</v>
+        <v>575</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>929</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -45917,51 +48143,51 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>70</v>
+        <v>-2833</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>442</v>
+        <v>-307</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1759</v>
+        <v>11</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-142</v>
+        <v>289</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-58</v>
+        <v>-109</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-516</v>
+        <v>97</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1807</v>
+        <v>-44</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>492</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -45970,51 +48196,51 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>37</v>
+        <v>-793</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>769</v>
+        <v>140</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-383</v>
+        <v>270</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>38</v>
+        <v>276</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>602</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -46076,51 +48302,51 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>5863</v>
+        <v>-11421</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>200</v>
+        <v>3669</v>
       </c>
       <c r="D17" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>2126</v>
+        <v>159</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-3731</v>
+        <v>144</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>2476</v>
+        <v>1256</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>342</v>
+        <v>6500</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>406</v>
+        <v>6048</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>38</v>
+        <v>-627</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-9903</v>
+        <v>130</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>226</v>
+        <v>2449</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>6002</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -46129,51 +48355,51 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>523</v>
+        <v>-1786</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-25</v>
+        <v>6</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-86</v>
+        <v>-88</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>237</v>
+        <v>-58</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-558</v>
+        <v>132</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>30</v>
+        <v>-99</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>688</v>
+        <v>-203</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1429</v>
+        <v>16</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-65</v>
+        <v>22</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -46182,51 +48408,51 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1011</v>
+        <v>-2376</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>23</v>
+        <v>364</v>
       </c>
       <c r="D19" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>229</v>
+        <v>-1521</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-290</v>
+        <v>33</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3191</v>
+        <v>557</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-212</v>
+        <v>1373</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-10</v>
+        <v>-117</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>69</v>
+        <v>3865</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-26</v>
+        <v>-326</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-859</v>
+        <v>-8</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>511</v>
+        <v>311</v>
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>205</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -46235,51 +48461,51 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>323</v>
+        <v>-2028</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>389</v>
+        <v>906</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>906</v>
+        <v>-41</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>4198</v>
+        <v>65</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>159</v>
+        <v>714</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-130</v>
+        <v>281</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1492</v>
+        <v>287</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>837</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -46288,51 +48514,51 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>91</v>
+        <v>-117</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-49</v>
+        <v>113</v>
       </c>
       <c r="D21" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>97</v>
+        <v>-798</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-31</v>
+        <v>-206</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3395</v>
+        <v>-43</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-114</v>
+        <v>49</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-296</v>
+        <v>-153</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-139</v>
+        <v>2310</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-1418</v>
+        <v>-862</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-414</v>
+        <v>-334</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>-15</v>
+        <v>130</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>62</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -46341,47 +48567,47 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>244</v>
+        <v>-5947</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>395</v>
+        <v>1551</v>
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>69</v>
+        <v>675</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>2811</v>
+        <v>1117</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>337</v>
+        <v>705</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>155</v>
+        <v>690</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-4689</v>
+        <v>145</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>317</v>
+        <v>33</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
@@ -46394,51 +48620,51 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>764</v>
+        <v>-2</v>
       </c>
       <c r="C23" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1090</v>
+        <v>679</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>404</v>
+        <v>-504</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-230</v>
+        <v>1684</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>8214</v>
+        <v>480</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1135</v>
+        <v>955</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>659</v>
+        <v>856</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>352</v>
+        <v>3992</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-2238</v>
+        <v>-132</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-362</v>
+        <v>219</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>872</v>
+        <v>821</v>
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1820</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -46447,51 +48673,51 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>2268</v>
+        <v>-5267</v>
       </c>
       <c r="C24" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>339</v>
+        <v>3044</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>1272</v>
+        <v>-3433</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>4506</v>
+        <v>752</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>481</v>
+        <v>6325</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>820</v>
+        <v>64</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>294</v>
+        <v>12029</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-2444</v>
+        <v>230</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-15746</v>
+        <v>1355</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>8</v>
+        <v>2072</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>802</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -46500,51 +48726,51 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>149</v>
+        <v>-2809</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>-180</v>
+        <v>794</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>85</v>
+        <v>-47</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-1414</v>
+        <v>-262</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>7686</v>
+        <v>0</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-147</v>
+        <v>10</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-367</v>
+        <v>-13</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>69</v>
+        <v>6732</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-916</v>
+        <v>-1506</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-617</v>
+        <v>-159</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>255</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -46553,51 +48779,51 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>634</v>
+        <v>-2437</v>
       </c>
       <c r="C26" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>339</v>
+        <v>53</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-49</v>
+        <v>160</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>5316</v>
+        <v>11</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-181</v>
+        <v>697</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>66</v>
+        <v>-145</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-93</v>
+        <v>1982</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>140</v>
+        <v>-135</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1477</v>
+        <v>82</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>633</v>
+        <v>150</v>
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1199</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -46606,51 +48832,51 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1844</v>
+        <v>-344</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>376</v>
+        <v>-390</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-187</v>
+        <v>2</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1282</v>
+        <v>25</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>-26</v>
+        <v>2627</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>58</v>
+        <v>-55</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-503</v>
+        <v>-104</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-134</v>
+        <v>72</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>946</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -46659,51 +48885,51 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1075</v>
+        <v>-10498</v>
       </c>
       <c r="C28" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="D28" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>2334</v>
+        <v>-997</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-2040</v>
+        <v>645</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3624</v>
+        <v>678</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1960</v>
+        <v>4542</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>559</v>
+        <v>2649</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>493</v>
+        <v>18828</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-2569</v>
+        <v>-1055</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-869</v>
+        <v>438</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>2382</v>
+        <v>3199</v>
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>4482</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -46712,51 +48938,51 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>3212</v>
+        <v>-4677</v>
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>478</v>
+        <v>93</v>
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>72</v>
+        <v>-196</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>151</v>
+        <v>730</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>446</v>
+        <v>231</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>20</v>
+        <v>2932</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>31</v>
+        <v>3445</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-268</v>
+        <v>287</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-2748</v>
+        <v>244</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>353</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -46765,51 +48991,51 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>760</v>
+        <v>-891</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="D30" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>491</v>
+        <v>392</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1631</v>
+        <v>49</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>115</v>
+        <v>632</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>568</v>
+        <v>768</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>325</v>
+        <v>1513</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>226</v>
+        <v>718</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1290</v>
+        <v>536</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>914</v>
+        <v>640</v>
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>999</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -46818,51 +49044,51 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>80</v>
+        <v>-1022</v>
       </c>
       <c r="C31" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>338</v>
+        <v>822</v>
       </c>
       <c r="D31" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>52</v>
+        <v>-377</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>431</v>
+        <v>535</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2</v>
+        <v>1953</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-358</v>
+        <v>126</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-564</v>
+        <v>266</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>462</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -46871,51 +49097,51 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>1765</v>
+        <v>-3955</v>
       </c>
       <c r="C32" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>807</v>
+        <v>429</v>
       </c>
       <c r="D32" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>727</v>
+        <v>1152</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>7538</v>
+        <v>1567</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>989</v>
+        <v>500</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1178</v>
+        <v>1330</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>56</v>
+        <v>2812</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>19</v>
+        <v>1332</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-672</v>
+        <v>200</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1619</v>
+        <v>241</v>
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>2526</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -46924,51 +49150,51 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>811</v>
+        <v>-311</v>
       </c>
       <c r="C33" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="D33" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>404</v>
+        <v>-130</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1399</v>
+        <v>88</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>704</v>
+        <v>163</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-36</v>
+        <v>107</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-233</v>
+        <v>23</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-272</v>
+        <v>304</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>574</v>
+        <v>401</v>
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>599</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -46977,51 +49203,51 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>447</v>
+        <v>-7229</v>
       </c>
       <c r="C34" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>279</v>
+        <v>911</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>124</v>
+        <v>-1</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>357</v>
+        <v>137</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>69</v>
+        <v>516</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>132</v>
+        <v>806</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-2694</v>
+        <v>138</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>165</v>
+        <v>352</v>
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -47030,51 +49256,51 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>738</v>
+        <v>-1815</v>
       </c>
       <c r="C35" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>267</v>
+        <v>867</v>
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>705</v>
+        <v>-171</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>512</v>
+        <v>688</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>3144</v>
+        <v>0</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>711</v>
+        <v>256</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>70</v>
+        <v>2751</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-65</v>
+        <v>197</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-95</v>
+        <v>677</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>415</v>
+        <v>707</v>
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>852</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -47083,51 +49309,51 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>15</v>
+        <v>-616</v>
       </c>
       <c r="C36" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D36" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>90</v>
+        <v>-3</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>752</v>
+        <v>135</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>86</v>
+        <v>1725</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-3</v>
+        <v>45</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-399</v>
+        <v>0</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -47136,51 +49362,51 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>119</v>
+        <v>-270</v>
       </c>
       <c r="C37" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="D37" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>10</v>
+        <v>351</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-188</v>
+        <v>122</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>147</v>
+        <v>453</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>349</v>
+        <v>-9</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-124</v>
+        <v>20</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>498</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -47189,51 +49415,51 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>589</v>
+        <v>-7211</v>
       </c>
       <c r="C38" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>496</v>
+        <v>1537</v>
       </c>
       <c r="D38" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>713</v>
+        <v>-260</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>5028</v>
+        <v>170</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>357</v>
+        <v>466</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>336</v>
+        <v>501</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>94</v>
+        <v>4628</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-554</v>
+        <v>51</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-8243</v>
+        <v>717</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>340</v>
+        <v>161</v>
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1960</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -47242,51 +49468,51 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>52</v>
+        <v>-1386</v>
       </c>
       <c r="C39" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="D39" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>64</v>
+        <v>-22</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1172</v>
+        <v>279</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>189</v>
+        <v>392</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>47</v>
+        <v>685</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-30</v>
+        <v>-13</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-132</v>
+        <v>46</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>281</v>
+        <v>23</v>
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>320</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47295,51 +49521,51 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>370</v>
+        <v>-1025</v>
       </c>
       <c r="C40" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>265</v>
+        <v>875</v>
       </c>
       <c r="D40" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>998</v>
+        <v>328</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>88</v>
+        <v>1222</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-526</v>
+        <v>244</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>737</v>
+        <v>106</v>
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>422</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47348,51 +49574,51 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>3</v>
+        <v>-47</v>
       </c>
       <c r="C41" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D41" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="G41" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H41" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-36</v>
+        <v>841</v>
       </c>
       <c r="J41" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1435</v>
+        <v>100</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>118</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -47401,51 +49627,51 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>16</v>
+        <v>-1980</v>
       </c>
       <c r="C42" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>255</v>
+        <v>1276</v>
       </c>
       <c r="D42" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>569</v>
+        <v>50</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>530</v>
+        <v>411</v>
       </c>
       <c r="G42" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>482</v>
+        <v>8</v>
       </c>
       <c r="H42" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-56</v>
+        <v>338</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-642</v>
+        <v>494</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>407</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -47454,51 +49680,51 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>55</v>
+        <v>-1326</v>
       </c>
       <c r="C43" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>204</v>
+        <v>1949</v>
       </c>
       <c r="D43" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>685</v>
+        <v>363</v>
       </c>
       <c r="G43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="H43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="J43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-5181</v>
+        <v>232</v>
       </c>
       <c r="L43" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>481</v>
+        <v>10</v>
       </c>
       <c r="M43" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1754</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -47507,51 +49733,51 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>123</v>
+        <v>-167</v>
       </c>
       <c r="C44" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>105</v>
+        <v>633</v>
       </c>
       <c r="D44" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>728</v>
+        <v>13</v>
       </c>
       <c r="G44" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="H44" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>308</v>
+        <v>64</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-873</v>
+        <v>306</v>
       </c>
       <c r="L44" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="M44" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>293</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47560,51 +49786,51 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>85</v>
+        <v>-376</v>
       </c>
       <c r="C45" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="D45" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="G45" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="H45" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-5</v>
+        <v>537</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-1364</v>
+        <v>118</v>
       </c>
       <c r="L45" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="M45" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>133</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47613,51 +49839,51 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>101</v>
+        <v>-345</v>
       </c>
       <c r="C46" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>37</v>
+        <v>348</v>
       </c>
       <c r="D46" cm="1">
         <f t="array" aca="1" ref="D46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>315</v>
+        <v>155</v>
       </c>
       <c r="G46" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="H46" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>-18</v>
+        <v>349</v>
       </c>
       <c r="J46" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-132</v>
+        <v>84</v>
       </c>
       <c r="L46" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M46" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>354</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -47666,51 +49892,51 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>313</v>
+        <v>-1329</v>
       </c>
       <c r="C47" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>313</v>
+        <v>929</v>
       </c>
       <c r="D47" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>2</v>
+        <v>478</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>360</v>
+        <v>598</v>
       </c>
       <c r="G47" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>483</v>
+        <v>753</v>
       </c>
       <c r="H47" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>350</v>
+        <v>719</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>28</v>
+        <v>759</v>
       </c>
       <c r="J47" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-771</v>
+        <v>843</v>
       </c>
       <c r="L47" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M47" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>372</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -47719,51 +49945,51 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49:M49" ca="1">TRANSPOSE(_xlfn.SORTBY(_xlfn.SEQUENCE(12),_xlfn.RANDARRAY(12)))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M49">
         <f ca="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test/A1 - Copy.xlsx
+++ b/test/A1 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\.juliapro\JuliaPro_v1.4.2-1\dev\Tomato\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90716295-638F-4C90-BDA4-D13F22061F15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5859D01F-F223-4680-AA13-EE035A31A591}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="156">
   <si>
     <t>name</t>
   </si>
@@ -530,6 +530,9 @@
   <si>
     <t>limit_non_jakarta</t>
   </si>
+  <si>
+    <t>ALT_START</t>
+  </si>
 </sst>
 </file>
 
@@ -794,81 +797,6 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -994,6 +922,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1034,6 +972,68 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1131,6 +1131,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1240,7 +1243,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MIN" dataDxfId="59">
       <calculatedColumnFormula>ROUND(0.05*Table1[[#This Row],[MAX]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="START" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1262,17 +1265,17 @@
     <tableColumn id="13" xr3:uid="{2237F5B7-2031-4EB6-8746-9B98E9D3FCF3}" name="PDDN_TRIP"/>
     <tableColumn id="14" xr3:uid="{BFBFAEAE-C3B0-4EDC-B7FC-80C84D9B0E8A}" name="KAWAL_TRIP"/>
     <tableColumn id="5" xr3:uid="{961B54FA-DAF2-42C4-8E20-0BA5A25B457E}" name="kapasitas"/>
-    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="58">
+    <tableColumn id="15" xr3:uid="{69CCEF72-D0A6-4542-8813-FE3D025051A7}" name="peti_cost" dataDxfId="57">
       <calculatedColumnFormula>SUM(Table3[[#This Row],[CT_cost]:[BM_PICK_PETI]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="57">
+    <tableColumn id="16" xr3:uid="{1BDFE8D2-22E8-475E-8682-A9712DBC4FB2}" name="trip_cost" dataDxfId="56">
       <calculatedColumnFormula>F2+Table3[[#This Row],[AKOM_TRIP]]+Table3[[#This Row],[BBM_TRIP]]+Table3[[#This Row],[PDDN_TRIP]]+Table3[[#This Row],[KAWAL_TRIP]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="56">
+    <tableColumn id="18" xr3:uid="{BABE36F0-05AE-4E64-B5F0-E83FC60C5EBC}" name="dist_cost" dataDxfId="55">
       <calculatedColumnFormula>Table3[[#This Row],[BBM_DIST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="54"/>
+    <tableColumn id="19" xr3:uid="{9C94B959-66A1-460E-A613-37874F0D71B9}" name="limit_jakarta" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{55F4C89A-2774-43F0-B30C-699A6D3DAAE9}" name="limit_non_jakarta" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1282,22 +1285,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{053A7CB1-1A37-44E6-809B-78409F73821D}" name="Table10" displayName="Table10" ref="A1:H970" totalsRowShown="0">
   <autoFilter ref="A1:H970" xr:uid="{1930B01D-2308-4946-B31E-991EB4AF75F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="53" dataCellStyle="Normal 5 2"/>
-    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="52" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="1" xr3:uid="{8B8258EE-0FD2-4F70-A098-E7C49B14DA27}" name="Asal" dataDxfId="52" dataCellStyle="Normal 5 2"/>
+    <tableColumn id="2" xr3:uid="{07C82942-D8A8-420D-B6D3-4FBBF4E605C5}" name="Tujuan" dataDxfId="51" dataCellStyle="Normal 5 2"/>
     <tableColumn id="3" xr3:uid="{86A84C91-50CB-47F1-ADFC-70BAD1241CDB}" name="Moda"/>
     <tableColumn id="4" xr3:uid="{B7223E06-8552-4B89-936F-25ACEBA1BDE7}" name="jarak">
       <calculatedColumnFormula>INDEX(distances!$B$2:$AU$47,MATCH(A2,distances!$A$2:$A$47,0),MATCH(B2,distances!$B$1:$AU$1,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="51">
+    <tableColumn id="5" xr3:uid="{E33288A8-4856-420E-AC62-C0CC8E81CB8B}" name="peti_cost" dataDxfId="50">
       <calculatedColumnFormula>INDEX(param!$M$2:$M$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{08EA9F0F-E655-4D99-B698-64665B777A2B}" name="trip_cost" dataDxfId="49">
       <calculatedColumnFormula>INDEX(param!$N$2:$N$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))+(INDEX(param!$O$2:$O$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))*Table10[[#This Row],[jarak]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="49">
+    <tableColumn id="8" xr3:uid="{EEF736E0-8CAD-46C6-90CC-D682C359CDDA}" name="kapasitas" dataDxfId="48">
       <calculatedColumnFormula>INDEX(param!$L$2:$L$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="48">
+    <tableColumn id="7" xr3:uid="{BB57709A-1693-4303-9794-A5B00FAACA96}" name="limit" dataDxfId="47">
       <calculatedColumnFormula>IF(Table10[[#This Row],[Asal]]="Jakarta",INDEX(param!$P$2:$P$5,MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)),INDEX(Table3[limit_non_jakarta],MATCH(Table10[[#This Row],[Moda]],param!$A$2:$A$5,0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1317,60 +1320,60 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4619E44B-A940-4A89-8758-FB63E0676509}" name="Table5" displayName="Table5" ref="A1:M47" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:M47" xr:uid="{EEE5A3FA-F8C6-487C-8AA9-46DD23722EC6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{8D4D3B46-2D48-4821-826A-416B97C3F5A3}" name="point" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{F0E3E28C-94B1-4A14-B589-365A77609858}" name="1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{75B4F908-F004-4AAC-9636-EBD37D1BEEA3}" name="2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{88C6A795-CB8A-48D7-B005-FE824C6C9796}" name="3" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0E50EB61-8391-43ED-AE7B-F9803C0B86D2}" name="4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{69C8B830-D3B8-401D-B71C-379D97E6D0EF}" name="5" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{9916F60B-CD73-4C53-B4DE-85EC17118CCF}" name="6" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{3DA3197C-B2A1-418F-80CF-B1F32385664C}" name="7" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{54A0B336-D962-44A9-8702-5C79B03661FF}" name="8" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{141513A6-B520-4810-A77F-CA207AFA357D}" name="9" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{A66999F5-CC58-48CA-8FFA-976644770990}" name="10" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{9B2BB300-3B08-4596-B312-B03C0362EB01}" name="11" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{7E6C76C4-914D-45CF-9D9E-DBC985C473B8}" name="12" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D92C2784-C2DF-42F2-92FF-5ECA29492552}" name="Table55" displayName="Table55" ref="A1:M47" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D92C2784-C2DF-42F2-92FF-5ECA29492552}" name="Table55" displayName="Table55" ref="A1:M47" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:M47" xr:uid="{F37A7175-94D4-4B97-9E3D-C26D807513CC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F8EF9A01-DB78-40D8-ACA6-9E9991DB01BC}" name="point" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B34F9971-7D7F-415E-A0AE-093A38839601}" name="1" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{8457E791-6252-4695-8B24-5D6CDA1FB838}" name="2" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{A1833406-50DB-44C9-B8FD-5712270D6356}" name="3" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{BBADBC52-1619-401D-B3EE-27B7181CA735}" name="4" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{76BE31E2-C0D4-4D4D-B9AF-13DBFAF7C16F}" name="5" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{56BE8376-A575-4C25-9980-B12C6B4DA29C}" name="6" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{99DF6C02-A4C1-4749-9B1F-469A4DAD5DAA}" name="7" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{C73AC5A7-89A9-4D6F-9B7D-54ABCDA24E67}" name="8" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{810617EF-C831-42BA-96C2-C33D0C75F295}" name="9" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{576DF02A-2A79-4121-A6A2-EEC7276A83F0}" name="10" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{9A27AD4C-A854-434F-A701-AE0FEF195B28}" name="11" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{A680175B-FEB2-4639-B162-7561C35C13E1}" name="12" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{F8EF9A01-DB78-40D8-ACA6-9E9991DB01BC}" name="point" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B34F9971-7D7F-415E-A0AE-093A38839601}" name="1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{8457E791-6252-4695-8B24-5D6CDA1FB838}" name="2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A1833406-50DB-44C9-B8FD-5712270D6356}" name="3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{BBADBC52-1619-401D-B3EE-27B7181CA735}" name="4" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{76BE31E2-C0D4-4D4D-B9AF-13DBFAF7C16F}" name="5" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{56BE8376-A575-4C25-9980-B12C6B4DA29C}" name="6" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{99DF6C02-A4C1-4749-9B1F-469A4DAD5DAA}" name="7" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{C73AC5A7-89A9-4D6F-9B7D-54ABCDA24E67}" name="8" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{810617EF-C831-42BA-96C2-C33D0C75F295}" name="9" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{576DF02A-2A79-4121-A6A2-EEC7276A83F0}" name="10" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{9A27AD4C-A854-434F-A701-AE0FEF195B28}" name="11" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{A680175B-FEB2-4639-B162-7561C35C13E1}" name="12" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{17DC9B6A-A9BC-4362-AA79-4844ED9A950A}" name="Table8" displayName="Table8" ref="A1:M47" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:M47" xr:uid="{CA72C2EE-E127-4159-9060-601AA38B3F91}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{E909DEFE-2E68-4728-BA5C-A3DA9CD96C6B}" name="point" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{1704CCDD-6C9E-4CD9-BFA7-30EF8F066300}" name="1">
       <calculatedColumnFormula>ROUND(RAND()*Table5[[#This Row],[1]],0)</calculatedColumnFormula>
     </tableColumn>
@@ -1413,44 +1416,44 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{01ECB08F-0A28-4463-8077-C52DE9990EE8}" name="Table9" displayName="Table9" ref="A1:M47" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:M47" xr:uid="{FAF30797-55D7-4F84-83EB-DF94712C7E07}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{E0D18F22-3D3A-4C98-A7A1-4E11AF64AEC9}" name="point" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9680B5EE-50E8-4CAA-95A0-47088B0ACB13}" name="1" dataDxfId="11">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="28">
+    <tableColumn id="3" xr3:uid="{1145F2F2-9015-4809-B8D4-CAC79B15A7D6}" name="2" dataDxfId="10">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{8BA68AEC-5820-472C-BFCA-D11CD844E5B4}" name="3" dataDxfId="9">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{864A2956-4B78-4651-BDC9-3D2605311ECE}" name="4" dataDxfId="8">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{ED7C1D30-6720-42E0-B259-98A3B1E49FE8}" name="5" dataDxfId="7">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{277C5507-1F1B-48B2-9E6C-B193A05858DE}" name="6" dataDxfId="6">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{A9B95279-40B8-425E-9949-F17E698DE8FD}" name="7" dataDxfId="5">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="22">
+    <tableColumn id="9" xr3:uid="{D5F2BBDA-BAA5-4D6E-9D85-FD5B8D7287B2}" name="8" dataDxfId="4">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{D11BB55A-305B-4628-B933-E6F9832F741A}" name="9" dataDxfId="3">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="20">
+    <tableColumn id="11" xr3:uid="{6D540C23-684B-4DB8-A790-E514DB02AA91}" name="10" dataDxfId="2">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="19">
+    <tableColumn id="12" xr3:uid="{00747D62-1E1C-4B36-BB79-53BD2D83B42D}" name="11" dataDxfId="1">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="18">
+    <tableColumn id="13" xr3:uid="{B0C7967C-D44B-4451-BB2C-B6FFE541E871}" name="12" dataDxfId="0">
       <calculatedColumnFormula array="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1758,8 +1761,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,6 +1811,9 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1842,8 +1848,8 @@
         <v>1543</v>
       </c>
       <c r="K2" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1441</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1234.4000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1879,8 +1885,8 @@
         <v>3257</v>
       </c>
       <c r="K3" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2957</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2605.6000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,8 +1922,8 @@
         <v>16548</v>
       </c>
       <c r="K4" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>15345</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>13238.400000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,8 +1959,8 @@
         <v>1360</v>
       </c>
       <c r="K5" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1211</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,8 +1996,8 @@
         <v>3115</v>
       </c>
       <c r="K6" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2938</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2492</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2027,8 +2033,8 @@
         <v>5766</v>
       </c>
       <c r="K7" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>5287</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4612.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2064,8 +2070,8 @@
         <v>5000</v>
       </c>
       <c r="K8" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>4750</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2101,8 +2107,8 @@
         <v>1799</v>
       </c>
       <c r="K9" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1699</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1439.2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2138,8 +2144,8 @@
         <v>2578</v>
       </c>
       <c r="K10" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2339</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2062.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2175,8 +2181,8 @@
         <v>5500</v>
       </c>
       <c r="K11" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>5225</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2212,8 +2218,8 @@
         <v>11552</v>
       </c>
       <c r="K12" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>10868</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>9241.6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,8 +2255,8 @@
         <v>9066</v>
       </c>
       <c r="K13" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>8266</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>7252.8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2286,8 +2292,8 @@
         <v>4604</v>
       </c>
       <c r="K14" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>4329</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>3683.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2323,8 +2329,8 @@
         <v>2371</v>
       </c>
       <c r="K15" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2076</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1896.8000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2360,8 +2366,8 @@
         <v>204197</v>
       </c>
       <c r="K16" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>188296</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>163357.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2397,8 +2403,8 @@
         <v>15234</v>
       </c>
       <c r="K17" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>12628</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>12187.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2434,8 +2440,8 @@
         <v>2364</v>
       </c>
       <c r="K18" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2221</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1891.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2471,8 +2477,8 @@
         <v>5652</v>
       </c>
       <c r="K19" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>4902</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4521.6000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2508,8 +2514,8 @@
         <v>2964</v>
       </c>
       <c r="K20" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2724</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2371.2000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2545,8 +2551,8 @@
         <v>2818</v>
       </c>
       <c r="K21" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2638</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2254.4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2582,8 +2588,8 @@
         <v>7426</v>
       </c>
       <c r="K22" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>6640</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>5940.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2619,8 +2625,8 @@
         <v>5417</v>
       </c>
       <c r="K23" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>4807</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4333.6000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2656,8 +2662,8 @@
         <v>16526</v>
       </c>
       <c r="K24" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>14490</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>13220.800000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2693,8 +2699,8 @@
         <v>5744</v>
       </c>
       <c r="K25" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>5069</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4595.2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,8 +2736,8 @@
         <v>3750</v>
       </c>
       <c r="K26" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>3562</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2767,8 +2773,8 @@
         <v>1752</v>
       </c>
       <c r="K27" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1623</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1401.6000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2804,8 +2810,8 @@
         <v>14237</v>
       </c>
       <c r="K28" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>13512</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>11389.6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2841,8 +2847,8 @@
         <v>7382</v>
       </c>
       <c r="K29" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>6903</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>5905.6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,8 +2884,8 @@
         <v>1800</v>
       </c>
       <c r="K30" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1710</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2915,8 +2921,8 @@
         <v>4920</v>
       </c>
       <c r="K31" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>4674</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>3936</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2952,8 +2958,8 @@
         <v>6081</v>
       </c>
       <c r="K32" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>5151</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>4864.8</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2989,8 +2995,8 @@
         <v>2051</v>
       </c>
       <c r="K33" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1941</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1640.8000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3026,8 +3032,8 @@
         <v>9335</v>
       </c>
       <c r="K34" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>8686</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>7468</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3063,8 +3069,8 @@
         <v>2839</v>
       </c>
       <c r="K35" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2294</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2271.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3100,8 +3106,8 @@
         <v>780</v>
       </c>
       <c r="K36" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>741</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3137,8 +3143,8 @@
         <v>777</v>
       </c>
       <c r="K37" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>737</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>621.6</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3174,8 +3180,8 @@
         <v>12229</v>
       </c>
       <c r="K38" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>11479</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>9783.2000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3211,8 +3217,8 @@
         <v>1624</v>
       </c>
       <c r="K39" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1541</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1299.2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3248,8 +3254,8 @@
         <v>1154</v>
       </c>
       <c r="K40" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1080</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>923.2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3285,8 +3291,8 @@
         <v>1699</v>
       </c>
       <c r="K41" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1586</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1359.2</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3322,8 +3328,8 @@
         <v>2597</v>
       </c>
       <c r="K42" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2397</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>2077.6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3359,8 +3365,8 @@
         <v>7100</v>
       </c>
       <c r="K43" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>6484</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>5680</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3396,8 +3402,8 @@
         <v>2415</v>
       </c>
       <c r="K44" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>2139</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1932</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3433,8 +3439,8 @@
         <v>1499</v>
       </c>
       <c r="K45" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>1382</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>1199.2</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3470,8 +3476,8 @@
         <v>402</v>
       </c>
       <c r="K46" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>377</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>321.60000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3507,8 +3513,8 @@
         <v>3977</v>
       </c>
       <c r="K47" s="2">
-        <f>Table1[[#This Row],[START]]-Table1[[#This Row],[MIN]]</f>
-        <v>3333</v>
+        <f>0.8*Table1[[#This Row],[START]]</f>
+        <v>3181.6000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -41001,8 +41007,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42949,7 +42955,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N50:AE61 A51:M62">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42966,7 +42972,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43596,51 +43602,51 @@
       </c>
       <c r="B16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="C16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="D16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="E16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="F16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="G16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="H16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="I16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="J16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="K16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="L16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
       <c r="M16" s="2">
         <f>ROUND(-(SUM($B$2:$M$15,$B$17:$M$47)-SUM(vertices!$K$2:$K$47))/12,0)</f>
-        <v>-13342</v>
+        <v>-17528</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -44916,7 +44922,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:M47">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44991,51 +44997,51 @@
       </c>
       <c r="B2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1052</v>
+        <v>-728</v>
       </c>
       <c r="C2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>209</v>
+        <v>603</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1950</v>
+        <v>431</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>547</v>
+        <v>218</v>
       </c>
       <c r="I2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>62</v>
+        <v>330</v>
       </c>
       <c r="J2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="L2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="M2">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>77</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -45044,51 +45050,51 @@
       </c>
       <c r="B3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2018</v>
+        <v>-2372</v>
       </c>
       <c r="C3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="E3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>448</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2040</v>
+        <v>2079</v>
       </c>
       <c r="G3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="I3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="J3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="K3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="L3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>314</v>
+        <v>165</v>
       </c>
       <c r="M3">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>799</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -45097,51 +45103,51 @@
       </c>
       <c r="B4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-943</v>
+        <v>-6232</v>
       </c>
       <c r="C4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-72</v>
+        <v>-8</v>
       </c>
       <c r="D4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>1573</v>
+        <v>334</v>
       </c>
       <c r="E4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>178</v>
+        <v>551</v>
       </c>
       <c r="F4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2122</v>
+        <v>1501</v>
       </c>
       <c r="G4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-73</v>
+        <v>-139</v>
       </c>
       <c r="H4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="I4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>127</v>
+        <v>898</v>
       </c>
       <c r="J4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>319</v>
+        <v>450</v>
       </c>
       <c r="K4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="L4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1476</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>963</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -45150,51 +45156,51 @@
       </c>
       <c r="B5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-617</v>
+        <v>-834</v>
       </c>
       <c r="C5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="F5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>30</v>
+        <v>909</v>
       </c>
       <c r="G5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>738</v>
+        <v>307</v>
       </c>
       <c r="I5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="J5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>538</v>
+        <v>346</v>
       </c>
       <c r="K5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>382</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>107</v>
+        <v>886</v>
       </c>
       <c r="M5">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1587</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -45203,11 +45209,11 @@
       </c>
       <c r="B6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-448</v>
+        <v>-603</v>
       </c>
       <c r="C6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
@@ -45215,39 +45221,39 @@
       </c>
       <c r="E6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2622</v>
+        <v>2756</v>
       </c>
       <c r="G6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="H6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>918</v>
+        <v>537</v>
       </c>
       <c r="J6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>637</v>
+        <v>437</v>
       </c>
       <c r="K6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>476</v>
+        <v>733</v>
       </c>
       <c r="L6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>347</v>
+        <v>535</v>
       </c>
       <c r="M6">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1665</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -45256,51 +45262,51 @@
       </c>
       <c r="B7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4371</v>
+        <v>-1091</v>
       </c>
       <c r="C7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="F7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4228</v>
+        <v>7097</v>
       </c>
       <c r="G7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-47</v>
+        <v>-279</v>
       </c>
       <c r="H7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-541</v>
+        <v>-411</v>
       </c>
       <c r="I7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-123</v>
+        <v>-104</v>
       </c>
       <c r="J7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="L7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="M7">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>131</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -45309,51 +45315,51 @@
       </c>
       <c r="B8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3782</v>
+        <v>-4457</v>
       </c>
       <c r="C8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="D8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>714</v>
+        <v>932</v>
       </c>
       <c r="E8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>407</v>
+        <v>796</v>
       </c>
       <c r="F8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>5436</v>
+        <v>2024</v>
       </c>
       <c r="G8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-519</v>
+        <v>-549</v>
       </c>
       <c r="H8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-75</v>
+        <v>-157</v>
       </c>
       <c r="I8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1264</v>
+        <v>93</v>
       </c>
       <c r="J8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="K8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>421</v>
+        <v>1144</v>
       </c>
       <c r="L8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="M8">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>612</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -45362,51 +45368,51 @@
       </c>
       <c r="B9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1508</v>
+        <v>-967</v>
       </c>
       <c r="C9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2539</v>
+        <v>2427</v>
       </c>
       <c r="G9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="I9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="J9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="K9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>373</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>310</v>
+        <v>462</v>
       </c>
       <c r="M9">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>138</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -45415,51 +45421,51 @@
       </c>
       <c r="B10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1796</v>
+        <v>-604</v>
       </c>
       <c r="C10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="D10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="E10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>606</v>
+        <v>809</v>
       </c>
       <c r="F10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1087</v>
+        <v>2802</v>
       </c>
       <c r="G10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="H10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="I10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="J10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>670</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="M10">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>366</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -45468,51 +45474,51 @@
       </c>
       <c r="B11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1675</v>
+        <v>-822</v>
       </c>
       <c r="C11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>621</v>
+        <v>489</v>
       </c>
       <c r="E11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>720</v>
+        <v>504</v>
       </c>
       <c r="F11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1487</v>
+        <v>440</v>
       </c>
       <c r="G11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-271</v>
+        <v>-107</v>
       </c>
       <c r="H11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="I11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="J11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="K11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>442</v>
+        <v>805</v>
       </c>
       <c r="L11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>942</v>
+        <v>649</v>
       </c>
       <c r="M11">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>521</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -45521,51 +45527,51 @@
       </c>
       <c r="B12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-7033</v>
+        <v>-4712</v>
       </c>
       <c r="C12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>374</v>
+        <v>671</v>
       </c>
       <c r="D12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>391</v>
+        <v>929</v>
       </c>
       <c r="E12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>797</v>
+        <v>1892</v>
       </c>
       <c r="F12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>589</v>
+        <v>8013</v>
       </c>
       <c r="G12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-39</v>
+        <v>-33</v>
       </c>
       <c r="H12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>701</v>
+        <v>578</v>
       </c>
       <c r="I12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1009</v>
+        <v>362</v>
       </c>
       <c r="J12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1070</v>
+        <v>877</v>
       </c>
       <c r="K12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>408</v>
+        <v>485</v>
       </c>
       <c r="L12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>435</v>
+        <v>1825</v>
       </c>
       <c r="M12">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1645</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -45574,51 +45580,51 @@
       </c>
       <c r="B13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1013</v>
+        <v>-3047</v>
       </c>
       <c r="C13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="D13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>575</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>870</v>
+        <v>153</v>
       </c>
       <c r="F13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="G13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="H13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="I13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="J13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="K13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="L13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="M13">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>483</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -45627,51 +45633,51 @@
       </c>
       <c r="B14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2833</v>
+        <v>-1121</v>
       </c>
       <c r="C14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="D14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="E14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>234</v>
+        <v>1362</v>
       </c>
       <c r="G14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-307</v>
+        <v>-265</v>
       </c>
       <c r="H14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>97</v>
+        <v>472</v>
       </c>
       <c r="I14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-109</v>
+        <v>-73</v>
       </c>
       <c r="J14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-44</v>
+        <v>-21</v>
       </c>
       <c r="K14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M14">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>408</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -45680,51 +45686,51 @@
       </c>
       <c r="B15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-793</v>
+        <v>-837</v>
       </c>
       <c r="C15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>368</v>
+        <v>97</v>
       </c>
       <c r="G15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="H15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="I15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="K15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="L15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M15">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>330</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -45786,51 +45792,51 @@
       </c>
       <c r="B17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-11421</v>
+        <v>-4529</v>
       </c>
       <c r="C17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>735</v>
+        <v>931</v>
       </c>
       <c r="D17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2449</v>
+        <v>1777</v>
       </c>
       <c r="E17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>6500</v>
+        <v>1629</v>
       </c>
       <c r="F17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>6048</v>
+        <v>8265</v>
       </c>
       <c r="G17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="H17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-627</v>
+        <v>-1462</v>
       </c>
       <c r="I17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>283</v>
+        <v>584</v>
       </c>
       <c r="J17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="K17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="L17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1256</v>
+        <v>1361</v>
       </c>
       <c r="M17">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>3669</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -45839,51 +45845,51 @@
       </c>
       <c r="B18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1786</v>
+        <v>-1516</v>
       </c>
       <c r="C18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="F18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>491</v>
+        <v>1938</v>
       </c>
       <c r="G18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>537</v>
+        <v>646</v>
       </c>
       <c r="H18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-203</v>
+        <v>-123</v>
       </c>
       <c r="I18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-99</v>
+        <v>-126</v>
       </c>
       <c r="J18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="K18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-88</v>
+        <v>-206</v>
       </c>
       <c r="L18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-58</v>
+        <v>-9</v>
       </c>
       <c r="M18">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -45892,51 +45898,51 @@
       </c>
       <c r="B19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2376</v>
+        <v>-308</v>
       </c>
       <c r="C19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="E19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>1373</v>
+        <v>1407</v>
       </c>
       <c r="F19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3865</v>
+        <v>3380</v>
       </c>
       <c r="G19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1521</v>
+        <v>-244</v>
       </c>
       <c r="H19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-326</v>
+        <v>-180</v>
       </c>
       <c r="I19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-117</v>
+        <v>-48</v>
       </c>
       <c r="J19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="K19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>557</v>
+        <v>309</v>
       </c>
       <c r="M19">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>364</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -45945,51 +45951,51 @@
       </c>
       <c r="B20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2028</v>
+        <v>-2409</v>
       </c>
       <c r="C20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>204</v>
+        <v>1185</v>
       </c>
       <c r="F20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>714</v>
+        <v>2231</v>
       </c>
       <c r="G20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-41</v>
+        <v>-151</v>
       </c>
       <c r="H20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>281</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>570</v>
+        <v>226</v>
       </c>
       <c r="J20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>287</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>549</v>
+        <v>904</v>
       </c>
       <c r="L20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="M20">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>906</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -45998,51 +46004,51 @@
       </c>
       <c r="B21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-117</v>
+        <v>-2994</v>
       </c>
       <c r="C21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-41</v>
+        <v>-168</v>
       </c>
       <c r="D21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>49</v>
+        <v>283</v>
       </c>
       <c r="F21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2310</v>
+        <v>718</v>
       </c>
       <c r="G21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-798</v>
+        <v>-1016</v>
       </c>
       <c r="H21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-862</v>
+        <v>-768</v>
       </c>
       <c r="I21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-153</v>
+        <v>-54</v>
       </c>
       <c r="J21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-334</v>
+        <v>-93</v>
       </c>
       <c r="K21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-206</v>
+        <v>-33</v>
       </c>
       <c r="L21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>-43</v>
+        <v>-119</v>
       </c>
       <c r="M21">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -46051,51 +46057,51 @@
       </c>
       <c r="B22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5947</v>
+        <v>-307</v>
       </c>
       <c r="C22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="D22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="E22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>690</v>
+        <v>206</v>
       </c>
       <c r="G22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="H22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="I22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>705</v>
+        <v>116</v>
       </c>
       <c r="J22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>675</v>
+        <v>437</v>
       </c>
       <c r="L22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1117</v>
+        <v>124</v>
       </c>
       <c r="M22">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1551</v>
+        <v>921</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -46104,51 +46110,51 @@
       </c>
       <c r="B23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2</v>
+        <v>-5159</v>
       </c>
       <c r="C23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="D23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>821</v>
+        <v>632</v>
       </c>
       <c r="E23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>955</v>
+        <v>1218</v>
       </c>
       <c r="F23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3992</v>
+        <v>2943</v>
       </c>
       <c r="G23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-504</v>
+        <v>-484</v>
       </c>
       <c r="H23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-132</v>
+        <v>-242</v>
       </c>
       <c r="I23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>856</v>
+        <v>246</v>
       </c>
       <c r="J23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="K23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1684</v>
+        <v>235</v>
       </c>
       <c r="L23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>480</v>
+        <v>1819</v>
       </c>
       <c r="M23">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>679</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -46157,51 +46163,51 @@
       </c>
       <c r="B24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-5267</v>
+        <v>-8967</v>
       </c>
       <c r="C24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>577</v>
+        <v>176</v>
       </c>
       <c r="D24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>2072</v>
+        <v>186</v>
       </c>
       <c r="E24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>6325</v>
+        <v>4620</v>
       </c>
       <c r="F24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>12029</v>
+        <v>780</v>
       </c>
       <c r="G24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-3433</v>
+        <v>-4158</v>
       </c>
       <c r="H24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>230</v>
+        <v>573</v>
       </c>
       <c r="I24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="J24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>1355</v>
+        <v>503</v>
       </c>
       <c r="K24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>311</v>
+        <v>803</v>
       </c>
       <c r="L24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>752</v>
+        <v>693</v>
       </c>
       <c r="M24">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>3044</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -46210,51 +46216,51 @@
       </c>
       <c r="B25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2809</v>
+        <v>-4109</v>
       </c>
       <c r="C25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="E25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>10</v>
+        <v>972</v>
       </c>
       <c r="F25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>6732</v>
+        <v>1722</v>
       </c>
       <c r="G25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-47</v>
+        <v>-1368</v>
       </c>
       <c r="H25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-1506</v>
+        <v>-40</v>
       </c>
       <c r="I25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-13</v>
+        <v>-44</v>
       </c>
       <c r="J25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>-159</v>
+        <v>-224</v>
       </c>
       <c r="K25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>-262</v>
+        <v>-299</v>
       </c>
       <c r="L25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M25">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -46263,51 +46269,51 @@
       </c>
       <c r="B26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-2437</v>
+        <v>-5700</v>
       </c>
       <c r="C26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-31</v>
+        <v>-21</v>
       </c>
       <c r="D26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="E26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>697</v>
+        <v>238</v>
       </c>
       <c r="F26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1982</v>
+        <v>821</v>
       </c>
       <c r="G26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-135</v>
+        <v>-209</v>
       </c>
       <c r="I26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-145</v>
+        <v>-140</v>
       </c>
       <c r="J26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="K26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="L26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="M26">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>53</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -46316,51 +46322,51 @@
       </c>
       <c r="B27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-344</v>
+        <v>-1381</v>
       </c>
       <c r="C27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>399</v>
+        <v>179</v>
       </c>
       <c r="E27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2627</v>
+        <v>853</v>
       </c>
       <c r="F27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1142</v>
+        <v>2711</v>
       </c>
       <c r="G27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-390</v>
+        <v>-289</v>
       </c>
       <c r="H27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-104</v>
+        <v>-32</v>
       </c>
       <c r="I27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>-55</v>
+        <v>-15</v>
       </c>
       <c r="J27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="M27">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>77</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -46369,51 +46375,51 @@
       </c>
       <c r="B28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-10498</v>
+        <v>-10508</v>
       </c>
       <c r="C28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="D28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>3199</v>
+        <v>2535</v>
       </c>
       <c r="E28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>4542</v>
+        <v>3039</v>
       </c>
       <c r="F28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>18828</v>
+        <v>21068</v>
       </c>
       <c r="G28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-997</v>
+        <v>-2898</v>
       </c>
       <c r="H28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-1055</v>
+        <v>-1169</v>
       </c>
       <c r="I28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>2649</v>
+        <v>1885</v>
       </c>
       <c r="J28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>438</v>
+        <v>686</v>
       </c>
       <c r="K28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>645</v>
+        <v>1327</v>
       </c>
       <c r="L28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="M28">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>105</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -46422,51 +46428,51 @@
       </c>
       <c r="B29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-4677</v>
+        <v>-667</v>
       </c>
       <c r="C29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="D29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>579</v>
+        <v>460</v>
       </c>
       <c r="E29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2932</v>
+        <v>2003</v>
       </c>
       <c r="F29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>3445</v>
+        <v>1951</v>
       </c>
       <c r="G29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-196</v>
+        <v>-418</v>
       </c>
       <c r="H29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>415</v>
+        <v>213</v>
       </c>
       <c r="J29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>244</v>
+        <v>527</v>
       </c>
       <c r="K29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>730</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>231</v>
+        <v>678</v>
       </c>
       <c r="M29">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>93</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -46475,51 +46481,51 @@
       </c>
       <c r="B30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-891</v>
+        <v>-998</v>
       </c>
       <c r="C30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>272</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="E30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>632</v>
+        <v>468</v>
       </c>
       <c r="F30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1513</v>
+        <v>2120</v>
       </c>
       <c r="G30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="H30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>718</v>
+        <v>334</v>
       </c>
       <c r="I30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>768</v>
+        <v>302</v>
       </c>
       <c r="J30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="K30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="L30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>49</v>
+        <v>187</v>
       </c>
       <c r="M30">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>73</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -46528,51 +46534,51 @@
       </c>
       <c r="B31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1022</v>
+        <v>-839</v>
       </c>
       <c r="C31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="E31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1953</v>
+        <v>731</v>
       </c>
       <c r="G31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-377</v>
+        <v>-89</v>
       </c>
       <c r="H31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="I31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>306</v>
+        <v>182</v>
       </c>
       <c r="J31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="K31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="L31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>535</v>
+        <v>180</v>
       </c>
       <c r="M31">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>822</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -46581,51 +46587,51 @@
       </c>
       <c r="B32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-3955</v>
+        <v>-3648</v>
       </c>
       <c r="C32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>386</v>
+        <v>1235</v>
       </c>
       <c r="D32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="E32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>500</v>
+        <v>1279</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2812</v>
+        <v>521</v>
       </c>
       <c r="G32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="H32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>1332</v>
+        <v>766</v>
       </c>
       <c r="I32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>1330</v>
+        <v>377</v>
       </c>
       <c r="J32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>200</v>
+        <v>1917</v>
       </c>
       <c r="K32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>1152</v>
+        <v>1836</v>
       </c>
       <c r="L32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>1567</v>
+        <v>994</v>
       </c>
       <c r="M32">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>429</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -46634,51 +46640,51 @@
       </c>
       <c r="B33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-311</v>
+        <v>-1616</v>
       </c>
       <c r="C33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-9</v>
+        <v>-18</v>
       </c>
       <c r="D33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="F33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>107</v>
+        <v>3045</v>
       </c>
       <c r="G33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-130</v>
+        <v>-95</v>
       </c>
       <c r="H33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="J33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="K33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="L33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>88</v>
+        <v>546</v>
       </c>
       <c r="M33">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -46687,51 +46693,51 @@
       </c>
       <c r="B34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-7229</v>
+        <v>-440</v>
       </c>
       <c r="C34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>516</v>
+        <v>102</v>
       </c>
       <c r="F34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>806</v>
+        <v>2466</v>
       </c>
       <c r="G34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="H34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="I34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="L34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="M34">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>911</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -46740,51 +46746,51 @@
       </c>
       <c r="B35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1815</v>
+        <v>-611</v>
       </c>
       <c r="C35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>520</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>707</v>
+        <v>588</v>
       </c>
       <c r="E35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>256</v>
+        <v>768</v>
       </c>
       <c r="F35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>2751</v>
+        <v>2232</v>
       </c>
       <c r="G35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-171</v>
+        <v>-81</v>
       </c>
       <c r="H35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>197</v>
+        <v>614</v>
       </c>
       <c r="I35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>179</v>
+        <v>476</v>
       </c>
       <c r="J35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>677</v>
+        <v>229</v>
       </c>
       <c r="K35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="L35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="M35">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>867</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -46793,51 +46799,51 @@
       </c>
       <c r="B36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-616</v>
+        <v>-259</v>
       </c>
       <c r="C36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="F36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1725</v>
+        <v>1258</v>
       </c>
       <c r="G36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="L36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="M36">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -46846,51 +46852,51 @@
       </c>
       <c r="B37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-270</v>
+        <v>-6</v>
       </c>
       <c r="C37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="E37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="G37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="H37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-9</v>
+        <v>-195</v>
       </c>
       <c r="I37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="L37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M37">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>235</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -46899,51 +46905,51 @@
       </c>
       <c r="B38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-7211</v>
+        <v>-8220</v>
       </c>
       <c r="C38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>161</v>
+        <v>401</v>
       </c>
       <c r="E38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>466</v>
+        <v>598</v>
       </c>
       <c r="F38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>4628</v>
+        <v>2670</v>
       </c>
       <c r="G38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-260</v>
+        <v>-328</v>
       </c>
       <c r="H38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>501</v>
+        <v>108</v>
       </c>
       <c r="J38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>717</v>
+        <v>300</v>
       </c>
       <c r="K38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>170</v>
+        <v>862</v>
       </c>
       <c r="M38">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1537</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -46952,51 +46958,51 @@
       </c>
       <c r="B39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1386</v>
+        <v>-304</v>
       </c>
       <c r="C39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="F39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>685</v>
+        <v>1763</v>
       </c>
       <c r="G39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>-22</v>
+        <v>-39</v>
       </c>
       <c r="H39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>-13</v>
+        <v>-40</v>
       </c>
       <c r="I39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="J39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="L39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>279</v>
+        <v>581</v>
       </c>
       <c r="M39">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -47005,51 +47011,51 @@
       </c>
       <c r="B40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1025</v>
+        <v>-253</v>
       </c>
       <c r="C40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="E40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>1222</v>
+        <v>1177</v>
       </c>
       <c r="G40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="H40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="J40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>74</v>
+        <v>440</v>
       </c>
       <c r="L40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="M40">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>875</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -47058,23 +47064,23 @@
       </c>
       <c r="B41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-47</v>
+        <v>-728</v>
       </c>
       <c r="C41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="D41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>841</v>
+        <v>111</v>
       </c>
       <c r="G41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
@@ -47082,27 +47088,27 @@
       </c>
       <c r="H41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M41">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -47111,51 +47117,51 @@
       </c>
       <c r="B42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1980</v>
+        <v>-2193</v>
       </c>
       <c r="C42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-240</v>
+        <v>-232</v>
       </c>
       <c r="D42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="G42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="H42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>346</v>
+        <v>110</v>
       </c>
       <c r="J42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>494</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>50</v>
+        <v>662</v>
       </c>
       <c r="L42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="M42">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1276</v>
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -47164,51 +47170,51 @@
       </c>
       <c r="B43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1326</v>
+        <v>-5900</v>
       </c>
       <c r="C43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="E43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="F43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>127</v>
+        <v>1525</v>
       </c>
       <c r="G43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="J43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="K43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="L43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>363</v>
+        <v>219</v>
       </c>
       <c r="M43">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>1949</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -47217,51 +47223,51 @@
       </c>
       <c r="B44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-167</v>
+        <v>-1591</v>
       </c>
       <c r="C44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="D44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="F44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>118</v>
+        <v>476</v>
       </c>
       <c r="G44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="I44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="K44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>56</v>
+        <v>191</v>
       </c>
       <c r="L44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M44">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>633</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -47270,51 +47276,51 @@
       </c>
       <c r="B45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-376</v>
+        <v>-713</v>
       </c>
       <c r="C45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-61</v>
+        <v>-18</v>
       </c>
       <c r="D45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>53</v>
+        <v>254</v>
       </c>
       <c r="F45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>537</v>
+        <v>102</v>
       </c>
       <c r="G45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>452</v>
+        <v>243</v>
       </c>
       <c r="I45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>393</v>
+        <v>173</v>
       </c>
       <c r="J45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>118</v>
+        <v>397</v>
       </c>
       <c r="K45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="L45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="M45">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>474</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -47323,51 +47329,51 @@
       </c>
       <c r="B46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-345</v>
+        <v>-182</v>
       </c>
       <c r="C46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="D46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="G46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="K46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="M46">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>348</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -47376,56 +47382,56 @@
       </c>
       <c r="B47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[1]],0)</f>
-        <v>-1329</v>
+        <v>-3283</v>
       </c>
       <c r="C47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[2]],0)</f>
-        <v>36</v>
+        <v>416</v>
       </c>
       <c r="D47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[3]],0)</f>
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[4]],0)</f>
-        <v>753</v>
+        <v>460</v>
       </c>
       <c r="F47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[5]],0)</f>
-        <v>759</v>
+        <v>1502</v>
       </c>
       <c r="G47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[6]],0)</f>
-        <v>412</v>
+        <v>275</v>
       </c>
       <c r="H47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[7]],0)</f>
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="I47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[8]],0)</f>
-        <v>719</v>
+        <v>551</v>
       </c>
       <c r="J47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[9]],0)</f>
-        <v>843</v>
+        <v>191</v>
       </c>
       <c r="K47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[10]],0)</f>
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="L47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[11]],0)</f>
-        <v>598</v>
+        <v>139</v>
       </c>
       <c r="M47">
         <f ca="1">ROUND(RAND()*Table5[[#This Row],[12]],0)</f>
-        <v>929</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A51:A62">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47441,8 +47447,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47507,51 +47513,51 @@
       </c>
       <c r="B2" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1052</v>
+        <v>399</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>77</v>
+        <v>-728</v>
       </c>
       <c r="D2" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="E2" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>645</v>
+        <v>367</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" aca="1" ref="F2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="G2" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>209</v>
+        <v>549</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>62</v>
+        <v>431</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" aca="1" ref="I2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1950</v>
+        <v>528</v>
       </c>
       <c r="J2" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>547</v>
+        <v>603</v>
       </c>
       <c r="K2" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>306</v>
+        <v>1182</v>
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>98</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -47560,51 +47566,51 @@
       </c>
       <c r="B3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2018</v>
+        <v>165</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>799</v>
+        <v>-2372</v>
       </c>
       <c r="D3" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="E3" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="F3" cm="1">
         <f t="array" aca="1" ref="F3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>448</v>
+        <v>155</v>
       </c>
       <c r="H3" cm="1">
         <f t="array" aca="1" ref="H3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>271</v>
+        <v>2079</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2040</v>
+        <v>193</v>
       </c>
       <c r="J3" cm="1">
         <f t="array" aca="1" ref="J3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="K3" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="L3" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>381</v>
+        <v>47</v>
       </c>
       <c r="M3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>108</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -47613,51 +47619,51 @@
       </c>
       <c r="B4" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-943</v>
+        <v>54</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>963</v>
+        <v>-6232</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-73</v>
+        <v>334</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>175</v>
+        <v>-139</v>
       </c>
       <c r="F4" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1476</v>
+        <v>-8</v>
       </c>
       <c r="G4" cm="1">
         <f t="array" aca="1" ref="G4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>178</v>
+        <v>530</v>
       </c>
       <c r="H4" cm="1">
         <f t="array" aca="1" ref="H4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>127</v>
+        <v>1501</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" aca="1" ref="I4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2122</v>
+        <v>450</v>
       </c>
       <c r="J4" cm="1">
         <f t="array" aca="1" ref="J4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>225</v>
+        <v>551</v>
       </c>
       <c r="K4" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>319</v>
+        <v>767</v>
       </c>
       <c r="L4" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>1573</v>
+        <v>195</v>
       </c>
       <c r="M4" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-72</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -47666,51 +47672,51 @@
       </c>
       <c r="B5" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-617</v>
+        <v>886</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1587</v>
+        <v>-834</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="F5" cm="1">
         <f t="array" aca="1" ref="F5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="G5" cm="1">
         <f t="array" aca="1" ref="G5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="H5" cm="1">
         <f t="array" aca="1" ref="H5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>64</v>
+        <v>909</v>
       </c>
       <c r="I5" cm="1">
         <f t="array" aca="1" ref="I5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="J5" cm="1">
         <f t="array" aca="1" ref="J5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>738</v>
+        <v>213</v>
       </c>
       <c r="K5" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>538</v>
+        <v>1516</v>
       </c>
       <c r="L5" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="M5" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>1</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -47719,51 +47725,51 @@
       </c>
       <c r="B6" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-448</v>
+        <v>535</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1665</v>
+        <v>-603</v>
       </c>
       <c r="D6" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>120</v>
+        <v>684</v>
       </c>
       <c r="E6" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>476</v>
+        <v>173</v>
       </c>
       <c r="F6" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>347</v>
+        <v>198</v>
       </c>
       <c r="G6" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>66</v>
+        <v>733</v>
       </c>
       <c r="H6" cm="1">
         <f t="array" aca="1" ref="H6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>918</v>
+        <v>2756</v>
       </c>
       <c r="I6" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2622</v>
+        <v>437</v>
       </c>
       <c r="J6" cm="1">
         <f t="array" aca="1" ref="J6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="K6" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>637</v>
+        <v>236</v>
       </c>
       <c r="L6" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>684</v>
+        <v>133</v>
       </c>
       <c r="M6" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>232</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -47772,51 +47778,51 @@
       </c>
       <c r="B7" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-4371</v>
+        <v>241</v>
       </c>
       <c r="C7" cm="1">
         <f t="array" aca="1" ref="C7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>131</v>
+        <v>-1091</v>
       </c>
       <c r="D7" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-47</v>
+        <v>47</v>
       </c>
       <c r="E7" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>136</v>
+        <v>-279</v>
       </c>
       <c r="F7" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="G7" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="H7" cm="1">
         <f t="array" aca="1" ref="H7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-123</v>
+        <v>7097</v>
       </c>
       <c r="I7" cm="1">
         <f t="array" aca="1" ref="I7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>4228</v>
+        <v>45</v>
       </c>
       <c r="J7" cm="1">
         <f t="array" aca="1" ref="J7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-541</v>
+        <v>303</v>
       </c>
       <c r="K7" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>73</v>
+        <v>924</v>
       </c>
       <c r="L7" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>264</v>
+        <v>-411</v>
       </c>
       <c r="M7" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>14</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -47825,51 +47831,51 @@
       </c>
       <c r="B8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-3782</v>
+        <v>377</v>
       </c>
       <c r="C8" cm="1">
         <f t="array" aca="1" ref="C8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>612</v>
+        <v>-4457</v>
       </c>
       <c r="D8" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-519</v>
+        <v>932</v>
       </c>
       <c r="E8" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>421</v>
+        <v>-549</v>
       </c>
       <c r="F8" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>362</v>
+        <v>215</v>
       </c>
       <c r="G8" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>407</v>
+        <v>1144</v>
       </c>
       <c r="H8" cm="1">
         <f t="array" aca="1" ref="H8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1264</v>
+        <v>2024</v>
       </c>
       <c r="I8" cm="1">
         <f t="array" aca="1" ref="I8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>5436</v>
+        <v>395</v>
       </c>
       <c r="J8" cm="1">
         <f t="array" aca="1" ref="J8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-75</v>
+        <v>796</v>
       </c>
       <c r="K8" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>439</v>
+        <v>702</v>
       </c>
       <c r="L8" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>714</v>
+        <v>-157</v>
       </c>
       <c r="M8" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>153</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -47878,51 +47884,51 @@
       </c>
       <c r="B9" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1508</v>
+        <v>462</v>
       </c>
       <c r="C9" cm="1">
         <f t="array" aca="1" ref="C9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>138</v>
+        <v>-967</v>
       </c>
       <c r="D9" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="E9" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>373</v>
+        <v>26</v>
       </c>
       <c r="F9" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="G9" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="H9" cm="1">
         <f t="array" aca="1" ref="H9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>354</v>
+        <v>2427</v>
       </c>
       <c r="I9" cm="1">
         <f t="array" aca="1" ref="I9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2539</v>
+        <v>315</v>
       </c>
       <c r="J9" cm="1">
         <f t="array" aca="1" ref="J9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="K9" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>138</v>
+        <v>522</v>
       </c>
       <c r="L9" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="M9" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>79</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -47931,51 +47937,51 @@
       </c>
       <c r="B10" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1796</v>
+        <v>75</v>
       </c>
       <c r="C10" cm="1">
         <f t="array" aca="1" ref="C10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>366</v>
+        <v>-604</v>
       </c>
       <c r="D10" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-30</v>
+        <v>517</v>
       </c>
       <c r="E10" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>670</v>
+        <v>-12</v>
       </c>
       <c r="F10" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="G10" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>606</v>
+        <v>17</v>
       </c>
       <c r="H10" cm="1">
         <f t="array" aca="1" ref="H10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>230</v>
+        <v>2802</v>
       </c>
       <c r="I10" cm="1">
         <f t="array" aca="1" ref="I10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1087</v>
+        <v>176</v>
       </c>
       <c r="J10" cm="1">
         <f t="array" aca="1" ref="J10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>146</v>
+        <v>809</v>
       </c>
       <c r="K10" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="L10" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="M10" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>417</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -47984,51 +47990,51 @@
       </c>
       <c r="B11" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1675</v>
+        <v>649</v>
       </c>
       <c r="C11" cm="1">
         <f t="array" aca="1" ref="C11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>521</v>
+        <v>-822</v>
       </c>
       <c r="D11" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-271</v>
+        <v>489</v>
       </c>
       <c r="E11" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>442</v>
+        <v>-107</v>
       </c>
       <c r="F11" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>942</v>
+        <v>105</v>
       </c>
       <c r="G11" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="H11" cm="1">
         <f t="array" aca="1" ref="H11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="I11" cm="1">
         <f t="array" aca="1" ref="I11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1487</v>
+        <v>810</v>
       </c>
       <c r="J11" cm="1">
         <f t="array" aca="1" ref="J11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>271</v>
+        <v>504</v>
       </c>
       <c r="K11" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>821</v>
+        <v>1331</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>621</v>
+        <v>76</v>
       </c>
       <c r="M11" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -48037,51 +48043,51 @@
       </c>
       <c r="B12" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-7033</v>
+        <v>1825</v>
       </c>
       <c r="C12" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1645</v>
+        <v>-4712</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-39</v>
+        <v>929</v>
       </c>
       <c r="E12" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>408</v>
+        <v>-33</v>
       </c>
       <c r="F12" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>435</v>
+        <v>671</v>
       </c>
       <c r="G12" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>797</v>
+        <v>485</v>
       </c>
       <c r="H12" cm="1">
         <f t="array" aca="1" ref="H12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1009</v>
+        <v>8013</v>
       </c>
       <c r="I12" cm="1">
         <f t="array" aca="1" ref="I12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>589</v>
+        <v>877</v>
       </c>
       <c r="J12" cm="1">
         <f t="array" aca="1" ref="J12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>701</v>
+        <v>1892</v>
       </c>
       <c r="K12" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1070</v>
+        <v>684</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>391</v>
+        <v>578</v>
       </c>
       <c r="M12" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -48090,51 +48096,51 @@
       </c>
       <c r="B13" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1013</v>
+        <v>120</v>
       </c>
       <c r="C13" cm="1">
         <f t="array" aca="1" ref="C13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>483</v>
+        <v>-3047</v>
       </c>
       <c r="D13" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="E13" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>581</v>
+        <v>130</v>
       </c>
       <c r="F13" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="G13" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>870</v>
+        <v>606</v>
       </c>
       <c r="H13" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>247</v>
+        <v>977</v>
       </c>
       <c r="I13" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>983</v>
+        <v>209</v>
       </c>
       <c r="J13" cm="1">
         <f t="array" aca="1" ref="J13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="K13" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>37</v>
+        <v>892</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>575</v>
+        <v>196</v>
       </c>
       <c r="M13" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>160</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -48143,51 +48149,51 @@
       </c>
       <c r="B14" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2833</v>
+        <v>18</v>
       </c>
       <c r="C14" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>408</v>
+        <v>-1121</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-307</v>
+        <v>420</v>
       </c>
       <c r="E14" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>4</v>
+        <v>-265</v>
       </c>
       <c r="F14" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G14" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="H14" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-109</v>
+        <v>1362</v>
       </c>
       <c r="I14" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>234</v>
+        <v>-21</v>
       </c>
       <c r="J14" cm="1">
         <f t="array" aca="1" ref="J14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="K14" cm="1">
         <f t="array" aca="1" ref="K14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-44</v>
+        <v>41</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" aca="1" ref="L14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="M14" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>202</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -48196,51 +48202,51 @@
       </c>
       <c r="B15" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-793</v>
+        <v>139</v>
       </c>
       <c r="C15" cm="1">
         <f t="array" aca="1" ref="C15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>330</v>
+        <v>-837</v>
       </c>
       <c r="D15" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>358</v>
+        <v>249</v>
       </c>
       <c r="E15" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="F15" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G15" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="H15" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="I15" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>368</v>
+        <v>211</v>
       </c>
       <c r="J15" cm="1">
         <f t="array" aca="1" ref="J15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="K15" cm="1">
         <f t="array" aca="1" ref="K15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="L15" cm="1">
         <f t="array" aca="1" ref="L15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="M15" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -48302,51 +48308,51 @@
       </c>
       <c r="B17" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-11421</v>
+        <v>1361</v>
       </c>
       <c r="C17" cm="1">
         <f t="array" aca="1" ref="C17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>3669</v>
+        <v>-4529</v>
       </c>
       <c r="D17" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>159</v>
+        <v>1777</v>
       </c>
       <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="F17" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1256</v>
+        <v>931</v>
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>6500</v>
+        <v>186</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" aca="1" ref="H17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>283</v>
+        <v>8265</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>6048</v>
+        <v>162</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" aca="1" ref="J17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-627</v>
+        <v>1629</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>130</v>
+        <v>2542</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" aca="1" ref="L17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>2449</v>
+        <v>-1462</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>735</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -48355,51 +48361,51 @@
       </c>
       <c r="B18" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1786</v>
+        <v>-9</v>
       </c>
       <c r="C18" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>6</v>
+        <v>-1516</v>
       </c>
       <c r="D18" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>537</v>
+        <v>130</v>
       </c>
       <c r="E18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-88</v>
+        <v>646</v>
       </c>
       <c r="F18" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-58</v>
+        <v>101</v>
       </c>
       <c r="G18" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>132</v>
+        <v>-206</v>
       </c>
       <c r="H18" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-99</v>
+        <v>1938</v>
       </c>
       <c r="I18" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>491</v>
+        <v>36</v>
       </c>
       <c r="J18" cm="1">
         <f t="array" aca="1" ref="J18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-203</v>
+        <v>204</v>
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="L18" cm="1">
         <f t="array" aca="1" ref="L18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>22</v>
+        <v>-123</v>
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>109</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -48408,51 +48414,51 @@
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2376</v>
+        <v>309</v>
       </c>
       <c r="C19" cm="1">
         <f t="array" aca="1" ref="C19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>364</v>
+        <v>-308</v>
       </c>
       <c r="D19" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1521</v>
+        <v>254</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>33</v>
+        <v>-244</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>557</v>
+        <v>178</v>
       </c>
       <c r="G19" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>1373</v>
+        <v>14</v>
       </c>
       <c r="H19" cm="1">
         <f t="array" aca="1" ref="H19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-117</v>
+        <v>3380</v>
       </c>
       <c r="I19" cm="1">
         <f t="array" aca="1" ref="I19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>3865</v>
+        <v>-6</v>
       </c>
       <c r="J19" cm="1">
         <f t="array" aca="1" ref="J19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-326</v>
+        <v>1407</v>
       </c>
       <c r="K19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-8</v>
+        <v>107</v>
       </c>
       <c r="L19" cm="1">
         <f t="array" aca="1" ref="L19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>311</v>
+        <v>-180</v>
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>132</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -48461,51 +48467,51 @@
       </c>
       <c r="B20" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2028</v>
+        <v>217</v>
       </c>
       <c r="C20" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>906</v>
+        <v>-2409</v>
       </c>
       <c r="D20" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="E20" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>549</v>
+        <v>-151</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="G20" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>204</v>
+        <v>904</v>
       </c>
       <c r="H20" cm="1">
         <f t="array" aca="1" ref="H20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>570</v>
+        <v>2231</v>
       </c>
       <c r="I20" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>714</v>
+        <v>101</v>
       </c>
       <c r="J20" cm="1">
         <f t="array" aca="1" ref="J20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>281</v>
+        <v>1185</v>
       </c>
       <c r="K20" cm="1">
         <f t="array" aca="1" ref="K20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="L20" cm="1">
         <f t="array" aca="1" ref="L20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="M20" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -48514,51 +48520,51 @@
       </c>
       <c r="B21" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-117</v>
+        <v>-119</v>
       </c>
       <c r="C21" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>113</v>
+        <v>-2994</v>
       </c>
       <c r="D21" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-798</v>
+        <v>102</v>
       </c>
       <c r="E21" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-206</v>
+        <v>-1016</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>-43</v>
+        <v>-168</v>
       </c>
       <c r="G21" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>49</v>
+        <v>-33</v>
       </c>
       <c r="H21" cm="1">
         <f t="array" aca="1" ref="H21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-153</v>
+        <v>718</v>
       </c>
       <c r="I21" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2310</v>
+        <v>-93</v>
       </c>
       <c r="J21" cm="1">
         <f t="array" aca="1" ref="J21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-862</v>
+        <v>283</v>
       </c>
       <c r="K21" cm="1">
         <f t="array" aca="1" ref="K21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-334</v>
+        <v>54</v>
       </c>
       <c r="L21" cm="1">
         <f t="array" aca="1" ref="L21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>130</v>
+        <v>-768</v>
       </c>
       <c r="M21" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-41</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -48567,51 +48573,51 @@
       </c>
       <c r="B22" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-5947</v>
+        <v>124</v>
       </c>
       <c r="C22" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1551</v>
+        <v>-307</v>
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="E22" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>675</v>
+        <v>146</v>
       </c>
       <c r="F22" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1117</v>
+        <v>127</v>
       </c>
       <c r="G22" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>530</v>
+        <v>437</v>
       </c>
       <c r="H22" cm="1">
         <f t="array" aca="1" ref="H22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>705</v>
+        <v>206</v>
       </c>
       <c r="I22" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>690</v>
+        <v>160</v>
       </c>
       <c r="J22" cm="1">
         <f t="array" aca="1" ref="J22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="K22" cm="1">
         <f t="array" aca="1" ref="K22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>145</v>
+        <v>921</v>
       </c>
       <c r="L22" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M22" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -48620,51 +48626,51 @@
       </c>
       <c r="B23" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2</v>
+        <v>1819</v>
       </c>
       <c r="C23" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>679</v>
+        <v>-5159</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-504</v>
+        <v>632</v>
       </c>
       <c r="E23" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1684</v>
+        <v>-484</v>
       </c>
       <c r="F23" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="G23" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>955</v>
+        <v>235</v>
       </c>
       <c r="H23" cm="1">
         <f t="array" aca="1" ref="H23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>856</v>
+        <v>2943</v>
       </c>
       <c r="I23" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>3992</v>
+        <v>133</v>
       </c>
       <c r="J23" cm="1">
         <f t="array" aca="1" ref="J23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-132</v>
+        <v>1218</v>
       </c>
       <c r="K23" cm="1">
         <f t="array" aca="1" ref="K23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>219</v>
+        <v>738</v>
       </c>
       <c r="L23" cm="1">
         <f t="array" aca="1" ref="L23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>821</v>
+        <v>-242</v>
       </c>
       <c r="M23" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>61</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -48673,51 +48679,51 @@
       </c>
       <c r="B24" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-5267</v>
+        <v>693</v>
       </c>
       <c r="C24" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>3044</v>
+        <v>-8967</v>
       </c>
       <c r="D24" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3433</v>
+        <v>186</v>
       </c>
       <c r="E24" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>311</v>
+        <v>-4158</v>
       </c>
       <c r="F24" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>752</v>
+        <v>176</v>
       </c>
       <c r="G24" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>6325</v>
+        <v>803</v>
       </c>
       <c r="H24" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>64</v>
+        <v>780</v>
       </c>
       <c r="I24" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>12029</v>
+        <v>503</v>
       </c>
       <c r="J24" cm="1">
         <f t="array" aca="1" ref="J24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>230</v>
+        <v>4620</v>
       </c>
       <c r="K24" cm="1">
         <f t="array" aca="1" ref="K24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>1355</v>
+        <v>152</v>
       </c>
       <c r="L24" cm="1">
         <f t="array" aca="1" ref="L24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>2072</v>
+        <v>573</v>
       </c>
       <c r="M24" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>577</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -48726,51 +48732,51 @@
       </c>
       <c r="B25" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2809</v>
+        <v>-1</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>794</v>
+        <v>-4109</v>
       </c>
       <c r="D25" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-47</v>
+        <v>719</v>
       </c>
       <c r="E25" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>-262</v>
+        <v>-1368</v>
       </c>
       <c r="F25" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G25" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>10</v>
+        <v>-299</v>
       </c>
       <c r="H25" cm="1">
         <f t="array" aca="1" ref="H25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-13</v>
+        <v>1722</v>
       </c>
       <c r="I25" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>6732</v>
+        <v>-224</v>
       </c>
       <c r="J25" cm="1">
         <f t="array" aca="1" ref="J25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-1506</v>
+        <v>972</v>
       </c>
       <c r="K25" cm="1">
         <f t="array" aca="1" ref="K25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>-159</v>
+        <v>784</v>
       </c>
       <c r="L25" cm="1">
         <f t="array" aca="1" ref="L25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>770</v>
+        <v>-40</v>
       </c>
       <c r="M25" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>26</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -48779,51 +48785,51 @@
       </c>
       <c r="B26" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-2437</v>
+        <v>428</v>
       </c>
       <c r="C26" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>53</v>
+        <v>-5700</v>
       </c>
       <c r="D26" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E26" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F26" cm="1">
         <f t="array" aca="1" ref="F26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>11</v>
+        <v>-21</v>
       </c>
       <c r="G26" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>697</v>
+        <v>101</v>
       </c>
       <c r="H26" cm="1">
         <f t="array" aca="1" ref="H26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-145</v>
+        <v>821</v>
       </c>
       <c r="I26" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1982</v>
+        <v>122</v>
       </c>
       <c r="J26" cm="1">
         <f t="array" aca="1" ref="J26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-135</v>
+        <v>238</v>
       </c>
       <c r="K26" cm="1">
         <f t="array" aca="1" ref="K26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>82</v>
+        <v>1409</v>
       </c>
       <c r="L26" cm="1">
         <f t="array" aca="1" ref="L26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>150</v>
+        <v>-209</v>
       </c>
       <c r="M26" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-31</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -48832,51 +48838,51 @@
       </c>
       <c r="B27" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-344</v>
+        <v>212</v>
       </c>
       <c r="C27" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>77</v>
+        <v>-1381</v>
       </c>
       <c r="D27" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-390</v>
+        <v>179</v>
       </c>
       <c r="E27" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>2</v>
+        <v>-289</v>
       </c>
       <c r="F27" cm="1">
         <f t="array" aca="1" ref="F27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>25</v>
+        <v>-3</v>
       </c>
       <c r="G27" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2627</v>
+        <v>100</v>
       </c>
       <c r="H27" cm="1">
         <f t="array" aca="1" ref="H27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>-55</v>
+        <v>2711</v>
       </c>
       <c r="I27" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1142</v>
+        <v>86</v>
       </c>
       <c r="J27" cm="1">
         <f t="array" aca="1" ref="J27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-104</v>
+        <v>853</v>
       </c>
       <c r="K27" cm="1">
         <f t="array" aca="1" ref="K27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>72</v>
+        <v>651</v>
       </c>
       <c r="L27" cm="1">
         <f t="array" aca="1" ref="L27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>399</v>
+        <v>-32</v>
       </c>
       <c r="M27" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-6</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -48885,51 +48891,51 @@
       </c>
       <c r="B28" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-10498</v>
+        <v>746</v>
       </c>
       <c r="C28" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>105</v>
+        <v>-10508</v>
       </c>
       <c r="D28" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-997</v>
+        <v>2535</v>
       </c>
       <c r="E28" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>645</v>
+        <v>-2898</v>
       </c>
       <c r="F28" cm="1">
         <f t="array" aca="1" ref="F28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>678</v>
+        <v>764</v>
       </c>
       <c r="G28" cm="1">
         <f t="array" aca="1" ref="G28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>4542</v>
+        <v>1327</v>
       </c>
       <c r="H28" cm="1">
         <f t="array" aca="1" ref="H28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>2649</v>
+        <v>21068</v>
       </c>
       <c r="I28" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>18828</v>
+        <v>686</v>
       </c>
       <c r="J28" cm="1">
         <f t="array" aca="1" ref="J28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-1055</v>
+        <v>3039</v>
       </c>
       <c r="K28" cm="1">
         <f t="array" aca="1" ref="K28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>438</v>
+        <v>4552</v>
       </c>
       <c r="L28" cm="1">
         <f t="array" aca="1" ref="L28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>3199</v>
+        <v>-1169</v>
       </c>
       <c r="M28" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>711</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -48938,51 +48944,51 @@
       </c>
       <c r="B29" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-4677</v>
+        <v>678</v>
       </c>
       <c r="C29" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>93</v>
+        <v>-667</v>
       </c>
       <c r="D29" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-196</v>
+        <v>460</v>
       </c>
       <c r="E29" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>730</v>
+        <v>-418</v>
       </c>
       <c r="F29" cm="1">
         <f t="array" aca="1" ref="F29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="G29" cm="1">
         <f t="array" aca="1" ref="G29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2932</v>
+        <v>8</v>
       </c>
       <c r="H29" cm="1">
         <f t="array" aca="1" ref="H29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>415</v>
+        <v>1951</v>
       </c>
       <c r="I29" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>3445</v>
+        <v>527</v>
       </c>
       <c r="J29" cm="1">
         <f t="array" aca="1" ref="J29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>287</v>
+        <v>2003</v>
       </c>
       <c r="K29" cm="1">
         <f t="array" aca="1" ref="K29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>244</v>
+        <v>485</v>
       </c>
       <c r="L29" cm="1">
         <f t="array" aca="1" ref="L29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>579</v>
+        <v>6</v>
       </c>
       <c r="M29" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -48991,51 +48997,51 @@
       </c>
       <c r="B30" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-891</v>
+        <v>187</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" aca="1" ref="C30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>73</v>
+        <v>-998</v>
       </c>
       <c r="D30" cm="1">
         <f t="array" aca="1" ref="D30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>231</v>
+        <v>520</v>
       </c>
       <c r="E30" cm="1">
         <f t="array" aca="1" ref="E30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>392</v>
+        <v>188</v>
       </c>
       <c r="F30" cm="1">
         <f t="array" aca="1" ref="F30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G30" cm="1">
         <f t="array" aca="1" ref="G30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>632</v>
+        <v>326</v>
       </c>
       <c r="H30" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>768</v>
+        <v>2120</v>
       </c>
       <c r="I30" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1513</v>
+        <v>555</v>
       </c>
       <c r="J30" cm="1">
         <f t="array" aca="1" ref="J30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>718</v>
+        <v>468</v>
       </c>
       <c r="K30" cm="1">
         <f t="array" aca="1" ref="K30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>536</v>
+        <v>909</v>
       </c>
       <c r="L30" cm="1">
         <f t="array" aca="1" ref="L30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>640</v>
+        <v>334</v>
       </c>
       <c r="M30" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>272</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -49044,51 +49050,51 @@
       </c>
       <c r="B31" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1022</v>
+        <v>180</v>
       </c>
       <c r="C31" cm="1">
         <f t="array" aca="1" ref="C31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>822</v>
+        <v>-839</v>
       </c>
       <c r="D31" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-377</v>
+        <v>383</v>
       </c>
       <c r="E31" cm="1">
         <f t="array" aca="1" ref="E31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>86</v>
+        <v>-89</v>
       </c>
       <c r="F31" cm="1">
         <f t="array" aca="1" ref="F31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>535</v>
+        <v>67</v>
       </c>
       <c r="G31" cm="1">
         <f t="array" aca="1" ref="G31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="H31" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>306</v>
+        <v>731</v>
       </c>
       <c r="I31" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1953</v>
+        <v>202</v>
       </c>
       <c r="J31" cm="1">
         <f t="array" aca="1" ref="J31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K31" cm="1">
         <f t="array" aca="1" ref="K31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="L31" cm="1">
         <f t="array" aca="1" ref="L31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="M31" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -49097,51 +49103,51 @@
       </c>
       <c r="B32" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-3955</v>
+        <v>994</v>
       </c>
       <c r="C32" cm="1">
         <f t="array" aca="1" ref="C32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>429</v>
+        <v>-3648</v>
       </c>
       <c r="D32" cm="1">
         <f t="array" aca="1" ref="D32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="E32" cm="1">
         <f t="array" aca="1" ref="E32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>1152</v>
+        <v>66</v>
       </c>
       <c r="F32" cm="1">
         <f t="array" aca="1" ref="F32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>1567</v>
+        <v>1235</v>
       </c>
       <c r="G32" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>500</v>
+        <v>1836</v>
       </c>
       <c r="H32" cm="1">
         <f t="array" aca="1" ref="H32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>1330</v>
+        <v>521</v>
       </c>
       <c r="I32" cm="1">
         <f t="array" aca="1" ref="I32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2812</v>
+        <v>1917</v>
       </c>
       <c r="J32" cm="1">
         <f t="array" aca="1" ref="J32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>1332</v>
+        <v>1279</v>
       </c>
       <c r="K32" cm="1">
         <f t="array" aca="1" ref="K32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>200</v>
+        <v>2441</v>
       </c>
       <c r="L32" cm="1">
         <f t="array" aca="1" ref="L32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>241</v>
+        <v>766</v>
       </c>
       <c r="M32" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -49150,51 +49156,51 @@
       </c>
       <c r="B33" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-311</v>
+        <v>546</v>
       </c>
       <c r="C33" cm="1">
         <f t="array" aca="1" ref="C33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>492</v>
+        <v>-1616</v>
       </c>
       <c r="D33" cm="1">
         <f t="array" aca="1" ref="D33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-130</v>
+        <v>396</v>
       </c>
       <c r="E33" cm="1">
         <f t="array" aca="1" ref="E33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>94</v>
+        <v>-95</v>
       </c>
       <c r="F33" cm="1">
         <f t="array" aca="1" ref="F33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>88</v>
+        <v>-18</v>
       </c>
       <c r="G33" cm="1">
         <f t="array" aca="1" ref="G33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>450</v>
+        <v>23</v>
       </c>
       <c r="H33" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>163</v>
+        <v>3045</v>
       </c>
       <c r="I33" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>107</v>
+        <v>385</v>
       </c>
       <c r="J33" cm="1">
         <f t="array" aca="1" ref="J33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>23</v>
+        <v>467</v>
       </c>
       <c r="K33" cm="1">
         <f t="array" aca="1" ref="K33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>304</v>
+        <v>485</v>
       </c>
       <c r="L33" cm="1">
         <f t="array" aca="1" ref="L33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>401</v>
+        <v>5</v>
       </c>
       <c r="M33" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-9</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -49203,51 +49209,51 @@
       </c>
       <c r="B34" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-7229</v>
+        <v>276</v>
       </c>
       <c r="C34" cm="1">
         <f t="array" aca="1" ref="C34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>911</v>
+        <v>-440</v>
       </c>
       <c r="D34" cm="1">
         <f t="array" aca="1" ref="D34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-1</v>
+        <v>366</v>
       </c>
       <c r="E34" cm="1">
         <f t="array" aca="1" ref="E34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>170</v>
+        <v>-4</v>
       </c>
       <c r="F34" cm="1">
         <f t="array" aca="1" ref="F34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="G34" cm="1">
         <f t="array" aca="1" ref="G34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>516</v>
+        <v>52</v>
       </c>
       <c r="H34" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>189</v>
+        <v>2466</v>
       </c>
       <c r="I34" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>806</v>
+        <v>145</v>
       </c>
       <c r="J34" cm="1">
         <f t="array" aca="1" ref="J34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="K34" cm="1">
         <f t="array" aca="1" ref="K34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>138</v>
+        <v>545</v>
       </c>
       <c r="L34" cm="1">
         <f t="array" aca="1" ref="L34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>352</v>
+        <v>117</v>
       </c>
       <c r="M34" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>88</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -49256,51 +49262,51 @@
       </c>
       <c r="B35" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1815</v>
+        <v>320</v>
       </c>
       <c r="C35" cm="1">
         <f t="array" aca="1" ref="C35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>867</v>
+        <v>-611</v>
       </c>
       <c r="D35" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-171</v>
+        <v>588</v>
       </c>
       <c r="E35" cm="1">
         <f t="array" aca="1" ref="E35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>688</v>
+        <v>-81</v>
       </c>
       <c r="F35" cm="1">
         <f t="array" aca="1" ref="F35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G35" cm="1">
         <f t="array" aca="1" ref="G35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>256</v>
+        <v>609</v>
       </c>
       <c r="H35" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>179</v>
+        <v>2232</v>
       </c>
       <c r="I35" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>2751</v>
+        <v>229</v>
       </c>
       <c r="J35" cm="1">
         <f t="array" aca="1" ref="J35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>197</v>
+        <v>768</v>
       </c>
       <c r="K35" cm="1">
         <f t="array" aca="1" ref="K35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>677</v>
+        <v>224</v>
       </c>
       <c r="L35" cm="1">
         <f t="array" aca="1" ref="L35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>707</v>
+        <v>614</v>
       </c>
       <c r="M35" cm="1">
         <f t="array" aca="1" ref="M35" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>520</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -49309,51 +49315,51 @@
       </c>
       <c r="B36" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-616</v>
+        <v>121</v>
       </c>
       <c r="C36" cm="1">
         <f t="array" aca="1" ref="C36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>158</v>
+        <v>-259</v>
       </c>
       <c r="D36" cm="1">
         <f t="array" aca="1" ref="D36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-3</v>
+        <v>94</v>
       </c>
       <c r="E36" cm="1">
         <f t="array" aca="1" ref="E36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="F36" cm="1">
         <f t="array" aca="1" ref="F36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="G36" cm="1">
         <f t="array" aca="1" ref="G36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="H36" cm="1">
         <f t="array" aca="1" ref="H36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>49</v>
+        <v>1258</v>
       </c>
       <c r="I36" cm="1">
         <f t="array" aca="1" ref="I36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1725</v>
+        <v>53</v>
       </c>
       <c r="J36" cm="1">
         <f t="array" aca="1" ref="J36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="K36" cm="1">
         <f t="array" aca="1" ref="K36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L36" cm="1">
         <f t="array" aca="1" ref="L36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M36" cm="1">
         <f t="array" aca="1" ref="M36" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -49362,27 +49368,27 @@
       </c>
       <c r="B37" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-270</v>
+        <v>45</v>
       </c>
       <c r="C37" cm="1">
         <f t="array" aca="1" ref="C37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>235</v>
+        <v>-6</v>
       </c>
       <c r="D37" cm="1">
         <f t="array" aca="1" ref="D37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="E37" cm="1">
         <f t="array" aca="1" ref="E37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="F37" cm="1">
         <f t="array" aca="1" ref="F37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G37" cm="1">
         <f t="array" aca="1" ref="G37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>453</v>
+        <v>139</v>
       </c>
       <c r="H37" cm="1">
         <f t="array" aca="1" ref="H37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
@@ -49390,23 +49396,23 @@
       </c>
       <c r="I37" cm="1">
         <f t="array" aca="1" ref="I37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>263</v>
+        <v>116</v>
       </c>
       <c r="J37" cm="1">
         <f t="array" aca="1" ref="J37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-9</v>
+        <v>49</v>
       </c>
       <c r="K37" cm="1">
         <f t="array" aca="1" ref="K37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="L37" cm="1">
         <f t="array" aca="1" ref="L37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>137</v>
+        <v>-195</v>
       </c>
       <c r="M37" cm="1">
         <f t="array" aca="1" ref="M37" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>173</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -49415,51 +49421,51 @@
       </c>
       <c r="B38" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-7211</v>
+        <v>862</v>
       </c>
       <c r="C38" cm="1">
         <f t="array" aca="1" ref="C38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1537</v>
+        <v>-8220</v>
       </c>
       <c r="D38" cm="1">
         <f t="array" aca="1" ref="D38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-260</v>
+        <v>401</v>
       </c>
       <c r="E38" cm="1">
         <f t="array" aca="1" ref="E38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>52</v>
+        <v>-328</v>
       </c>
       <c r="F38" cm="1">
         <f t="array" aca="1" ref="F38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="G38" cm="1">
         <f t="array" aca="1" ref="G38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>466</v>
+        <v>50</v>
       </c>
       <c r="H38" cm="1">
         <f t="array" aca="1" ref="H38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>501</v>
+        <v>2670</v>
       </c>
       <c r="I38" cm="1">
         <f t="array" aca="1" ref="I38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>4628</v>
+        <v>300</v>
       </c>
       <c r="J38" cm="1">
         <f t="array" aca="1" ref="J38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="K38" cm="1">
         <f t="array" aca="1" ref="K38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>717</v>
+        <v>1039</v>
       </c>
       <c r="L38" cm="1">
         <f t="array" aca="1" ref="L38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="M38" cm="1">
         <f t="array" aca="1" ref="M38" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -49468,51 +49474,51 @@
       </c>
       <c r="B39" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1386</v>
+        <v>581</v>
       </c>
       <c r="C39" cm="1">
         <f t="array" aca="1" ref="C39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>328</v>
+        <v>-304</v>
       </c>
       <c r="D39" cm="1">
         <f t="array" aca="1" ref="D39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>-22</v>
+        <v>61</v>
       </c>
       <c r="E39" cm="1">
         <f t="array" aca="1" ref="E39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>204</v>
+        <v>-39</v>
       </c>
       <c r="F39" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="G39" cm="1">
         <f t="array" aca="1" ref="G39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="H39" cm="1">
         <f t="array" aca="1" ref="H39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>18</v>
+        <v>1763</v>
       </c>
       <c r="I39" cm="1">
         <f t="array" aca="1" ref="I39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>685</v>
+        <v>96</v>
       </c>
       <c r="J39" cm="1">
         <f t="array" aca="1" ref="J39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>-13</v>
+        <v>148</v>
       </c>
       <c r="K39" cm="1">
         <f t="array" aca="1" ref="K39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="L39" cm="1">
         <f t="array" aca="1" ref="L39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>23</v>
+        <v>-40</v>
       </c>
       <c r="M39" cm="1">
         <f t="array" aca="1" ref="M39" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -49521,51 +49527,51 @@
       </c>
       <c r="B40" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1025</v>
+        <v>225</v>
       </c>
       <c r="C40" cm="1">
         <f t="array" aca="1" ref="C40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>875</v>
+        <v>-253</v>
       </c>
       <c r="D40" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E40" cm="1">
         <f t="array" aca="1" ref="E40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="F40" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="G40" cm="1">
         <f t="array" aca="1" ref="G40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="H40" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>214</v>
+        <v>1177</v>
       </c>
       <c r="I40" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>1222</v>
+        <v>141</v>
       </c>
       <c r="J40" cm="1">
         <f t="array" aca="1" ref="J40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K40" cm="1">
         <f t="array" aca="1" ref="K40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>244</v>
+        <v>710</v>
       </c>
       <c r="L40" cm="1">
         <f t="array" aca="1" ref="L40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M40" cm="1">
         <f t="array" aca="1" ref="M40" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>227</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -49574,51 +49580,51 @@
       </c>
       <c r="B41" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-47</v>
+        <v>18</v>
       </c>
       <c r="C41" cm="1">
         <f t="array" aca="1" ref="C41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>84</v>
+        <v>-728</v>
       </c>
       <c r="D41" cm="1">
         <f t="array" aca="1" ref="D41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="E41" cm="1">
         <f t="array" aca="1" ref="E41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="F41" cm="1">
         <f t="array" aca="1" ref="F41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>8</v>
+        <v>-16</v>
       </c>
       <c r="G41" cm="1">
         <f t="array" aca="1" ref="G41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H41" cm="1">
         <f t="array" aca="1" ref="H41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="I41" cm="1">
         <f t="array" aca="1" ref="I41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>841</v>
+        <v>28</v>
       </c>
       <c r="J41" cm="1">
         <f t="array" aca="1" ref="J41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="K41" cm="1">
         <f t="array" aca="1" ref="K41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="L41" cm="1">
         <f t="array" aca="1" ref="L41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="M41" cm="1">
         <f t="array" aca="1" ref="M41" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -49627,51 +49633,51 @@
       </c>
       <c r="B42" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1980</v>
+        <v>400</v>
       </c>
       <c r="C42" cm="1">
         <f t="array" aca="1" ref="C42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1276</v>
+        <v>-2193</v>
       </c>
       <c r="D42" cm="1">
         <f t="array" aca="1" ref="D42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="E42" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="F42" cm="1">
         <f t="array" aca="1" ref="F42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>411</v>
+        <v>-232</v>
       </c>
       <c r="G42" cm="1">
         <f t="array" aca="1" ref="G42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>8</v>
+        <v>662</v>
       </c>
       <c r="H42" cm="1">
         <f t="array" aca="1" ref="H42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>346</v>
+        <v>185</v>
       </c>
       <c r="I42" cm="1">
         <f t="array" aca="1" ref="I42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="J42" cm="1">
         <f t="array" aca="1" ref="J42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K42" cm="1">
         <f t="array" aca="1" ref="K42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>494</v>
+        <v>924</v>
       </c>
       <c r="L42" cm="1">
         <f t="array" aca="1" ref="L42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="M42" cm="1">
         <f t="array" aca="1" ref="M42" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-240</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -49680,51 +49686,51 @@
       </c>
       <c r="B43" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1326</v>
+        <v>219</v>
       </c>
       <c r="C43" cm="1">
         <f t="array" aca="1" ref="C43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>1949</v>
+        <v>-5900</v>
       </c>
       <c r="D43" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E43" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F43" cm="1">
         <f t="array" aca="1" ref="F43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>363</v>
+        <v>17</v>
       </c>
       <c r="G43" cm="1">
         <f t="array" aca="1" ref="G43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="H43" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>112</v>
+        <v>1525</v>
       </c>
       <c r="I43" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="J43" cm="1">
         <f t="array" aca="1" ref="J43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>28</v>
+        <v>322</v>
       </c>
       <c r="K43" cm="1">
         <f t="array" aca="1" ref="K43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>232</v>
+        <v>1335</v>
       </c>
       <c r="L43" cm="1">
         <f t="array" aca="1" ref="L43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="M43" cm="1">
         <f t="array" aca="1" ref="M43" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -49733,51 +49739,51 @@
       </c>
       <c r="B44" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-167</v>
+        <v>134</v>
       </c>
       <c r="C44" cm="1">
         <f t="array" aca="1" ref="C44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>633</v>
+        <v>-1591</v>
       </c>
       <c r="D44" cm="1">
         <f t="array" aca="1" ref="D44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E44" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F44" cm="1">
         <f t="array" aca="1" ref="F44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G44" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H44" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>64</v>
+        <v>476</v>
       </c>
       <c r="I44" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="J44" cm="1">
         <f t="array" aca="1" ref="J44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="K44" cm="1">
         <f t="array" aca="1" ref="K44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="L44" cm="1">
         <f t="array" aca="1" ref="L44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="M44" cm="1">
         <f t="array" aca="1" ref="M44" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -49786,51 +49792,51 @@
       </c>
       <c r="B45" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-376</v>
+        <v>162</v>
       </c>
       <c r="C45" cm="1">
         <f t="array" aca="1" ref="C45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>474</v>
+        <v>-713</v>
       </c>
       <c r="D45" cm="1">
         <f t="array" aca="1" ref="D45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="E45" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>376</v>
+        <v>109</v>
       </c>
       <c r="F45" cm="1">
         <f t="array" aca="1" ref="F45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>465</v>
+        <v>-18</v>
       </c>
       <c r="G45" cm="1">
         <f t="array" aca="1" ref="G45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>53</v>
+        <v>301</v>
       </c>
       <c r="H45" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>393</v>
+        <v>102</v>
       </c>
       <c r="I45" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>537</v>
+        <v>397</v>
       </c>
       <c r="J45" cm="1">
         <f t="array" aca="1" ref="J45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>452</v>
+        <v>254</v>
       </c>
       <c r="K45" cm="1">
         <f t="array" aca="1" ref="K45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="L45" cm="1">
         <f t="array" aca="1" ref="L45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="M45" cm="1">
         <f t="array" aca="1" ref="M45" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -49839,51 +49845,51 @@
       </c>
       <c r="B46" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-345</v>
+        <v>41</v>
       </c>
       <c r="C46" cm="1">
         <f t="array" aca="1" ref="C46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>348</v>
+        <v>-182</v>
       </c>
       <c r="D46" cm="1">
         <f t="array" aca="1" ref="D46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E46" cm="1">
         <f t="array" aca="1" ref="E46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F46" cm="1">
         <f t="array" aca="1" ref="F46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>155</v>
+        <v>-17</v>
       </c>
       <c r="G46" cm="1">
         <f t="array" aca="1" ref="G46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="H46" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>57</v>
+        <v>276</v>
       </c>
       <c r="I46" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>349</v>
+        <v>57</v>
       </c>
       <c r="J46" cm="1">
         <f t="array" aca="1" ref="J46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K46" cm="1">
         <f t="array" aca="1" ref="K46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="L46" cm="1">
         <f t="array" aca="1" ref="L46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M46" cm="1">
         <f t="array" aca="1" ref="M46" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>-10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -49892,51 +49898,51 @@
       </c>
       <c r="B47" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),B$49)</f>
-        <v>-1329</v>
+        <v>139</v>
       </c>
       <c r="C47" cm="1">
         <f t="array" aca="1" ref="C47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),C$49)</f>
-        <v>929</v>
+        <v>-3283</v>
       </c>
       <c r="D47" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),D$49)</f>
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="E47" cm="1">
         <f t="array" aca="1" ref="E47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),E$49)</f>
-        <v>478</v>
+        <v>275</v>
       </c>
       <c r="F47" cm="1">
         <f t="array" aca="1" ref="F47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),F$49)</f>
-        <v>598</v>
+        <v>416</v>
       </c>
       <c r="G47" cm="1">
         <f t="array" aca="1" ref="G47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),G$49)</f>
-        <v>753</v>
+        <v>35</v>
       </c>
       <c r="H47" cm="1">
         <f t="array" aca="1" ref="H47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),H$49)</f>
-        <v>719</v>
+        <v>1502</v>
       </c>
       <c r="I47" cm="1">
         <f t="array" aca="1" ref="I47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),I$49)</f>
-        <v>759</v>
+        <v>191</v>
       </c>
       <c r="J47" cm="1">
         <f t="array" aca="1" ref="J47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),J$49)</f>
-        <v>61</v>
+        <v>460</v>
       </c>
       <c r="K47" cm="1">
         <f t="array" aca="1" ref="K47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),K$49)</f>
-        <v>843</v>
+        <v>413</v>
       </c>
       <c r="L47" cm="1">
         <f t="array" aca="1" ref="L47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),L$49)</f>
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="M47" cm="1">
         <f t="array" aca="1" ref="M47" ca="1">INDEX(Table8[[1]:[12]],MATCH(Table9[[#This Row],[point]],Table8[point],0),M$49)</f>
-        <v>36</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -49945,51 +49951,51 @@
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49:M49" ca="1">TRANSPOSE(_xlfn.SORTBY(_xlfn.SEQUENCE(12),_xlfn.RANDARRAY(12)))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <f ca="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <f ca="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49">
         <f ca="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <f ca="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <f ca="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I49">
         <f ca="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J49">
         <f ca="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K49">
         <f ca="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M49">
         <f ca="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
